--- a/articles_metadata.xlsx
+++ b/articles_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlenda1\google-scholar-citations-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547385E-02A8-437F-8F00-E7B407740B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168F668-4A3C-48E9-BC2E-0B9E716BE5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="966">
   <si>
     <t>source</t>
   </si>
@@ -826,9 +826,6 @@
     <t>https://psyarxiv.com/cfbzt/</t>
   </si>
   <si>
-    <t>Please cite as</t>
-  </si>
-  <si>
     <t xml:space="preserve">EK Kalokerinos, Y Erbas, E Ceulemans, P Kuppens </t>
   </si>
   <si>
@@ -2920,7 +2917,8 @@
     <t>mvs_applied</t>
   </si>
   <si>
-    <t>visualization</t>
+    <t xml:space="preserve">Differentiate to Regulate: Low Negative Emotion Differentiation is Associated with
+Ineffective Emotion Regulation Use, but not Strategy Selection </t>
   </si>
 </sst>
 </file>
@@ -2996,7 +2994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3004,6 +3002,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3308,15 +3309,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3333,13 +3334,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3355,8 +3353,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3372,8 +3373,11 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3386,11 +3390,14 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3403,11 +3410,14 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3420,11 +3430,14 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3437,11 +3450,14 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3454,11 +3470,14 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3471,11 +3490,14 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3488,11 +3510,14 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3505,11 +3530,14 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3522,11 +3550,14 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3539,11 +3570,14 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3556,11 +3590,14 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3573,11 +3610,14 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3590,11 +3630,14 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3607,11 +3650,14 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3624,11 +3670,14 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3641,11 +3690,14 @@
       <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3658,11 +3710,14 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3675,11 +3730,14 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3692,11 +3750,14 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3709,11 +3770,14 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3726,11 +3790,14 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3743,11 +3810,14 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3760,11 +3830,14 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3777,11 +3850,14 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3794,11 +3870,14 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3811,11 +3890,14 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3828,11 +3910,14 @@
       <c r="D30" t="s">
         <v>62</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3845,11 +3930,14 @@
       <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3862,11 +3950,14 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3879,11 +3970,14 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3896,11 +3990,14 @@
       <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3913,11 +4010,14 @@
       <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3930,11 +4030,14 @@
       <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3947,11 +4050,14 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3964,11 +4070,14 @@
       <c r="D38" t="s">
         <v>62</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3981,11 +4090,14 @@
       <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3998,11 +4110,14 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -4015,11 +4130,14 @@
       <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4032,11 +4150,14 @@
       <c r="D42" t="s">
         <v>62</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -4049,11 +4170,14 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -4066,11 +4190,14 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -4083,11 +4210,14 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -4100,11 +4230,14 @@
       <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -4117,11 +4250,14 @@
       <c r="D47" t="s">
         <v>146</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4134,11 +4270,14 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -4151,11 +4290,14 @@
       <c r="D49" t="s">
         <v>62</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -4168,11 +4310,14 @@
       <c r="D50" t="s">
         <v>62</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -4185,11 +4330,14 @@
       <c r="D51" t="s">
         <v>62</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -4202,11 +4350,14 @@
       <c r="D52" t="s">
         <v>62</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -4219,11 +4370,14 @@
       <c r="D53" t="s">
         <v>62</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -4236,11 +4390,14 @@
       <c r="D54" t="s">
         <v>62</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4253,11 +4410,14 @@
       <c r="D55" t="s">
         <v>62</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4270,11 +4430,14 @@
       <c r="D56" t="s">
         <v>62</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -4287,11 +4450,14 @@
       <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4304,11 +4470,14 @@
       <c r="D58" t="s">
         <v>62</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4321,11 +4490,14 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -4338,11 +4510,14 @@
       <c r="D60" t="s">
         <v>62</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -4355,11 +4530,14 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -4372,11 +4550,14 @@
       <c r="D62" t="s">
         <v>62</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -4389,11 +4570,14 @@
       <c r="D63" t="s">
         <v>62</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -4406,11 +4590,14 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -4423,11 +4610,14 @@
       <c r="D65" t="s">
         <v>62</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -4440,11 +4630,14 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -4457,11 +4650,14 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -4474,11 +4670,14 @@
       <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -4491,11 +4690,14 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -4508,11 +4710,14 @@
       <c r="D70" t="s">
         <v>146</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -4525,11 +4730,14 @@
       <c r="D71" t="s">
         <v>62</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -4542,11 +4750,14 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -4559,11 +4770,14 @@
       <c r="D73" t="s">
         <v>62</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -4576,11 +4790,14 @@
       <c r="D74" t="s">
         <v>146</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -4593,11 +4810,14 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -4610,11 +4830,14 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -4627,11 +4850,14 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -4644,11 +4870,14 @@
       <c r="D78" t="s">
         <v>62</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -4661,11 +4890,14 @@
       <c r="D79" t="s">
         <v>62</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -4678,11 +4910,14 @@
       <c r="D80" t="s">
         <v>62</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -4695,11 +4930,14 @@
       <c r="D81" t="s">
         <v>62</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -4712,11 +4950,14 @@
       <c r="D82" t="s">
         <v>62</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -4729,11 +4970,14 @@
       <c r="D83" t="s">
         <v>62</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -4746,11 +4990,14 @@
       <c r="D84" t="s">
         <v>62</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -4763,11 +5010,14 @@
       <c r="D85" t="s">
         <v>62</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -4780,11 +5030,14 @@
       <c r="D86" t="s">
         <v>62</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -4797,67 +5050,79 @@
       <c r="D87" t="s">
         <v>62</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C88" t="s">
         <v>268</v>
-      </c>
-      <c r="C88" t="s">
-        <v>269</v>
       </c>
       <c r="D88" t="s">
         <v>146</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>271</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D89" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>274</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D90" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>277</v>
       </c>
       <c r="C91" t="s">
         <v>179</v>
@@ -4865,365 +5130,395 @@
       <c r="D91" t="s">
         <v>62</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>279</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>280</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>283</v>
-      </c>
-      <c r="C93" t="s">
-        <v>284</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>286</v>
-      </c>
-      <c r="C94" t="s">
-        <v>287</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>289</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>292</v>
-      </c>
-      <c r="C96" t="s">
-        <v>293</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>295</v>
-      </c>
-      <c r="C97" t="s">
-        <v>296</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D98" t="s">
-        <v>62</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>301</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D99" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>304</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>307</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" t="s">
         <v>308</v>
       </c>
-      <c r="D101" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>310</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" t="s">
         <v>311</v>
       </c>
-      <c r="D102" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>313</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" t="s">
         <v>314</v>
       </c>
-      <c r="D103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>316</v>
-      </c>
-      <c r="C104" t="s">
-        <v>317</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>319</v>
-      </c>
-      <c r="C105" t="s">
-        <v>320</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
       </c>
       <c r="E105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>322</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" t="s">
         <v>323</v>
       </c>
-      <c r="D106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106" t="s">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>325</v>
-      </c>
-      <c r="C107" t="s">
-        <v>326</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>328</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" t="s">
         <v>329</v>
       </c>
-      <c r="D108" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" t="s">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>331</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" t="s">
         <v>332</v>
       </c>
-      <c r="D109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>334</v>
-      </c>
-      <c r="C110" t="s">
-        <v>335</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>337</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" t="s">
         <v>338</v>
       </c>
-      <c r="D111" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" t="s">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>340</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" t="s">
         <v>341</v>
-      </c>
-      <c r="D112" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5231,16 +5526,16 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" t="s">
         <v>343</v>
-      </c>
-      <c r="C113" t="s">
-        <v>344</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -5248,16 +5543,16 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
         <v>346</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" t="s">
         <v>347</v>
-      </c>
-      <c r="D114" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -5265,16 +5560,16 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
         <v>349</v>
-      </c>
-      <c r="C115" t="s">
-        <v>350</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -5282,16 +5577,16 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
         <v>352</v>
-      </c>
-      <c r="C116" t="s">
-        <v>353</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -5299,16 +5594,16 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="s">
         <v>355</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" t="s">
         <v>356</v>
-      </c>
-      <c r="D117" t="s">
-        <v>62</v>
-      </c>
-      <c r="E117" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -5316,16 +5611,16 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" t="s">
         <v>358</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" t="s">
         <v>359</v>
-      </c>
-      <c r="D118" t="s">
-        <v>62</v>
-      </c>
-      <c r="E118" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5333,16 +5628,16 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" t="s">
         <v>361</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" t="s">
         <v>362</v>
-      </c>
-      <c r="D119" t="s">
-        <v>62</v>
-      </c>
-      <c r="E119" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -5350,16 +5645,16 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" t="s">
         <v>364</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" t="s">
         <v>365</v>
-      </c>
-      <c r="D120" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5367,16 +5662,16 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" t="s">
         <v>367</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" t="s">
         <v>368</v>
-      </c>
-      <c r="D121" t="s">
-        <v>62</v>
-      </c>
-      <c r="E121" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5384,16 +5679,16 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" t="s">
         <v>370</v>
-      </c>
-      <c r="C122" t="s">
-        <v>371</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -5401,16 +5696,16 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" t="s">
         <v>373</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" t="s">
         <v>374</v>
-      </c>
-      <c r="D123" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -5418,16 +5713,16 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
         <v>376</v>
-      </c>
-      <c r="C124" t="s">
-        <v>377</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5435,16 +5730,16 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" t="s">
         <v>379</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" t="s">
         <v>380</v>
-      </c>
-      <c r="D125" t="s">
-        <v>62</v>
-      </c>
-      <c r="E125" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5452,16 +5747,16 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" t="s">
         <v>382</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>62</v>
+      </c>
+      <c r="E126" t="s">
         <v>383</v>
-      </c>
-      <c r="D126" t="s">
-        <v>62</v>
-      </c>
-      <c r="E126" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5469,16 +5764,16 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" t="s">
         <v>385</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" t="s">
         <v>386</v>
-      </c>
-      <c r="D127" t="s">
-        <v>62</v>
-      </c>
-      <c r="E127" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5486,16 +5781,16 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" t="s">
         <v>388</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" t="s">
         <v>389</v>
-      </c>
-      <c r="D128" t="s">
-        <v>62</v>
-      </c>
-      <c r="E128" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -5503,16 +5798,16 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" t="s">
         <v>391</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" t="s">
         <v>392</v>
-      </c>
-      <c r="D129" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5520,16 +5815,16 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" t="s">
         <v>394</v>
-      </c>
-      <c r="C130" t="s">
-        <v>395</v>
       </c>
       <c r="D130" t="s">
         <v>146</v>
       </c>
       <c r="E130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5537,16 +5832,16 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" t="s">
         <v>397</v>
-      </c>
-      <c r="C131" t="s">
-        <v>398</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5554,16 +5849,16 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
       </c>
       <c r="D132" t="s">
+        <v>400</v>
+      </c>
+      <c r="E132" t="s">
         <v>401</v>
-      </c>
-      <c r="E132" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5571,16 +5866,16 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
+        <v>402</v>
+      </c>
+      <c r="C133" t="s">
         <v>403</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>62</v>
+      </c>
+      <c r="E133" t="s">
         <v>404</v>
-      </c>
-      <c r="D133" t="s">
-        <v>62</v>
-      </c>
-      <c r="E133" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5588,16 +5883,16 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
+        <v>405</v>
+      </c>
+      <c r="C134" t="s">
         <v>406</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>62</v>
+      </c>
+      <c r="E134" t="s">
         <v>407</v>
-      </c>
-      <c r="D134" t="s">
-        <v>62</v>
-      </c>
-      <c r="E134" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5605,16 +5900,16 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
+        <v>408</v>
+      </c>
+      <c r="C135" t="s">
         <v>409</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>62</v>
+      </c>
+      <c r="E135" t="s">
         <v>410</v>
-      </c>
-      <c r="D135" t="s">
-        <v>62</v>
-      </c>
-      <c r="E135" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5622,16 +5917,16 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
+        <v>411</v>
+      </c>
+      <c r="C136" t="s">
         <v>412</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" t="s">
         <v>413</v>
-      </c>
-      <c r="D136" t="s">
-        <v>62</v>
-      </c>
-      <c r="E136" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5639,16 +5934,16 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
+        <v>414</v>
+      </c>
+      <c r="C137" t="s">
         <v>415</v>
-      </c>
-      <c r="C137" t="s">
-        <v>416</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5656,16 +5951,16 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
+        <v>417</v>
+      </c>
+      <c r="C138" t="s">
         <v>418</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" t="s">
         <v>419</v>
-      </c>
-      <c r="D138" t="s">
-        <v>62</v>
-      </c>
-      <c r="E138" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5673,16 +5968,16 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
+        <v>420</v>
+      </c>
+      <c r="C139" t="s">
         <v>421</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>62</v>
+      </c>
+      <c r="E139" t="s">
         <v>422</v>
-      </c>
-      <c r="D139" t="s">
-        <v>62</v>
-      </c>
-      <c r="E139" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5690,16 +5985,16 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
+        <v>423</v>
+      </c>
+      <c r="C140" t="s">
         <v>424</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" t="s">
         <v>425</v>
-      </c>
-      <c r="D140" t="s">
-        <v>62</v>
-      </c>
-      <c r="E140" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5707,16 +6002,16 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" t="s">
         <v>427</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" t="s">
         <v>428</v>
-      </c>
-      <c r="D141" t="s">
-        <v>62</v>
-      </c>
-      <c r="E141" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5724,16 +6019,16 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
+        <v>429</v>
+      </c>
+      <c r="C142" t="s">
         <v>430</v>
-      </c>
-      <c r="C142" t="s">
-        <v>431</v>
       </c>
       <c r="D142" t="s">
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -5741,16 +6036,16 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143" t="s">
         <v>433</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" t="s">
         <v>434</v>
-      </c>
-      <c r="D143" t="s">
-        <v>62</v>
-      </c>
-      <c r="E143" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5758,16 +6053,16 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
+        <v>435</v>
+      </c>
+      <c r="C144" t="s">
         <v>436</v>
-      </c>
-      <c r="C144" t="s">
-        <v>437</v>
       </c>
       <c r="D144" t="s">
         <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5775,16 +6070,16 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" t="s">
         <v>439</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145" t="s">
         <v>440</v>
-      </c>
-      <c r="D145" t="s">
-        <v>62</v>
-      </c>
-      <c r="E145" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5792,16 +6087,16 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" t="s">
         <v>442</v>
-      </c>
-      <c r="C146" t="s">
-        <v>443</v>
       </c>
       <c r="D146" t="s">
         <v>146</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -5809,16 +6104,16 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
+        <v>444</v>
+      </c>
+      <c r="C147" t="s">
         <v>445</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>62</v>
+      </c>
+      <c r="E147" t="s">
         <v>446</v>
-      </c>
-      <c r="D147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -5826,16 +6121,16 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
+        <v>447</v>
+      </c>
+      <c r="C148" t="s">
         <v>448</v>
-      </c>
-      <c r="C148" t="s">
-        <v>449</v>
       </c>
       <c r="D148" t="s">
         <v>146</v>
       </c>
       <c r="E148" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -5843,16 +6138,16 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
+        <v>450</v>
+      </c>
+      <c r="C149" t="s">
         <v>451</v>
-      </c>
-      <c r="C149" t="s">
-        <v>452</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5860,21 +6155,21 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
+        <v>453</v>
+      </c>
+      <c r="C150" t="s">
         <v>454</v>
-      </c>
-      <c r="C150" t="s">
-        <v>455</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5891,58 +6186,58 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>456</v>
+      </c>
+      <c r="B152" t="s">
         <v>457</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>458</v>
-      </c>
-      <c r="C152" t="s">
-        <v>459</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B153" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" t="s">
         <v>461</v>
-      </c>
-      <c r="C153" t="s">
-        <v>462</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B154" t="s">
+        <v>463</v>
+      </c>
+      <c r="C154" t="s">
         <v>464</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" t="s">
         <v>465</v>
-      </c>
-      <c r="D154" t="s">
-        <v>62</v>
-      </c>
-      <c r="E154" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B155" t="s">
         <v>24</v>
@@ -5959,58 +6254,58 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B156" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" t="s">
         <v>467</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" t="s">
         <v>468</v>
-      </c>
-      <c r="D156" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C157" t="s">
         <v>470</v>
-      </c>
-      <c r="C157" t="s">
-        <v>471</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B158" t="s">
+        <v>472</v>
+      </c>
+      <c r="C158" t="s">
         <v>473</v>
-      </c>
-      <c r="C158" t="s">
-        <v>474</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
@@ -6027,7 +6322,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B160" t="s">
         <v>42</v>
@@ -6044,7 +6339,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B161" t="s">
         <v>64</v>
@@ -6061,24 +6356,24 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B162" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" t="s">
         <v>476</v>
-      </c>
-      <c r="C162" t="s">
-        <v>477</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s">
         <v>73</v>
@@ -6095,58 +6390,58 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" t="s">
         <v>479</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" t="s">
         <v>480</v>
-      </c>
-      <c r="D164" t="s">
-        <v>62</v>
-      </c>
-      <c r="E164" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s">
+        <v>481</v>
+      </c>
+      <c r="C165" t="s">
         <v>482</v>
-      </c>
-      <c r="C165" t="s">
-        <v>483</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B166" t="s">
+        <v>484</v>
+      </c>
+      <c r="C166" t="s">
+        <v>482</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
         <v>485</v>
-      </c>
-      <c r="C166" t="s">
-        <v>483</v>
-      </c>
-      <c r="D166" t="s">
-        <v>62</v>
-      </c>
-      <c r="E166" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s">
         <v>96</v>
@@ -6163,24 +6458,24 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B168" t="s">
+        <v>486</v>
+      </c>
+      <c r="C168" t="s">
         <v>487</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" t="s">
         <v>488</v>
-      </c>
-      <c r="D168" t="s">
-        <v>62</v>
-      </c>
-      <c r="E168" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B169" t="s">
         <v>99</v>
@@ -6197,92 +6492,92 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B170" t="s">
+        <v>489</v>
+      </c>
+      <c r="C170" t="s">
         <v>490</v>
-      </c>
-      <c r="C170" t="s">
-        <v>491</v>
       </c>
       <c r="D170" t="s">
         <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B171" t="s">
+        <v>492</v>
+      </c>
+      <c r="C171" t="s">
         <v>493</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" t="s">
         <v>494</v>
-      </c>
-      <c r="D171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B172" t="s">
+        <v>495</v>
+      </c>
+      <c r="C172" t="s">
         <v>496</v>
-      </c>
-      <c r="C172" t="s">
-        <v>497</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B173" t="s">
+        <v>498</v>
+      </c>
+      <c r="C173" t="s">
         <v>499</v>
-      </c>
-      <c r="C173" t="s">
-        <v>500</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B174" t="s">
+        <v>501</v>
+      </c>
+      <c r="C174" t="s">
         <v>502</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>62</v>
+      </c>
+      <c r="E174" t="s">
         <v>503</v>
-      </c>
-      <c r="D174" t="s">
-        <v>62</v>
-      </c>
-      <c r="E174" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B175" t="s">
         <v>117</v>
@@ -6299,41 +6594,41 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B176" t="s">
+        <v>504</v>
+      </c>
+      <c r="C176" t="s">
         <v>505</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" t="s">
         <v>506</v>
-      </c>
-      <c r="D176" t="s">
-        <v>62</v>
-      </c>
-      <c r="E176" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B177" t="s">
+        <v>507</v>
+      </c>
+      <c r="C177" t="s">
         <v>508</v>
-      </c>
-      <c r="C177" t="s">
-        <v>509</v>
       </c>
       <c r="D177" t="s">
         <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B178" t="s">
         <v>135</v>
@@ -6350,7 +6645,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B179" t="s">
         <v>144</v>
@@ -6367,92 +6662,92 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B180" t="s">
+        <v>510</v>
+      </c>
+      <c r="C180" t="s">
         <v>511</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" t="s">
         <v>512</v>
-      </c>
-      <c r="D180" t="s">
-        <v>62</v>
-      </c>
-      <c r="E180" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B181" t="s">
+        <v>513</v>
+      </c>
+      <c r="C181" t="s">
         <v>514</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" t="s">
         <v>515</v>
-      </c>
-      <c r="D181" t="s">
-        <v>62</v>
-      </c>
-      <c r="E181" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B182" t="s">
+        <v>516</v>
+      </c>
+      <c r="C182" t="s">
         <v>517</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>62</v>
+      </c>
+      <c r="E182" t="s">
         <v>518</v>
-      </c>
-      <c r="D182" t="s">
-        <v>62</v>
-      </c>
-      <c r="E182" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B183" t="s">
+        <v>519</v>
+      </c>
+      <c r="C183" t="s">
         <v>520</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>62</v>
+      </c>
+      <c r="E183" t="s">
         <v>521</v>
-      </c>
-      <c r="D183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E183" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B184" t="s">
+        <v>522</v>
+      </c>
+      <c r="C184" t="s">
         <v>523</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>524</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>525</v>
-      </c>
-      <c r="E184" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B185" t="s">
         <v>259</v>
@@ -6469,274 +6764,274 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B186" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" t="s">
         <v>527</v>
-      </c>
-      <c r="C186" t="s">
-        <v>528</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B187" t="s">
+        <v>273</v>
+      </c>
+      <c r="C187" t="s">
         <v>274</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
+        <v>62</v>
+      </c>
+      <c r="E187" t="s">
         <v>275</v>
-      </c>
-      <c r="D187" t="s">
-        <v>62</v>
-      </c>
-      <c r="E187" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B188" t="s">
+        <v>529</v>
+      </c>
+      <c r="C188" t="s">
         <v>530</v>
-      </c>
-      <c r="C188" t="s">
-        <v>531</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B189" t="s">
+        <v>532</v>
+      </c>
+      <c r="C189" t="s">
         <v>533</v>
-      </c>
-      <c r="C189" t="s">
-        <v>534</v>
       </c>
       <c r="D189" t="s">
         <v>146</v>
       </c>
       <c r="E189" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s">
+        <v>535</v>
+      </c>
+      <c r="C190" t="s">
         <v>536</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
+        <v>62</v>
+      </c>
+      <c r="E190" t="s">
         <v>537</v>
-      </c>
-      <c r="D190" t="s">
-        <v>62</v>
-      </c>
-      <c r="E190" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B191" t="s">
+        <v>538</v>
+      </c>
+      <c r="C191" t="s">
         <v>539</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" t="s">
         <v>540</v>
-      </c>
-      <c r="D191" t="s">
-        <v>62</v>
-      </c>
-      <c r="E191" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B192" t="s">
+        <v>321</v>
+      </c>
+      <c r="C192" t="s">
         <v>322</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" t="s">
         <v>323</v>
-      </c>
-      <c r="D192" t="s">
-        <v>62</v>
-      </c>
-      <c r="E192" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B193" t="s">
+        <v>541</v>
+      </c>
+      <c r="C193" t="s">
         <v>542</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E193" t="s">
         <v>543</v>
-      </c>
-      <c r="D193" t="s">
-        <v>62</v>
-      </c>
-      <c r="E193" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B194" t="s">
+        <v>544</v>
+      </c>
+      <c r="C194" t="s">
+        <v>467</v>
+      </c>
+      <c r="D194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E194" t="s">
         <v>545</v>
-      </c>
-      <c r="C194" t="s">
-        <v>468</v>
-      </c>
-      <c r="D194" t="s">
-        <v>62</v>
-      </c>
-      <c r="E194" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B195" t="s">
+        <v>546</v>
+      </c>
+      <c r="C195" t="s">
         <v>547</v>
-      </c>
-      <c r="C195" t="s">
-        <v>548</v>
       </c>
       <c r="D195" t="s">
         <v>146</v>
       </c>
       <c r="E195" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
         <v>550</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" t="s">
         <v>551</v>
-      </c>
-      <c r="D196" t="s">
-        <v>62</v>
-      </c>
-      <c r="E196" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
-      </c>
-      <c r="C197" t="s">
-        <v>554</v>
       </c>
       <c r="D197" t="s">
         <v>146</v>
       </c>
       <c r="E197" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B198" t="s">
+        <v>555</v>
+      </c>
+      <c r="C198" t="s">
         <v>556</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>62</v>
+      </c>
+      <c r="E198" t="s">
         <v>557</v>
-      </c>
-      <c r="D198" t="s">
-        <v>62</v>
-      </c>
-      <c r="E198" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B199" t="s">
+        <v>426</v>
+      </c>
+      <c r="C199" t="s">
         <v>427</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
+        <v>62</v>
+      </c>
+      <c r="E199" t="s">
         <v>428</v>
-      </c>
-      <c r="D199" t="s">
-        <v>62</v>
-      </c>
-      <c r="E199" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B200" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" t="s">
         <v>430</v>
-      </c>
-      <c r="C200" t="s">
-        <v>431</v>
       </c>
       <c r="D200" t="s">
         <v>146</v>
       </c>
       <c r="E200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s">
+        <v>435</v>
+      </c>
+      <c r="C201" t="s">
         <v>436</v>
-      </c>
-      <c r="C201" t="s">
-        <v>437</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6744,16 +7039,16 @@
         <v>14</v>
       </c>
       <c r="B202" t="s">
+        <v>558</v>
+      </c>
+      <c r="C202" t="s">
         <v>559</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>560</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>561</v>
-      </c>
-      <c r="E202" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6761,16 +7056,16 @@
         <v>14</v>
       </c>
       <c r="B203" t="s">
+        <v>466</v>
+      </c>
+      <c r="C203" t="s">
         <v>467</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
+        <v>62</v>
+      </c>
+      <c r="E203" t="s">
         <v>468</v>
-      </c>
-      <c r="D203" t="s">
-        <v>62</v>
-      </c>
-      <c r="E203" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6778,16 +7073,16 @@
         <v>14</v>
       </c>
       <c r="B204" t="s">
+        <v>562</v>
+      </c>
+      <c r="C204" t="s">
         <v>563</v>
-      </c>
-      <c r="C204" t="s">
-        <v>564</v>
       </c>
       <c r="D204" t="s">
         <v>12</v>
       </c>
       <c r="E204" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6812,16 +7107,16 @@
         <v>14</v>
       </c>
       <c r="B206" t="s">
+        <v>565</v>
+      </c>
+      <c r="C206" t="s">
         <v>566</v>
-      </c>
-      <c r="C206" t="s">
-        <v>567</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
       </c>
       <c r="E206" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6829,16 +7124,16 @@
         <v>14</v>
       </c>
       <c r="B207" t="s">
+        <v>568</v>
+      </c>
+      <c r="C207" t="s">
         <v>569</v>
-      </c>
-      <c r="C207" t="s">
-        <v>570</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6846,16 +7141,16 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
-      </c>
-      <c r="C208" t="s">
-        <v>573</v>
       </c>
       <c r="D208" t="s">
         <v>16</v>
       </c>
       <c r="E208" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -6863,16 +7158,16 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" t="s">
         <v>575</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>62</v>
+      </c>
+      <c r="E209" t="s">
         <v>576</v>
-      </c>
-      <c r="D209" t="s">
-        <v>62</v>
-      </c>
-      <c r="E209" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6880,16 +7175,16 @@
         <v>14</v>
       </c>
       <c r="B210" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" t="s">
         <v>578</v>
-      </c>
-      <c r="C210" t="s">
-        <v>579</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6914,16 +7209,16 @@
         <v>14</v>
       </c>
       <c r="B212" t="s">
+        <v>580</v>
+      </c>
+      <c r="C212" t="s">
         <v>581</v>
-      </c>
-      <c r="C212" t="s">
-        <v>582</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6931,16 +7226,16 @@
         <v>14</v>
       </c>
       <c r="B213" t="s">
+        <v>583</v>
+      </c>
+      <c r="C213" t="s">
         <v>584</v>
-      </c>
-      <c r="C213" t="s">
-        <v>585</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
       </c>
       <c r="E213" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6948,16 +7243,16 @@
         <v>14</v>
       </c>
       <c r="B214" t="s">
+        <v>586</v>
+      </c>
+      <c r="C214" t="s">
         <v>587</v>
-      </c>
-      <c r="C214" t="s">
-        <v>588</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
       </c>
       <c r="E214" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6965,16 +7260,16 @@
         <v>14</v>
       </c>
       <c r="B215" t="s">
+        <v>589</v>
+      </c>
+      <c r="C215" t="s">
         <v>590</v>
-      </c>
-      <c r="C215" t="s">
-        <v>591</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
       </c>
       <c r="E215" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6982,16 +7277,16 @@
         <v>14</v>
       </c>
       <c r="B216" t="s">
+        <v>592</v>
+      </c>
+      <c r="C216" t="s">
         <v>593</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>62</v>
+      </c>
+      <c r="E216" t="s">
         <v>594</v>
-      </c>
-      <c r="D216" t="s">
-        <v>62</v>
-      </c>
-      <c r="E216" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6999,16 +7294,16 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
+        <v>595</v>
+      </c>
+      <c r="C217" t="s">
         <v>596</v>
-      </c>
-      <c r="C217" t="s">
-        <v>597</v>
       </c>
       <c r="D217" t="s">
         <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -7016,16 +7311,16 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
+        <v>598</v>
+      </c>
+      <c r="C218" t="s">
         <v>599</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>62</v>
+      </c>
+      <c r="E218" t="s">
         <v>600</v>
-      </c>
-      <c r="D218" t="s">
-        <v>62</v>
-      </c>
-      <c r="E218" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -7033,16 +7328,16 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
+        <v>601</v>
+      </c>
+      <c r="C219" t="s">
         <v>602</v>
-      </c>
-      <c r="C219" t="s">
-        <v>603</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
       </c>
       <c r="E219" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -7050,16 +7345,16 @@
         <v>14</v>
       </c>
       <c r="B220" t="s">
+        <v>604</v>
+      </c>
+      <c r="C220" t="s">
         <v>605</v>
-      </c>
-      <c r="C220" t="s">
-        <v>606</v>
       </c>
       <c r="D220" t="s">
         <v>16</v>
       </c>
       <c r="E220" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -7067,7 +7362,7 @@
         <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C221" t="s">
         <v>52</v>
@@ -7076,7 +7371,7 @@
         <v>12</v>
       </c>
       <c r="E221" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -7084,16 +7379,16 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
+        <v>609</v>
+      </c>
+      <c r="C222" t="s">
         <v>610</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>62</v>
+      </c>
+      <c r="E222" t="s">
         <v>611</v>
-      </c>
-      <c r="D222" t="s">
-        <v>62</v>
-      </c>
-      <c r="E222" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -7118,16 +7413,16 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
+        <v>498</v>
+      </c>
+      <c r="C224" t="s">
         <v>499</v>
-      </c>
-      <c r="C224" t="s">
-        <v>500</v>
       </c>
       <c r="D224" t="s">
         <v>16</v>
       </c>
       <c r="E224" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -7135,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
+        <v>612</v>
+      </c>
+      <c r="C225" t="s">
         <v>613</v>
-      </c>
-      <c r="C225" t="s">
-        <v>614</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
       </c>
       <c r="E225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -7152,16 +7447,16 @@
         <v>14</v>
       </c>
       <c r="B226" t="s">
+        <v>615</v>
+      </c>
+      <c r="C226" t="s">
         <v>616</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>62</v>
+      </c>
+      <c r="E226" t="s">
         <v>617</v>
-      </c>
-      <c r="D226" t="s">
-        <v>62</v>
-      </c>
-      <c r="E226" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -7169,16 +7464,16 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" t="s">
         <v>619</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>62</v>
+      </c>
+      <c r="E227" t="s">
         <v>620</v>
-      </c>
-      <c r="D227" t="s">
-        <v>62</v>
-      </c>
-      <c r="E227" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -7186,16 +7481,16 @@
         <v>14</v>
       </c>
       <c r="B228" t="s">
+        <v>621</v>
+      </c>
+      <c r="C228" t="s">
         <v>622</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
+        <v>62</v>
+      </c>
+      <c r="E228" t="s">
         <v>623</v>
-      </c>
-      <c r="D228" t="s">
-        <v>62</v>
-      </c>
-      <c r="E228" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -7220,16 +7515,16 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
+        <v>624</v>
+      </c>
+      <c r="C230" t="s">
         <v>625</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
+        <v>62</v>
+      </c>
+      <c r="E230" t="s">
         <v>626</v>
-      </c>
-      <c r="D230" t="s">
-        <v>62</v>
-      </c>
-      <c r="E230" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -7237,16 +7532,16 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" t="s">
         <v>628</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
+        <v>62</v>
+      </c>
+      <c r="E231" t="s">
         <v>629</v>
-      </c>
-      <c r="D231" t="s">
-        <v>62</v>
-      </c>
-      <c r="E231" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -7271,16 +7566,16 @@
         <v>14</v>
       </c>
       <c r="B233" t="s">
+        <v>630</v>
+      </c>
+      <c r="C233" t="s">
         <v>631</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
+        <v>524</v>
+      </c>
+      <c r="E233" t="s">
         <v>632</v>
-      </c>
-      <c r="D233" t="s">
-        <v>525</v>
-      </c>
-      <c r="E233" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -7288,16 +7583,16 @@
         <v>14</v>
       </c>
       <c r="B234" t="s">
+        <v>633</v>
+      </c>
+      <c r="C234" t="s">
         <v>634</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>62</v>
+      </c>
+      <c r="E234" t="s">
         <v>635</v>
-      </c>
-      <c r="D234" t="s">
-        <v>62</v>
-      </c>
-      <c r="E234" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -7305,16 +7600,16 @@
         <v>14</v>
       </c>
       <c r="B235" t="s">
+        <v>636</v>
+      </c>
+      <c r="C235" t="s">
         <v>637</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>62</v>
+      </c>
+      <c r="E235" t="s">
         <v>638</v>
-      </c>
-      <c r="D235" t="s">
-        <v>62</v>
-      </c>
-      <c r="E235" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -7322,16 +7617,16 @@
         <v>14</v>
       </c>
       <c r="B236" t="s">
+        <v>639</v>
+      </c>
+      <c r="C236" t="s">
         <v>640</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
+        <v>62</v>
+      </c>
+      <c r="E236" t="s">
         <v>641</v>
-      </c>
-      <c r="D236" t="s">
-        <v>62</v>
-      </c>
-      <c r="E236" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -7339,16 +7634,16 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
+        <v>642</v>
+      </c>
+      <c r="C237" t="s">
         <v>643</v>
-      </c>
-      <c r="C237" t="s">
-        <v>644</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -7373,16 +7668,16 @@
         <v>14</v>
       </c>
       <c r="B239" t="s">
+        <v>645</v>
+      </c>
+      <c r="C239" t="s">
         <v>646</v>
-      </c>
-      <c r="C239" t="s">
-        <v>647</v>
       </c>
       <c r="D239" t="s">
         <v>12</v>
       </c>
       <c r="E239" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -7407,16 +7702,16 @@
         <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C241" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D241" t="s">
         <v>146</v>
       </c>
       <c r="E241" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -7441,16 +7736,16 @@
         <v>14</v>
       </c>
       <c r="B243" t="s">
+        <v>650</v>
+      </c>
+      <c r="C243" t="s">
         <v>651</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>62</v>
+      </c>
+      <c r="E243" t="s">
         <v>652</v>
-      </c>
-      <c r="D243" t="s">
-        <v>62</v>
-      </c>
-      <c r="E243" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -7458,16 +7753,16 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
+        <v>653</v>
+      </c>
+      <c r="C244" t="s">
         <v>654</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>62</v>
+      </c>
+      <c r="E244" t="s">
         <v>655</v>
-      </c>
-      <c r="D244" t="s">
-        <v>62</v>
-      </c>
-      <c r="E244" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -7475,16 +7770,16 @@
         <v>14</v>
       </c>
       <c r="B245" t="s">
+        <v>656</v>
+      </c>
+      <c r="C245" t="s">
         <v>657</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
+        <v>62</v>
+      </c>
+      <c r="E245" t="s">
         <v>658</v>
-      </c>
-      <c r="D245" t="s">
-        <v>62</v>
-      </c>
-      <c r="E245" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -7509,16 +7804,16 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
+        <v>659</v>
+      </c>
+      <c r="C247" t="s">
         <v>660</v>
-      </c>
-      <c r="C247" t="s">
-        <v>661</v>
       </c>
       <c r="D247" t="s">
         <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -7526,16 +7821,16 @@
         <v>14</v>
       </c>
       <c r="B248" t="s">
+        <v>662</v>
+      </c>
+      <c r="C248" t="s">
         <v>663</v>
-      </c>
-      <c r="C248" t="s">
-        <v>664</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
       </c>
       <c r="E248" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7543,16 +7838,16 @@
         <v>14</v>
       </c>
       <c r="B249" t="s">
+        <v>665</v>
+      </c>
+      <c r="C249" t="s">
         <v>666</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
+        <v>62</v>
+      </c>
+      <c r="E249" t="s">
         <v>667</v>
-      </c>
-      <c r="D249" t="s">
-        <v>62</v>
-      </c>
-      <c r="E249" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -7577,16 +7872,16 @@
         <v>14</v>
       </c>
       <c r="B251" t="s">
+        <v>668</v>
+      </c>
+      <c r="C251" t="s">
         <v>669</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
+        <v>62</v>
+      </c>
+      <c r="E251" t="s">
         <v>670</v>
-      </c>
-      <c r="D251" t="s">
-        <v>62</v>
-      </c>
-      <c r="E251" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7611,16 +7906,16 @@
         <v>14</v>
       </c>
       <c r="B253" t="s">
+        <v>671</v>
+      </c>
+      <c r="C253" t="s">
         <v>672</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
+        <v>62</v>
+      </c>
+      <c r="E253" t="s">
         <v>673</v>
-      </c>
-      <c r="D253" t="s">
-        <v>62</v>
-      </c>
-      <c r="E253" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -7628,16 +7923,16 @@
         <v>14</v>
       </c>
       <c r="B254" t="s">
+        <v>674</v>
+      </c>
+      <c r="C254" t="s">
         <v>675</v>
-      </c>
-      <c r="C254" t="s">
-        <v>676</v>
       </c>
       <c r="D254" t="s">
         <v>16</v>
       </c>
       <c r="E254" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -7645,16 +7940,16 @@
         <v>14</v>
       </c>
       <c r="B255" t="s">
+        <v>519</v>
+      </c>
+      <c r="C255" t="s">
         <v>520</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
         <v>521</v>
-      </c>
-      <c r="D255" t="s">
-        <v>62</v>
-      </c>
-      <c r="E255" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7662,16 +7957,16 @@
         <v>14</v>
       </c>
       <c r="B256" t="s">
+        <v>677</v>
+      </c>
+      <c r="C256" t="s">
         <v>678</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>62</v>
+      </c>
+      <c r="E256" t="s">
         <v>679</v>
-      </c>
-      <c r="D256" t="s">
-        <v>62</v>
-      </c>
-      <c r="E256" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7679,16 +7974,16 @@
         <v>14</v>
       </c>
       <c r="B257" t="s">
+        <v>680</v>
+      </c>
+      <c r="C257" t="s">
         <v>681</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
+        <v>62</v>
+      </c>
+      <c r="E257" t="s">
         <v>682</v>
-      </c>
-      <c r="D257" t="s">
-        <v>62</v>
-      </c>
-      <c r="E257" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7696,16 +7991,16 @@
         <v>14</v>
       </c>
       <c r="B258" t="s">
+        <v>683</v>
+      </c>
+      <c r="C258" t="s">
         <v>684</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
+        <v>62</v>
+      </c>
+      <c r="E258" t="s">
         <v>685</v>
-      </c>
-      <c r="D258" t="s">
-        <v>62</v>
-      </c>
-      <c r="E258" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -7713,16 +8008,16 @@
         <v>14</v>
       </c>
       <c r="B259" t="s">
+        <v>686</v>
+      </c>
+      <c r="C259" t="s">
         <v>687</v>
-      </c>
-      <c r="C259" t="s">
-        <v>688</v>
       </c>
       <c r="D259" t="s">
         <v>146</v>
       </c>
       <c r="E259" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -7730,16 +8025,16 @@
         <v>14</v>
       </c>
       <c r="B260" t="s">
+        <v>689</v>
+      </c>
+      <c r="C260" t="s">
         <v>690</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
+        <v>62</v>
+      </c>
+      <c r="E260" t="s">
         <v>691</v>
-      </c>
-      <c r="D260" t="s">
-        <v>62</v>
-      </c>
-      <c r="E260" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -7747,16 +8042,16 @@
         <v>14</v>
       </c>
       <c r="B261" t="s">
+        <v>692</v>
+      </c>
+      <c r="C261" t="s">
         <v>693</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" t="s">
         <v>694</v>
-      </c>
-      <c r="D261" t="s">
-        <v>62</v>
-      </c>
-      <c r="E261" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7764,16 +8059,16 @@
         <v>14</v>
       </c>
       <c r="B262" t="s">
+        <v>695</v>
+      </c>
+      <c r="C262" t="s">
         <v>696</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>62</v>
+      </c>
+      <c r="E262" t="s">
         <v>697</v>
-      </c>
-      <c r="D262" t="s">
-        <v>62</v>
-      </c>
-      <c r="E262" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7781,16 +8076,16 @@
         <v>14</v>
       </c>
       <c r="B263" t="s">
+        <v>698</v>
+      </c>
+      <c r="C263" t="s">
         <v>699</v>
-      </c>
-      <c r="C263" t="s">
-        <v>700</v>
       </c>
       <c r="D263" t="s">
         <v>146</v>
       </c>
       <c r="E263" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7798,16 +8093,16 @@
         <v>14</v>
       </c>
       <c r="B264" t="s">
+        <v>701</v>
+      </c>
+      <c r="C264" t="s">
         <v>702</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
+        <v>62</v>
+      </c>
+      <c r="E264" t="s">
         <v>703</v>
-      </c>
-      <c r="D264" t="s">
-        <v>62</v>
-      </c>
-      <c r="E264" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7832,16 +8127,16 @@
         <v>14</v>
       </c>
       <c r="B266" t="s">
+        <v>704</v>
+      </c>
+      <c r="C266" t="s">
         <v>705</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
+        <v>62</v>
+      </c>
+      <c r="E266" t="s">
         <v>706</v>
-      </c>
-      <c r="D266" t="s">
-        <v>62</v>
-      </c>
-      <c r="E266" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7849,16 +8144,16 @@
         <v>14</v>
       </c>
       <c r="B267" t="s">
+        <v>707</v>
+      </c>
+      <c r="C267" t="s">
         <v>708</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267" t="s">
         <v>709</v>
-      </c>
-      <c r="D267" t="s">
-        <v>62</v>
-      </c>
-      <c r="E267" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -7866,16 +8161,16 @@
         <v>14</v>
       </c>
       <c r="B268" t="s">
+        <v>710</v>
+      </c>
+      <c r="C268" t="s">
         <v>711</v>
-      </c>
-      <c r="C268" t="s">
-        <v>712</v>
       </c>
       <c r="D268" t="s">
         <v>12</v>
       </c>
       <c r="E268" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7900,16 +8195,16 @@
         <v>14</v>
       </c>
       <c r="B270" t="s">
+        <v>713</v>
+      </c>
+      <c r="C270" t="s">
         <v>714</v>
-      </c>
-      <c r="C270" t="s">
-        <v>715</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
       </c>
       <c r="E270" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7917,16 +8212,16 @@
         <v>14</v>
       </c>
       <c r="B271" t="s">
+        <v>716</v>
+      </c>
+      <c r="C271" t="s">
         <v>717</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
+        <v>62</v>
+      </c>
+      <c r="E271" t="s">
         <v>718</v>
-      </c>
-      <c r="D271" t="s">
-        <v>62</v>
-      </c>
-      <c r="E271" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -7934,16 +8229,16 @@
         <v>14</v>
       </c>
       <c r="B272" t="s">
+        <v>719</v>
+      </c>
+      <c r="C272" t="s">
         <v>720</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
+        <v>62</v>
+      </c>
+      <c r="E272" t="s">
         <v>721</v>
-      </c>
-      <c r="D272" t="s">
-        <v>62</v>
-      </c>
-      <c r="E272" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7951,16 +8246,16 @@
         <v>14</v>
       </c>
       <c r="B273" t="s">
+        <v>722</v>
+      </c>
+      <c r="C273" t="s">
         <v>723</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
+        <v>62</v>
+      </c>
+      <c r="E273" t="s">
         <v>724</v>
-      </c>
-      <c r="D273" t="s">
-        <v>62</v>
-      </c>
-      <c r="E273" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -7968,16 +8263,16 @@
         <v>14</v>
       </c>
       <c r="B274" t="s">
+        <v>725</v>
+      </c>
+      <c r="C274" t="s">
         <v>726</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274" t="s">
         <v>727</v>
-      </c>
-      <c r="D274" t="s">
-        <v>62</v>
-      </c>
-      <c r="E274" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -7985,16 +8280,16 @@
         <v>14</v>
       </c>
       <c r="B275" t="s">
+        <v>728</v>
+      </c>
+      <c r="C275" t="s">
         <v>729</v>
-      </c>
-      <c r="C275" t="s">
-        <v>730</v>
       </c>
       <c r="D275" t="s">
         <v>16</v>
       </c>
       <c r="E275" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -8002,16 +8297,16 @@
         <v>14</v>
       </c>
       <c r="B276" t="s">
+        <v>731</v>
+      </c>
+      <c r="C276" t="s">
         <v>732</v>
-      </c>
-      <c r="C276" t="s">
-        <v>733</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
       </c>
       <c r="E276" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -8019,16 +8314,16 @@
         <v>14</v>
       </c>
       <c r="B277" t="s">
+        <v>734</v>
+      </c>
+      <c r="C277" t="s">
         <v>735</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
+        <v>62</v>
+      </c>
+      <c r="E277" t="s">
         <v>736</v>
-      </c>
-      <c r="D277" t="s">
-        <v>62</v>
-      </c>
-      <c r="E277" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -8036,16 +8331,16 @@
         <v>14</v>
       </c>
       <c r="B278" t="s">
+        <v>737</v>
+      </c>
+      <c r="C278" t="s">
         <v>738</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
+        <v>62</v>
+      </c>
+      <c r="E278" t="s">
         <v>739</v>
-      </c>
-      <c r="D278" t="s">
-        <v>62</v>
-      </c>
-      <c r="E278" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -8053,16 +8348,16 @@
         <v>14</v>
       </c>
       <c r="B279" t="s">
+        <v>535</v>
+      </c>
+      <c r="C279" t="s">
         <v>536</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
+        <v>62</v>
+      </c>
+      <c r="E279" t="s">
         <v>537</v>
-      </c>
-      <c r="D279" t="s">
-        <v>62</v>
-      </c>
-      <c r="E279" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -8070,16 +8365,16 @@
         <v>14</v>
       </c>
       <c r="B280" t="s">
+        <v>740</v>
+      </c>
+      <c r="C280" t="s">
         <v>741</v>
-      </c>
-      <c r="C280" t="s">
-        <v>742</v>
       </c>
       <c r="D280" t="s">
         <v>146</v>
       </c>
       <c r="E280" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -8087,16 +8382,16 @@
         <v>14</v>
       </c>
       <c r="B281" t="s">
+        <v>743</v>
+      </c>
+      <c r="C281" t="s">
+        <v>705</v>
+      </c>
+      <c r="D281" t="s">
+        <v>62</v>
+      </c>
+      <c r="E281" t="s">
         <v>744</v>
-      </c>
-      <c r="C281" t="s">
-        <v>706</v>
-      </c>
-      <c r="D281" t="s">
-        <v>62</v>
-      </c>
-      <c r="E281" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -8104,16 +8399,16 @@
         <v>14</v>
       </c>
       <c r="B282" t="s">
+        <v>745</v>
+      </c>
+      <c r="C282" t="s">
         <v>746</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
+        <v>62</v>
+      </c>
+      <c r="E282" t="s">
         <v>747</v>
-      </c>
-      <c r="D282" t="s">
-        <v>62</v>
-      </c>
-      <c r="E282" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -8121,16 +8416,16 @@
         <v>14</v>
       </c>
       <c r="B283" t="s">
+        <v>748</v>
+      </c>
+      <c r="C283" t="s">
         <v>749</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E283" t="s">
         <v>750</v>
-      </c>
-      <c r="D283" t="s">
-        <v>62</v>
-      </c>
-      <c r="E283" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -8138,16 +8433,16 @@
         <v>14</v>
       </c>
       <c r="B284" t="s">
+        <v>751</v>
+      </c>
+      <c r="C284" t="s">
         <v>752</v>
-      </c>
-      <c r="C284" t="s">
-        <v>753</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
       </c>
       <c r="E284" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -8155,16 +8450,16 @@
         <v>14</v>
       </c>
       <c r="B285" t="s">
+        <v>754</v>
+      </c>
+      <c r="C285" t="s">
         <v>755</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
+        <v>62</v>
+      </c>
+      <c r="E285" t="s">
         <v>756</v>
-      </c>
-      <c r="D285" t="s">
-        <v>62</v>
-      </c>
-      <c r="E285" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -8172,16 +8467,16 @@
         <v>14</v>
       </c>
       <c r="B286" t="s">
+        <v>300</v>
+      </c>
+      <c r="C286" t="s">
         <v>301</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
+        <v>62</v>
+      </c>
+      <c r="E286" t="s">
         <v>302</v>
-      </c>
-      <c r="D286" t="s">
-        <v>62</v>
-      </c>
-      <c r="E286" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -8189,16 +8484,16 @@
         <v>14</v>
       </c>
       <c r="B287" t="s">
+        <v>757</v>
+      </c>
+      <c r="C287" t="s">
         <v>758</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
+        <v>62</v>
+      </c>
+      <c r="E287" t="s">
         <v>759</v>
-      </c>
-      <c r="D287" t="s">
-        <v>62</v>
-      </c>
-      <c r="E287" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -8206,16 +8501,16 @@
         <v>14</v>
       </c>
       <c r="B288" t="s">
+        <v>760</v>
+      </c>
+      <c r="C288" t="s">
         <v>761</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
+        <v>62</v>
+      </c>
+      <c r="E288" t="s">
         <v>762</v>
-      </c>
-      <c r="D288" t="s">
-        <v>62</v>
-      </c>
-      <c r="E288" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -8223,16 +8518,16 @@
         <v>14</v>
       </c>
       <c r="B289" t="s">
+        <v>312</v>
+      </c>
+      <c r="C289" t="s">
         <v>313</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
+        <v>62</v>
+      </c>
+      <c r="E289" t="s">
         <v>314</v>
-      </c>
-      <c r="D289" t="s">
-        <v>62</v>
-      </c>
-      <c r="E289" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -8240,16 +8535,16 @@
         <v>14</v>
       </c>
       <c r="B290" t="s">
+        <v>321</v>
+      </c>
+      <c r="C290" t="s">
         <v>322</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
+        <v>62</v>
+      </c>
+      <c r="E290" t="s">
         <v>323</v>
-      </c>
-      <c r="D290" t="s">
-        <v>62</v>
-      </c>
-      <c r="E290" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -8257,16 +8552,16 @@
         <v>14</v>
       </c>
       <c r="B291" t="s">
+        <v>327</v>
+      </c>
+      <c r="C291" t="s">
         <v>328</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
+        <v>62</v>
+      </c>
+      <c r="E291" t="s">
         <v>329</v>
-      </c>
-      <c r="D291" t="s">
-        <v>62</v>
-      </c>
-      <c r="E291" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -8274,16 +8569,16 @@
         <v>14</v>
       </c>
       <c r="B292" t="s">
+        <v>763</v>
+      </c>
+      <c r="C292" t="s">
         <v>764</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
+        <v>62</v>
+      </c>
+      <c r="E292" t="s">
         <v>765</v>
-      </c>
-      <c r="D292" t="s">
-        <v>62</v>
-      </c>
-      <c r="E292" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -8291,16 +8586,16 @@
         <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C293" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D293" t="s">
         <v>16</v>
       </c>
       <c r="E293" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -8308,16 +8603,16 @@
         <v>14</v>
       </c>
       <c r="B294" t="s">
+        <v>768</v>
+      </c>
+      <c r="C294" t="s">
         <v>769</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
+        <v>62</v>
+      </c>
+      <c r="E294" t="s">
         <v>770</v>
-      </c>
-      <c r="D294" t="s">
-        <v>62</v>
-      </c>
-      <c r="E294" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -8325,16 +8620,16 @@
         <v>14</v>
       </c>
       <c r="B295" t="s">
+        <v>771</v>
+      </c>
+      <c r="C295" t="s">
         <v>772</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
+        <v>62</v>
+      </c>
+      <c r="E295" t="s">
         <v>773</v>
-      </c>
-      <c r="D295" t="s">
-        <v>62</v>
-      </c>
-      <c r="E295" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -8342,16 +8637,16 @@
         <v>14</v>
       </c>
       <c r="B296" t="s">
+        <v>774</v>
+      </c>
+      <c r="C296" t="s">
         <v>775</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
+        <v>62</v>
+      </c>
+      <c r="E296" t="s">
         <v>776</v>
-      </c>
-      <c r="D296" t="s">
-        <v>62</v>
-      </c>
-      <c r="E296" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -8359,16 +8654,16 @@
         <v>14</v>
       </c>
       <c r="B297" t="s">
+        <v>777</v>
+      </c>
+      <c r="C297" t="s">
         <v>778</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
+        <v>62</v>
+      </c>
+      <c r="E297" t="s">
         <v>779</v>
-      </c>
-      <c r="D297" t="s">
-        <v>62</v>
-      </c>
-      <c r="E297" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -8376,16 +8671,16 @@
         <v>14</v>
       </c>
       <c r="B298" t="s">
+        <v>780</v>
+      </c>
+      <c r="C298" t="s">
         <v>781</v>
-      </c>
-      <c r="C298" t="s">
-        <v>782</v>
       </c>
       <c r="D298" t="s">
         <v>16</v>
       </c>
       <c r="E298" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -8393,16 +8688,16 @@
         <v>14</v>
       </c>
       <c r="B299" t="s">
+        <v>783</v>
+      </c>
+      <c r="C299" t="s">
         <v>784</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
+        <v>62</v>
+      </c>
+      <c r="E299" t="s">
         <v>785</v>
-      </c>
-      <c r="D299" t="s">
-        <v>62</v>
-      </c>
-      <c r="E299" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -8410,16 +8705,16 @@
         <v>14</v>
       </c>
       <c r="B300" t="s">
+        <v>378</v>
+      </c>
+      <c r="C300" t="s">
         <v>379</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
+        <v>62</v>
+      </c>
+      <c r="E300" t="s">
         <v>380</v>
-      </c>
-      <c r="D300" t="s">
-        <v>62</v>
-      </c>
-      <c r="E300" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -8427,16 +8722,16 @@
         <v>14</v>
       </c>
       <c r="B301" t="s">
+        <v>786</v>
+      </c>
+      <c r="C301" t="s">
         <v>787</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
+        <v>62</v>
+      </c>
+      <c r="E301" t="s">
         <v>788</v>
-      </c>
-      <c r="D301" t="s">
-        <v>62</v>
-      </c>
-      <c r="E301" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -8444,16 +8739,16 @@
         <v>14</v>
       </c>
       <c r="B302" t="s">
+        <v>789</v>
+      </c>
+      <c r="C302" t="s">
         <v>790</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
+        <v>62</v>
+      </c>
+      <c r="E302" t="s">
         <v>791</v>
-      </c>
-      <c r="D302" t="s">
-        <v>62</v>
-      </c>
-      <c r="E302" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8461,16 +8756,16 @@
         <v>14</v>
       </c>
       <c r="B303" t="s">
+        <v>792</v>
+      </c>
+      <c r="C303" t="s">
         <v>793</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
+        <v>62</v>
+      </c>
+      <c r="E303" t="s">
         <v>794</v>
-      </c>
-      <c r="D303" t="s">
-        <v>62</v>
-      </c>
-      <c r="E303" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8478,16 +8773,16 @@
         <v>14</v>
       </c>
       <c r="B304" t="s">
+        <v>795</v>
+      </c>
+      <c r="C304" t="s">
+        <v>684</v>
+      </c>
+      <c r="D304" t="s">
+        <v>62</v>
+      </c>
+      <c r="E304" t="s">
         <v>796</v>
-      </c>
-      <c r="C304" t="s">
-        <v>685</v>
-      </c>
-      <c r="D304" t="s">
-        <v>62</v>
-      </c>
-      <c r="E304" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8495,16 +8790,16 @@
         <v>14</v>
       </c>
       <c r="B305" t="s">
+        <v>797</v>
+      </c>
+      <c r="C305" t="s">
         <v>798</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
+        <v>62</v>
+      </c>
+      <c r="E305" t="s">
         <v>799</v>
-      </c>
-      <c r="D305" t="s">
-        <v>62</v>
-      </c>
-      <c r="E305" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8512,16 +8807,16 @@
         <v>14</v>
       </c>
       <c r="B306" t="s">
+        <v>800</v>
+      </c>
+      <c r="C306" t="s">
         <v>801</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
+        <v>62</v>
+      </c>
+      <c r="E306" t="s">
         <v>802</v>
-      </c>
-      <c r="D306" t="s">
-        <v>62</v>
-      </c>
-      <c r="E306" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8529,16 +8824,16 @@
         <v>14</v>
       </c>
       <c r="B307" t="s">
+        <v>803</v>
+      </c>
+      <c r="C307" t="s">
         <v>804</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
+        <v>62</v>
+      </c>
+      <c r="E307" t="s">
         <v>805</v>
-      </c>
-      <c r="D307" t="s">
-        <v>62</v>
-      </c>
-      <c r="E307" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8546,16 +8841,16 @@
         <v>14</v>
       </c>
       <c r="B308" t="s">
+        <v>411</v>
+      </c>
+      <c r="C308" t="s">
         <v>412</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
+        <v>62</v>
+      </c>
+      <c r="E308" t="s">
         <v>413</v>
-      </c>
-      <c r="D308" t="s">
-        <v>62</v>
-      </c>
-      <c r="E308" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8563,16 +8858,16 @@
         <v>14</v>
       </c>
       <c r="B309" t="s">
+        <v>417</v>
+      </c>
+      <c r="C309" t="s">
         <v>418</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
+        <v>62</v>
+      </c>
+      <c r="E309" t="s">
         <v>419</v>
-      </c>
-      <c r="D309" t="s">
-        <v>62</v>
-      </c>
-      <c r="E309" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8580,16 +8875,16 @@
         <v>14</v>
       </c>
       <c r="B310" t="s">
+        <v>806</v>
+      </c>
+      <c r="C310" t="s">
         <v>807</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
+        <v>62</v>
+      </c>
+      <c r="E310" t="s">
         <v>808</v>
-      </c>
-      <c r="D310" t="s">
-        <v>62</v>
-      </c>
-      <c r="E310" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8597,16 +8892,16 @@
         <v>14</v>
       </c>
       <c r="B311" t="s">
+        <v>426</v>
+      </c>
+      <c r="C311" t="s">
         <v>427</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
+        <v>62</v>
+      </c>
+      <c r="E311" t="s">
         <v>428</v>
-      </c>
-      <c r="D311" t="s">
-        <v>62</v>
-      </c>
-      <c r="E311" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8614,16 +8909,16 @@
         <v>14</v>
       </c>
       <c r="B312" t="s">
+        <v>809</v>
+      </c>
+      <c r="C312" t="s">
         <v>810</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
+        <v>62</v>
+      </c>
+      <c r="E312" t="s">
         <v>811</v>
-      </c>
-      <c r="D312" t="s">
-        <v>62</v>
-      </c>
-      <c r="E312" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8631,16 +8926,16 @@
         <v>14</v>
       </c>
       <c r="B313" t="s">
+        <v>812</v>
+      </c>
+      <c r="C313" t="s">
         <v>813</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
+        <v>62</v>
+      </c>
+      <c r="E313" t="s">
         <v>814</v>
-      </c>
-      <c r="D313" t="s">
-        <v>62</v>
-      </c>
-      <c r="E313" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -8648,16 +8943,16 @@
         <v>14</v>
       </c>
       <c r="B314" t="s">
+        <v>815</v>
+      </c>
+      <c r="C314" t="s">
         <v>816</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
+        <v>62</v>
+      </c>
+      <c r="E314" t="s">
         <v>817</v>
-      </c>
-      <c r="D314" t="s">
-        <v>62</v>
-      </c>
-      <c r="E314" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -8665,16 +8960,16 @@
         <v>14</v>
       </c>
       <c r="B315" t="s">
+        <v>818</v>
+      </c>
+      <c r="C315" t="s">
         <v>819</v>
-      </c>
-      <c r="C315" t="s">
-        <v>820</v>
       </c>
       <c r="D315" t="s">
         <v>146</v>
       </c>
       <c r="E315" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8682,208 +8977,208 @@
         <v>14</v>
       </c>
       <c r="B316" t="s">
+        <v>821</v>
+      </c>
+      <c r="C316" t="s">
         <v>822</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
+        <v>62</v>
+      </c>
+      <c r="E316" t="s">
         <v>823</v>
-      </c>
-      <c r="D316" t="s">
-        <v>62</v>
-      </c>
-      <c r="E316" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>824</v>
+      </c>
+      <c r="B317" t="s">
         <v>825</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>826</v>
-      </c>
-      <c r="C317" t="s">
-        <v>827</v>
       </c>
       <c r="D317" t="s">
         <v>12</v>
       </c>
       <c r="E317" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D318" t="s">
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B319" t="s">
+        <v>830</v>
+      </c>
+      <c r="C319" t="s">
         <v>831</v>
-      </c>
-      <c r="C319" t="s">
-        <v>832</v>
       </c>
       <c r="D319" t="s">
         <v>8</v>
       </c>
       <c r="E319" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B320" t="s">
+        <v>833</v>
+      </c>
+      <c r="C320" t="s">
         <v>834</v>
-      </c>
-      <c r="C320" t="s">
-        <v>835</v>
       </c>
       <c r="D320" t="s">
         <v>12</v>
       </c>
       <c r="E320" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B321" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C321" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D321" t="s">
         <v>8</v>
       </c>
       <c r="E321" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B322" t="s">
+        <v>838</v>
+      </c>
+      <c r="C322" t="s">
         <v>839</v>
-      </c>
-      <c r="C322" t="s">
-        <v>840</v>
       </c>
       <c r="D322" t="s">
         <v>12</v>
       </c>
       <c r="E322" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B323" t="s">
+        <v>841</v>
+      </c>
+      <c r="C323" t="s">
         <v>842</v>
-      </c>
-      <c r="C323" t="s">
-        <v>843</v>
       </c>
       <c r="D323" t="s">
         <v>8</v>
       </c>
       <c r="E323" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B324" t="s">
+        <v>844</v>
+      </c>
+      <c r="C324" t="s">
         <v>845</v>
-      </c>
-      <c r="C324" t="s">
-        <v>846</v>
       </c>
       <c r="D324" t="s">
         <v>12</v>
       </c>
       <c r="E324" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B325" t="s">
+        <v>847</v>
+      </c>
+      <c r="C325" t="s">
         <v>848</v>
-      </c>
-      <c r="C325" t="s">
-        <v>849</v>
       </c>
       <c r="D325" t="s">
         <v>12</v>
       </c>
       <c r="E325" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B326" t="s">
+        <v>850</v>
+      </c>
+      <c r="C326" t="s">
         <v>851</v>
-      </c>
-      <c r="C326" t="s">
-        <v>852</v>
       </c>
       <c r="D326" t="s">
         <v>12</v>
       </c>
       <c r="E326" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B327" t="s">
+        <v>853</v>
+      </c>
+      <c r="C327" t="s">
         <v>854</v>
-      </c>
-      <c r="C327" t="s">
-        <v>855</v>
       </c>
       <c r="D327" t="s">
         <v>12</v>
       </c>
       <c r="E327" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B328" t="s">
         <v>54</v>
@@ -8900,279 +9195,279 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B329" t="s">
+        <v>856</v>
+      </c>
+      <c r="C329" t="s">
         <v>857</v>
-      </c>
-      <c r="C329" t="s">
-        <v>858</v>
       </c>
       <c r="D329" t="s">
         <v>8</v>
       </c>
       <c r="E329" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B330" t="s">
+        <v>859</v>
+      </c>
+      <c r="C330" t="s">
         <v>860</v>
-      </c>
-      <c r="C330" t="s">
-        <v>861</v>
       </c>
       <c r="D330" t="s">
         <v>12</v>
       </c>
       <c r="E330" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B331" t="s">
+        <v>862</v>
+      </c>
+      <c r="C331" t="s">
         <v>863</v>
-      </c>
-      <c r="C331" t="s">
-        <v>864</v>
       </c>
       <c r="D331" t="s">
         <v>16</v>
       </c>
       <c r="E331" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B332" t="s">
+        <v>865</v>
+      </c>
+      <c r="C332" t="s">
         <v>866</v>
-      </c>
-      <c r="C332" t="s">
-        <v>867</v>
       </c>
       <c r="D332" t="s">
         <v>8</v>
       </c>
       <c r="E332" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B333" t="s">
+        <v>868</v>
+      </c>
+      <c r="C333" t="s">
         <v>869</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
+        <v>62</v>
+      </c>
+      <c r="E333" t="s">
         <v>870</v>
-      </c>
-      <c r="D333" t="s">
-        <v>62</v>
-      </c>
-      <c r="E333" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B334" t="s">
+        <v>871</v>
+      </c>
+      <c r="C334" t="s">
         <v>872</v>
-      </c>
-      <c r="C334" t="s">
-        <v>873</v>
       </c>
       <c r="D334" t="s">
         <v>16</v>
       </c>
       <c r="E334" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B335" t="s">
+        <v>874</v>
+      </c>
+      <c r="C335" t="s">
         <v>875</v>
-      </c>
-      <c r="C335" t="s">
-        <v>876</v>
       </c>
       <c r="D335" t="s">
         <v>16</v>
       </c>
       <c r="E335" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B336" t="s">
+        <v>877</v>
+      </c>
+      <c r="C336" t="s">
         <v>878</v>
-      </c>
-      <c r="C336" t="s">
-        <v>879</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
       </c>
       <c r="E336" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B337" t="s">
+        <v>880</v>
+      </c>
+      <c r="C337" t="s">
         <v>881</v>
-      </c>
-      <c r="C337" t="s">
-        <v>882</v>
       </c>
       <c r="D337" t="s">
         <v>12</v>
       </c>
       <c r="E337" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B338" t="s">
+        <v>883</v>
+      </c>
+      <c r="C338" t="s">
         <v>884</v>
-      </c>
-      <c r="C338" t="s">
-        <v>885</v>
       </c>
       <c r="D338" t="s">
         <v>16</v>
       </c>
       <c r="E338" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B339" t="s">
+        <v>886</v>
+      </c>
+      <c r="C339" t="s">
         <v>887</v>
-      </c>
-      <c r="C339" t="s">
-        <v>888</v>
       </c>
       <c r="D339" t="s">
         <v>16</v>
       </c>
       <c r="E339" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B340" t="s">
+        <v>889</v>
+      </c>
+      <c r="C340" t="s">
         <v>890</v>
-      </c>
-      <c r="C340" t="s">
-        <v>891</v>
       </c>
       <c r="D340" t="s">
         <v>12</v>
       </c>
       <c r="E340" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B341" t="s">
+        <v>892</v>
+      </c>
+      <c r="C341" t="s">
         <v>893</v>
-      </c>
-      <c r="C341" t="s">
-        <v>894</v>
       </c>
       <c r="D341" t="s">
         <v>8</v>
       </c>
       <c r="E341" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B342" t="s">
+        <v>895</v>
+      </c>
+      <c r="C342" t="s">
         <v>896</v>
-      </c>
-      <c r="C342" t="s">
-        <v>897</v>
       </c>
       <c r="D342" t="s">
         <v>8</v>
       </c>
       <c r="E342" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B343" t="s">
+        <v>898</v>
+      </c>
+      <c r="C343" t="s">
         <v>899</v>
-      </c>
-      <c r="C343" t="s">
-        <v>900</v>
       </c>
       <c r="D343" t="s">
         <v>12</v>
       </c>
       <c r="E343" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B344" t="s">
+        <v>901</v>
+      </c>
+      <c r="C344" t="s">
+        <v>749</v>
+      </c>
+      <c r="D344" t="s">
+        <v>62</v>
+      </c>
+      <c r="E344" t="s">
         <v>902</v>
-      </c>
-      <c r="C344" t="s">
-        <v>750</v>
-      </c>
-      <c r="D344" t="s">
-        <v>62</v>
-      </c>
-      <c r="E344" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B345" t="s">
         <v>117</v>
@@ -9189,126 +9484,126 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B346" t="s">
+        <v>903</v>
+      </c>
+      <c r="C346" t="s">
         <v>904</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
+        <v>62</v>
+      </c>
+      <c r="E346" t="s">
         <v>905</v>
-      </c>
-      <c r="D346" t="s">
-        <v>62</v>
-      </c>
-      <c r="E346" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B347" t="s">
+        <v>906</v>
+      </c>
+      <c r="C347" t="s">
         <v>907</v>
-      </c>
-      <c r="C347" t="s">
-        <v>908</v>
       </c>
       <c r="D347" t="s">
         <v>12</v>
       </c>
       <c r="E347" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B348" t="s">
+        <v>909</v>
+      </c>
+      <c r="C348" t="s">
         <v>910</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
+        <v>62</v>
+      </c>
+      <c r="E348" t="s">
         <v>911</v>
-      </c>
-      <c r="D348" t="s">
-        <v>62</v>
-      </c>
-      <c r="E348" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B349" t="s">
+        <v>912</v>
+      </c>
+      <c r="C349" t="s">
         <v>913</v>
-      </c>
-      <c r="C349" t="s">
-        <v>914</v>
       </c>
       <c r="D349" t="s">
         <v>8</v>
       </c>
       <c r="E349" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B350" t="s">
+        <v>915</v>
+      </c>
+      <c r="C350" t="s">
         <v>916</v>
-      </c>
-      <c r="C350" t="s">
-        <v>917</v>
       </c>
       <c r="D350" t="s">
         <v>8</v>
       </c>
       <c r="E350" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B351" t="s">
+        <v>918</v>
+      </c>
+      <c r="C351" t="s">
+        <v>749</v>
+      </c>
+      <c r="D351" t="s">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
         <v>919</v>
-      </c>
-      <c r="C351" t="s">
-        <v>750</v>
-      </c>
-      <c r="D351" t="s">
-        <v>62</v>
-      </c>
-      <c r="E351" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B352" t="s">
+        <v>920</v>
+      </c>
+      <c r="C352" t="s">
         <v>921</v>
-      </c>
-      <c r="C352" t="s">
-        <v>922</v>
       </c>
       <c r="D352" t="s">
         <v>16</v>
       </c>
       <c r="E352" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B353" t="s">
         <v>141</v>
@@ -9325,7 +9620,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B354" t="s">
         <v>144</v>
@@ -9342,24 +9637,24 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B355" t="s">
+        <v>650</v>
+      </c>
+      <c r="C355" t="s">
         <v>651</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
+        <v>62</v>
+      </c>
+      <c r="E355" t="s">
         <v>652</v>
-      </c>
-      <c r="D355" t="s">
-        <v>62</v>
-      </c>
-      <c r="E355" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B356" t="s">
         <v>157</v>
@@ -9376,331 +9671,428 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B357" t="s">
+        <v>653</v>
+      </c>
+      <c r="C357" t="s">
         <v>654</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
+        <v>62</v>
+      </c>
+      <c r="E357" t="s">
         <v>655</v>
-      </c>
-      <c r="D357" t="s">
-        <v>62</v>
-      </c>
-      <c r="E357" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B358" t="s">
+        <v>923</v>
+      </c>
+      <c r="C358" t="s">
         <v>924</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
+        <v>62</v>
+      </c>
+      <c r="E358" t="s">
         <v>925</v>
-      </c>
-      <c r="D358" t="s">
-        <v>62</v>
-      </c>
-      <c r="E358" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B359" t="s">
+        <v>926</v>
+      </c>
+      <c r="C359" t="s">
+        <v>854</v>
+      </c>
+      <c r="D359" t="s">
+        <v>62</v>
+      </c>
+      <c r="E359" t="s">
         <v>927</v>
-      </c>
-      <c r="C359" t="s">
-        <v>855</v>
-      </c>
-      <c r="D359" t="s">
-        <v>62</v>
-      </c>
-      <c r="E359" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B360" t="s">
+        <v>928</v>
+      </c>
+      <c r="C360" t="s">
         <v>929</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
+        <v>62</v>
+      </c>
+      <c r="E360" t="s">
         <v>930</v>
-      </c>
-      <c r="D360" t="s">
-        <v>62</v>
-      </c>
-      <c r="E360" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B361" t="s">
+        <v>931</v>
+      </c>
+      <c r="C361" t="s">
         <v>932</v>
-      </c>
-      <c r="C361" t="s">
-        <v>933</v>
       </c>
       <c r="D361" t="s">
         <v>16</v>
       </c>
       <c r="E361" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B362" t="s">
+        <v>934</v>
+      </c>
+      <c r="C362" t="s">
         <v>935</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
+        <v>62</v>
+      </c>
+      <c r="E362" t="s">
         <v>936</v>
-      </c>
-      <c r="D362" t="s">
-        <v>62</v>
-      </c>
-      <c r="E362" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B363" t="s">
+        <v>937</v>
+      </c>
+      <c r="C363" t="s">
         <v>938</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
+        <v>62</v>
+      </c>
+      <c r="E363" t="s">
         <v>939</v>
-      </c>
-      <c r="D363" t="s">
-        <v>62</v>
-      </c>
-      <c r="E363" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B364" t="s">
+        <v>940</v>
+      </c>
+      <c r="C364" t="s">
         <v>941</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
+        <v>62</v>
+      </c>
+      <c r="E364" t="s">
         <v>942</v>
-      </c>
-      <c r="D364" t="s">
-        <v>62</v>
-      </c>
-      <c r="E364" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B365" t="s">
+        <v>273</v>
+      </c>
+      <c r="C365" t="s">
         <v>274</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
+        <v>62</v>
+      </c>
+      <c r="E365" t="s">
         <v>275</v>
-      </c>
-      <c r="D365" t="s">
-        <v>62</v>
-      </c>
-      <c r="E365" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B366" t="s">
+        <v>943</v>
+      </c>
+      <c r="C366" t="s">
         <v>944</v>
-      </c>
-      <c r="C366" t="s">
-        <v>945</v>
       </c>
       <c r="D366" t="s">
         <v>16</v>
       </c>
       <c r="E366" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B367" t="s">
+        <v>946</v>
+      </c>
+      <c r="C367" t="s">
         <v>947</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
+        <v>62</v>
+      </c>
+      <c r="E367" t="s">
         <v>948</v>
-      </c>
-      <c r="D367" t="s">
-        <v>62</v>
-      </c>
-      <c r="E367" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B368" t="s">
+        <v>748</v>
+      </c>
+      <c r="C368" t="s">
         <v>749</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
+        <v>62</v>
+      </c>
+      <c r="E368" t="s">
         <v>750</v>
-      </c>
-      <c r="D368" t="s">
-        <v>62</v>
-      </c>
-      <c r="E368" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B369" t="s">
+        <v>949</v>
+      </c>
+      <c r="C369" t="s">
         <v>950</v>
       </c>
-      <c r="C369" t="s">
+      <c r="D369" t="s">
+        <v>62</v>
+      </c>
+      <c r="E369" t="s">
         <v>951</v>
-      </c>
-      <c r="D369" t="s">
-        <v>62</v>
-      </c>
-      <c r="E369" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B370" t="s">
+        <v>354</v>
+      </c>
+      <c r="C370" t="s">
         <v>355</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
+        <v>62</v>
+      </c>
+      <c r="E370" t="s">
         <v>356</v>
-      </c>
-      <c r="D370" t="s">
-        <v>62</v>
-      </c>
-      <c r="E370" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B371" t="s">
+        <v>952</v>
+      </c>
+      <c r="C371" t="s">
         <v>953</v>
-      </c>
-      <c r="C371" t="s">
-        <v>954</v>
       </c>
       <c r="D371" t="s">
         <v>12</v>
       </c>
       <c r="E371" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B372" t="s">
+        <v>955</v>
+      </c>
+      <c r="C372" t="s">
         <v>956</v>
-      </c>
-      <c r="C372" t="s">
-        <v>957</v>
       </c>
       <c r="D372" t="s">
         <v>16</v>
       </c>
       <c r="E372" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B373" t="s">
+        <v>958</v>
+      </c>
+      <c r="C373" t="s">
         <v>959</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
+        <v>62</v>
+      </c>
+      <c r="E373" t="s">
         <v>960</v>
-      </c>
-      <c r="D373" t="s">
-        <v>62</v>
-      </c>
-      <c r="E373" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B374" t="s">
+        <v>812</v>
+      </c>
+      <c r="C374" t="s">
         <v>813</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
+        <v>62</v>
+      </c>
+      <c r="E374" t="s">
         <v>814</v>
-      </c>
-      <c r="D374" t="s">
-        <v>62</v>
-      </c>
-      <c r="E374" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B375" t="s">
+        <v>961</v>
+      </c>
+      <c r="C375" t="s">
         <v>962</v>
-      </c>
-      <c r="C375" t="s">
-        <v>963</v>
       </c>
       <c r="D375" t="s">
         <v>146</v>
       </c>
       <c r="E375" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{6A8725FC-9319-499B-A6B9-87C11E14BB33}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{7D606620-9F07-4CEF-8A67-267E7C81D3C4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{66561AE8-A137-41E8-9C59-AE9C9A303B09}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{6736FB12-C844-4139-9BCE-E2A2359D751F}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{BCD18F07-5894-499E-8417-CF717B1314F3}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{B0E01264-40AD-4CF9-AF7D-639F79DDFE50}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{933752E3-86EA-4C2E-BA5A-5AC851B2FDF4}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{81163BB8-5A41-43F9-B3C4-915E7665C1D6}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{CFD64BCD-F4B3-418A-B660-76F839E7466E}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{08A73D2F-1D91-44A0-B722-6048ED327EB8}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{90F96F14-4F2C-4E76-B06A-B4F0AC91AE89}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{E6BD6346-AEF9-40F8-9477-E649A5A4F65C}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{C72572B9-3DC2-4DCC-87E4-1C4C925D4B01}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{8FFF4DB5-5159-4413-BEB3-097FC66E90A4}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{724FC79E-467B-4287-8D18-A39F08EE5F2A}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{30BC5EF8-9B50-491D-9E30-B9BA01BBAF97}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{1841FBE9-4EA3-4395-8D0D-BFF72AAF79E4}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{E297DB9E-3E57-4115-A893-8F22154A2A08}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{8CC4286A-0054-4F4D-BCC4-B2BD3C6590CC}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{DBB9A472-DB2A-4B0E-BD2F-873F83855C8B}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{07CBC70A-553E-4458-8BA7-E135DF9D8638}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{881ADD14-5B40-402C-9314-3352C27EDC65}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{682A1A1E-E7D6-4619-9FDA-F2F5E58F8D9C}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{A1927909-2493-43EB-BBEC-3F1FFC0F0EB9}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{C0525AE2-7DC6-4D35-904A-DFC2DE951615}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{0D9ABEA7-8EBF-4D00-B22D-EAA446065B62}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{347A9CEA-8921-458E-B064-F46B8E864D49}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{44BC68FC-8848-4789-8465-5804ED11DE90}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{A7F4BEE0-0EAD-4FFF-ACDA-8F1DF572CC43}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{1D36AEBB-BA0E-4AE4-AF85-01B3B97CED1D}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{4E0B6BFC-9924-432B-9F53-638C683D6ED9}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{40BFE26E-68A5-4F8A-8FFA-21686AFE90EF}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{2DE123FD-9138-4B87-BC47-3982D38AED01}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{3450FD52-4C02-4D32-82E3-D61CA9C7FB1A}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{0C9AC0AD-9F0D-4E0C-A509-13809733F804}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{AFD3E201-B536-4098-8714-6D54ECFD6434}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{8464E94B-100A-49F5-9DF1-223B5B6BFDE2}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{46DC296F-54C5-4A9F-AC73-D5725D778982}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{BE913210-9339-48D9-AC23-48EB2C886703}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{440F6A58-A8A6-436D-92CD-40883527FD76}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{CD50B731-A9C0-4183-AD98-4492A2F77A01}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{D20FCAD3-3437-405F-B2F6-2C263579328D}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{CC903847-1C1E-4EBA-99BE-7A86FEFE13FD}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{961332AC-3CE5-457C-97A1-F84B37975606}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{55129136-6F78-45B8-BA0A-DCE4ECE2F41B}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{798DF757-E44A-4B73-8816-8414A5676C24}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{644A57D7-754C-4612-823A-FF97424C1152}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{3F43420C-31DB-4B4A-BDAE-06C31130A98F}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{2473B75D-AB3D-4D2F-AE59-552762E07040}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{D70226A2-2EB6-444E-A87D-52E611101601}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{AAAA233A-ADE1-417E-8AE9-C3E0A33E6796}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{CCD64B02-4EE8-4A41-8CAE-9376CD8C5990}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{51BA7D60-9EC6-4F53-BEAD-C41976A2BBF1}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{AB9E0C23-34CA-4A1E-88D8-01337CBD53A7}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{25F664C4-B4C5-4850-9FB4-1D1176DB3325}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{37789BF1-DA00-4B66-9D45-02B26D9FEEE6}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{84FBEC03-EB54-436E-92D7-94D2A9D13DD1}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{E48A17D7-ED25-4076-9FE5-B4F17738297A}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{DC6A2AE3-C1CD-4E93-8E3A-81C487E88DB4}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{53D34EFA-0CE2-4CE8-84C3-B28D4AC10823}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{4E100E5A-A3E6-412C-B86F-1737476D1311}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{5A562C9A-DF53-47A0-8235-392CE8290E00}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{008BBCB4-EDC5-457E-9132-71BA66628A81}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{DAAEAC4B-8E1C-4243-ADBC-91C21386781A}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{1DF1BFE8-D8BC-4E9C-B871-2FB345EDF975}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{85A7D958-DC43-4538-A3CA-BD9D30987B64}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{491A6ADE-7A7D-4BE1-9226-137809355248}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{DD12D4FD-B091-4DD9-AAF4-D0E55CE6F8D0}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{642B9B2A-216A-4EBD-8C74-D838630560BE}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{1FC40BB3-90D2-4B82-A56B-F2276F072CF5}"/>
+    <hyperlink ref="E72" r:id="rId71" display="https://www.researchgate.net/profile/Samuel_McAbee/publication/329782456_Statistical_and_Methodological_Considerations_for_Research_on_Expertise_Remedies_from_Open_Science_and_the_Reproducibility_Crisis/links/5c1a554392851c22a336ce9c/Statistical-and-Methodological-Considerations-for-Research-on-Expertise-Remedies-from-Open-Science-and-the-Reproducibility-Crisis.pdf" xr:uid="{C0F98080-6542-48B1-8BA3-63E381C54B0D}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{0D5CE7B4-2490-4503-92DB-80697EEA88CE}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{77CE91F4-AF0C-47A1-92B8-92E8866D481B}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{62634BE8-3D6D-44B8-BC05-EBC1DBB2E5C0}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{8274154C-A795-4B96-B2E8-6251D7441B34}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{EA66C7C7-C0B0-461D-9915-9C0791FCFF47}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{AAF20148-756B-4D4F-9A61-529C347EFE47}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{799DAF3D-3FC7-404D-8EA4-484A2207E88A}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{715AAE3E-D33E-48D8-A28B-4148091EBF66}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{2080F4AF-DC6A-462D-B745-DEB38AB5AEB5}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{3C23192E-A864-4162-A97B-F3C3E2A97879}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{F8490470-5D10-4B4C-8101-52B88CFE563C}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{F061DB84-5664-45D2-A04A-4B323035633A}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{051DBD60-17AA-4793-AFD5-3706C066DF33}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{B11E11C2-7568-4AF1-B72A-40CF17C2304F}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{3EDAF6F7-93A6-454C-BA98-722C20DD5183}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{2F60E61B-7D18-42AC-80A9-B6424E3BB9F1}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{9A1E2B6D-F308-41E7-981C-8ED026FAF185}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{DFD64EFF-130C-4339-8FAB-65307192C635}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{11774301-FCC4-4D3B-BCA9-65D6BBC71E66}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{36114FB4-0488-4D15-8F95-29727F233658}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{AB9EB411-C9C4-4334-AB88-4194AB8279D5}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{32934B7C-0930-47D0-92A2-903B91D0C6FD}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{5C83B2AF-C632-4F8B-8218-E85804B6B724}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{7A058E03-B8EB-4F1C-A484-6CCF6D9BF7EC}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{872F2F24-4A7B-404C-80F4-B33B6ACBE533}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{7A57F16E-A59A-4026-9835-2C7AD64EAA26}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{2CD5D8F5-781C-48E4-B9A6-E2C5C3FFC153}"/>
+    <hyperlink ref="E100" r:id="rId99" display="https://www.researchgate.net/profile/Nicholas_Grebe/publication/335437024_Psychological_cycle_shifts_redux_once_again_response_to_stern_et_al_Roney_Jones_et_al_and_Higham/links/5d726e7c299bf1cb808aec67/Psychological-cycle-shifts-redux-once-again-response-to-stern-et-al-Roney-Jones-et-al-and-Higham.pdf" xr:uid="{D38E9C4D-362A-4807-ACBD-347F2FF20648}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/articles_metadata.xlsx
+++ b/articles_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlenda1\google-scholar-citations-scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlenda1\Multiverse-type-Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168F668-4A3C-48E9-BC2E-0B9E716BE5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F759006-8891-4089-BD9A-EBA5D51533CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="977">
   <si>
     <t>source</t>
   </si>
@@ -1127,9 +1127,6 @@
   </si>
   <si>
     <t>https://psyarxiv.com/jcazp/</t>
-  </si>
-  <si>
-    <t>Current Medicine Research and Practice</t>
   </si>
   <si>
     <t xml:space="preserve">RL Sapra, S Nundy </t>
@@ -2919,6 +2916,42 @@
   <si>
     <t xml:space="preserve">Differentiate to Regulate: Low Negative Emotion Differentiation is Associated with
 Ineffective Emotion Regulation Use, but not Strategy Selection </t>
+  </si>
+  <si>
+    <t>nice article</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>waiting for access</t>
+  </si>
+  <si>
+    <t>not fully available</t>
+  </si>
+  <si>
+    <t>not english</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>not easily available</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>sca not feasible</t>
+  </si>
+  <si>
+    <t>book, not available</t>
+  </si>
+  <si>
+    <t>not applied on the actual data, but theoretically relevant</t>
   </si>
 </sst>
 </file>
@@ -3309,15 +3342,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:G375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="I222" sqref="I222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,10 +3370,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>963</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3377,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3477,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3517,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3537,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3617,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -5062,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C88" t="s">
         <v>268</v>
@@ -5330,8 +5369,11 @@
       <c r="D101" t="s">
         <v>62</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>308</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5347,8 +5389,11 @@
       <c r="D102" t="s">
         <v>62</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>311</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5364,8 +5409,11 @@
       <c r="D103" t="s">
         <v>62</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>314</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5381,8 +5429,11 @@
       <c r="D104" t="s">
         <v>12</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>317</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5398,8 +5449,11 @@
       <c r="D105" t="s">
         <v>16</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>320</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5415,8 +5469,11 @@
       <c r="D106" t="s">
         <v>62</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>323</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5432,8 +5489,11 @@
       <c r="D107" t="s">
         <v>16</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>326</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5449,8 +5509,11 @@
       <c r="D108" t="s">
         <v>62</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>329</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,8 +5529,11 @@
       <c r="D109" t="s">
         <v>62</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>332</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,8 +5549,11 @@
       <c r="D110" t="s">
         <v>16</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>335</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5500,8 +5569,11 @@
       <c r="D111" t="s">
         <v>62</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>338</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -5517,11 +5589,14 @@
       <c r="D112" t="s">
         <v>62</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -5534,11 +5609,14 @@
       <c r="D113" t="s">
         <v>16</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -5551,11 +5629,14 @@
       <c r="D114" t="s">
         <v>62</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -5568,11 +5649,14 @@
       <c r="D115" t="s">
         <v>16</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -5585,11 +5669,14 @@
       <c r="D116" t="s">
         <v>16</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -5602,11 +5689,17 @@
       <c r="D117" t="s">
         <v>62</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -5619,11 +5712,14 @@
       <c r="D118" t="s">
         <v>62</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -5636,11 +5732,14 @@
       <c r="D119" t="s">
         <v>62</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -5653,11 +5752,17 @@
       <c r="D120" t="s">
         <v>62</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>967</v>
+      </c>
+      <c r="G120" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -5670,506 +5775,605 @@
       <c r="D121" t="s">
         <v>62</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
       <c r="B122" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" t="s">
         <v>369</v>
-      </c>
-      <c r="C122" t="s">
-        <v>370</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>372</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D123" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>375</v>
-      </c>
-      <c r="C124" t="s">
-        <v>376</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>378</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D125" t="s">
-        <v>62</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>381</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>62</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D126" t="s">
-        <v>62</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>384</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D127" t="s">
-        <v>62</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>387</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D128" t="s">
-        <v>62</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>390</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D129" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>393</v>
-      </c>
-      <c r="C130" t="s">
-        <v>394</v>
       </c>
       <c r="D130" t="s">
         <v>146</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>396</v>
-      </c>
-      <c r="C131" t="s">
-        <v>397</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" t="s">
-        <v>399</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
       </c>
       <c r="D132" t="s">
+        <v>399</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>402</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>62</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D133" t="s">
-        <v>62</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>405</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>62</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D134" t="s">
-        <v>62</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>408</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>62</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D135" t="s">
-        <v>62</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>411</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D136" t="s">
-        <v>62</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>414</v>
-      </c>
-      <c r="C137" t="s">
-        <v>415</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>417</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D138" t="s">
-        <v>62</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>420</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>62</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D139" t="s">
-        <v>62</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>423</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D140" t="s">
-        <v>62</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>426</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D141" t="s">
-        <v>62</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>429</v>
-      </c>
-      <c r="C142" t="s">
-        <v>430</v>
       </c>
       <c r="D142" t="s">
         <v>146</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>432</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D143" t="s">
-        <v>62</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>435</v>
-      </c>
-      <c r="C144" t="s">
-        <v>436</v>
       </c>
       <c r="D144" t="s">
         <v>16</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>438</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D145" t="s">
-        <v>62</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>441</v>
-      </c>
-      <c r="C146" t="s">
-        <v>442</v>
       </c>
       <c r="D146" t="s">
         <v>146</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>444</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>62</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>447</v>
-      </c>
-      <c r="C148" t="s">
-        <v>448</v>
       </c>
       <c r="D148" t="s">
         <v>146</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>450</v>
-      </c>
-      <c r="C149" t="s">
-        <v>451</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>453</v>
-      </c>
-      <c r="C150" t="s">
-        <v>454</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>456</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -6180,64 +6384,76 @@
       <c r="D151" t="s">
         <v>12</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>455</v>
+      </c>
+      <c r="B152" t="s">
         <v>456</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>457</v>
-      </c>
-      <c r="C152" t="s">
-        <v>458</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>455</v>
+      </c>
+      <c r="B153" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>456</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>460</v>
-      </c>
-      <c r="C153" t="s">
-        <v>461</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>456</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>463</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D154" t="s">
-        <v>62</v>
-      </c>
-      <c r="E154" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B155" t="s">
         <v>24</v>
@@ -6248,64 +6464,76 @@
       <c r="D155" t="s">
         <v>16</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" t="s">
         <v>466</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D156" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>455</v>
+      </c>
+      <c r="B157" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>456</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>469</v>
-      </c>
-      <c r="C157" t="s">
-        <v>470</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>455</v>
+      </c>
+      <c r="B158" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>456</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>472</v>
-      </c>
-      <c r="C158" t="s">
-        <v>473</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
       </c>
-      <c r="E158" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
@@ -6316,13 +6544,16 @@
       <c r="D159" t="s">
         <v>16</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B160" t="s">
         <v>42</v>
@@ -6333,13 +6564,16 @@
       <c r="D160" t="s">
         <v>16</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B161" t="s">
         <v>64</v>
@@ -6350,30 +6584,36 @@
       <c r="D161" t="s">
         <v>62</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s">
+        <v>474</v>
+      </c>
+      <c r="C162" t="s">
         <v>475</v>
-      </c>
-      <c r="C162" t="s">
-        <v>476</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
-      <c r="E162" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s">
         <v>73</v>
@@ -6384,64 +6624,79 @@
       <c r="D163" t="s">
         <v>12</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s">
+        <v>477</v>
+      </c>
+      <c r="C164" t="s">
         <v>478</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D164" t="s">
-        <v>62</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>456</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>481</v>
-      </c>
-      <c r="C165" t="s">
-        <v>482</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>455</v>
+      </c>
+      <c r="B166" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>456</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>481</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C166" t="s">
-        <v>482</v>
-      </c>
-      <c r="D166" t="s">
-        <v>62</v>
-      </c>
-      <c r="E166" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B167" t="s">
         <v>96</v>
@@ -6452,30 +6707,36 @@
       <c r="D167" t="s">
         <v>62</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B168" t="s">
+        <v>485</v>
+      </c>
+      <c r="C168" t="s">
         <v>486</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D168" t="s">
-        <v>62</v>
-      </c>
-      <c r="E168" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B169" t="s">
         <v>99</v>
@@ -6486,98 +6747,119 @@
       <c r="D169" t="s">
         <v>16</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B170" t="s">
+        <v>488</v>
+      </c>
+      <c r="C170" t="s">
         <v>489</v>
-      </c>
-      <c r="C170" t="s">
-        <v>490</v>
       </c>
       <c r="D170" t="s">
         <v>16</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>455</v>
+      </c>
+      <c r="B171" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>456</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>492</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>455</v>
+      </c>
+      <c r="B172" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>456</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>495</v>
-      </c>
-      <c r="C172" t="s">
-        <v>496</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>455</v>
+      </c>
+      <c r="B173" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>456</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>498</v>
-      </c>
-      <c r="C173" t="s">
-        <v>499</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>455</v>
+      </c>
+      <c r="B174" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>456</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>501</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>62</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D174" t="s">
-        <v>62</v>
-      </c>
-      <c r="E174" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B175" t="s">
         <v>117</v>
@@ -6588,47 +6870,56 @@
       <c r="D175" t="s">
         <v>62</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B176" t="s">
+        <v>503</v>
+      </c>
+      <c r="C176" t="s">
         <v>504</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D176" t="s">
-        <v>62</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>455</v>
+      </c>
+      <c r="B177" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>456</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>507</v>
-      </c>
-      <c r="C177" t="s">
-        <v>508</v>
       </c>
       <c r="D177" t="s">
         <v>16</v>
       </c>
-      <c r="E177" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B178" t="s">
         <v>135</v>
@@ -6639,13 +6930,19 @@
       <c r="D178" t="s">
         <v>16</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B179" t="s">
         <v>144</v>
@@ -6656,98 +6953,119 @@
       <c r="D179" t="s">
         <v>146</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B180" t="s">
+        <v>509</v>
+      </c>
+      <c r="C180" t="s">
         <v>510</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D180" t="s">
-        <v>62</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>455</v>
+      </c>
+      <c r="B181" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>456</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>513</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D181" t="s">
-        <v>62</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>455</v>
+      </c>
+      <c r="B182" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>456</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>516</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>62</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D182" t="s">
-        <v>62</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>455</v>
+      </c>
+      <c r="B183" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>456</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>519</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>62</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>455</v>
+      </c>
+      <c r="B184" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>456</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>522</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>523</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E184" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B185" t="s">
         <v>259</v>
@@ -6758,30 +7076,36 @@
       <c r="D185" t="s">
         <v>62</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B186" t="s">
+        <v>525</v>
+      </c>
+      <c r="C186" t="s">
         <v>526</v>
-      </c>
-      <c r="C186" t="s">
-        <v>527</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
       </c>
-      <c r="E186" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B187" t="s">
         <v>273</v>
@@ -6792,81 +7116,99 @@
       <c r="D187" t="s">
         <v>62</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B188" t="s">
+        <v>528</v>
+      </c>
+      <c r="C188" t="s">
         <v>529</v>
-      </c>
-      <c r="C188" t="s">
-        <v>530</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>455</v>
+      </c>
+      <c r="B189" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>456</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>532</v>
-      </c>
-      <c r="C189" t="s">
-        <v>533</v>
       </c>
       <c r="D189" t="s">
         <v>146</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>455</v>
+      </c>
+      <c r="B190" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>456</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>535</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
+        <v>62</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D190" t="s">
-        <v>62</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>455</v>
+      </c>
+      <c r="B191" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>456</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>538</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D191" t="s">
-        <v>62</v>
-      </c>
-      <c r="E191" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B192" t="s">
         <v>321</v>
@@ -6877,215 +7219,260 @@
       <c r="D192" t="s">
         <v>62</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B193" t="s">
+        <v>540</v>
+      </c>
+      <c r="C193" t="s">
         <v>541</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D193" t="s">
-        <v>62</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>455</v>
+      </c>
+      <c r="B194" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>456</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
+        <v>466</v>
+      </c>
+      <c r="D194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C194" t="s">
-        <v>467</v>
-      </c>
-      <c r="D194" t="s">
-        <v>62</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>455</v>
+      </c>
+      <c r="B195" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>456</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>546</v>
-      </c>
-      <c r="C195" t="s">
-        <v>547</v>
       </c>
       <c r="D195" t="s">
         <v>146</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>455</v>
+      </c>
+      <c r="B196" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>456</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>549</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D196" t="s">
-        <v>62</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>455</v>
+      </c>
+      <c r="B197" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>456</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>552</v>
-      </c>
-      <c r="C197" t="s">
-        <v>553</v>
       </c>
       <c r="D197" t="s">
         <v>146</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>455</v>
+      </c>
+      <c r="B198" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>456</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>62</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D198" t="s">
-        <v>62</v>
-      </c>
-      <c r="E198" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B199" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" t="s">
         <v>426</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
+        <v>62</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D199" t="s">
-        <v>62</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>455</v>
+      </c>
+      <c r="B200" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>456</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>429</v>
-      </c>
-      <c r="C200" t="s">
-        <v>430</v>
       </c>
       <c r="D200" t="s">
         <v>146</v>
       </c>
-      <c r="E200" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s">
+        <v>434</v>
+      </c>
+      <c r="C201" t="s">
         <v>435</v>
-      </c>
-      <c r="C201" t="s">
-        <v>436</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
       </c>
-      <c r="E201" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
       <c r="B202" t="s">
+        <v>557</v>
+      </c>
+      <c r="C202" t="s">
         <v>558</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>559</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>465</v>
+      </c>
+      <c r="C203" t="s">
+        <v>466</v>
+      </c>
+      <c r="D203" t="s">
+        <v>62</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" t="s">
-        <v>466</v>
-      </c>
-      <c r="C203" t="s">
-        <v>467</v>
-      </c>
-      <c r="D203" t="s">
-        <v>62</v>
-      </c>
-      <c r="E203" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>562</v>
-      </c>
-      <c r="C204" t="s">
-        <v>563</v>
       </c>
       <c r="D204" t="s">
         <v>12</v>
       </c>
-      <c r="E204" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -7098,96 +7485,114 @@
       <c r="D205" t="s">
         <v>16</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
       <c r="B206" t="s">
+        <v>564</v>
+      </c>
+      <c r="C206" t="s">
         <v>565</v>
-      </c>
-      <c r="C206" t="s">
-        <v>566</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>568</v>
-      </c>
-      <c r="C207" t="s">
-        <v>569</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>571</v>
-      </c>
-      <c r="C208" t="s">
-        <v>572</v>
       </c>
       <c r="D208" t="s">
         <v>16</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>62</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D209" t="s">
-        <v>62</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>577</v>
-      </c>
-      <c r="C210" t="s">
-        <v>578</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
       </c>
-      <c r="E210" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -7203,166 +7608,196 @@
       <c r="E211" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>14</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
-      </c>
-      <c r="C212" t="s">
-        <v>581</v>
       </c>
       <c r="D212" t="s">
         <v>12</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>583</v>
-      </c>
-      <c r="C213" t="s">
-        <v>584</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>586</v>
-      </c>
-      <c r="C214" t="s">
-        <v>587</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>589</v>
-      </c>
-      <c r="C215" t="s">
-        <v>590</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>592</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>62</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D216" t="s">
-        <v>62</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>595</v>
-      </c>
-      <c r="C217" t="s">
-        <v>596</v>
       </c>
       <c r="D217" t="s">
         <v>16</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>598</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>62</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D218" t="s">
-        <v>62</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>14</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>601</v>
-      </c>
-      <c r="C219" t="s">
-        <v>602</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>14</v>
-      </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>604</v>
-      </c>
-      <c r="C220" t="s">
-        <v>605</v>
       </c>
       <c r="D220" t="s">
         <v>16</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>607</v>
       </c>
       <c r="C221" t="s">
         <v>52</v>
@@ -7370,28 +7805,37 @@
       <c r="D221" t="s">
         <v>12</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>609</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>62</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D222" t="s">
-        <v>62</v>
-      </c>
-      <c r="E222" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -7404,96 +7848,105 @@
       <c r="D223" t="s">
         <v>62</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>14</v>
       </c>
       <c r="B224" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" t="s">
         <v>498</v>
-      </c>
-      <c r="C224" t="s">
-        <v>499</v>
       </c>
       <c r="D224" t="s">
         <v>16</v>
       </c>
-      <c r="E224" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>14</v>
       </c>
       <c r="B225" t="s">
+        <v>611</v>
+      </c>
+      <c r="C225" t="s">
         <v>612</v>
-      </c>
-      <c r="C225" t="s">
-        <v>613</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>14</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>615</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>62</v>
+      </c>
+      <c r="E226" t="s">
         <v>616</v>
       </c>
-      <c r="D226" t="s">
-        <v>62</v>
-      </c>
-      <c r="E226" t="s">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>618</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>62</v>
+      </c>
+      <c r="E227" t="s">
         <v>619</v>
       </c>
-      <c r="D227" t="s">
-        <v>62</v>
-      </c>
-      <c r="E227" t="s">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>14</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>621</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
+        <v>62</v>
+      </c>
+      <c r="E228" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
-        <v>62</v>
-      </c>
-      <c r="E228" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -7510,41 +7963,41 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>14</v>
       </c>
       <c r="B230" t="s">
+        <v>623</v>
+      </c>
+      <c r="C230" t="s">
         <v>624</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
+        <v>62</v>
+      </c>
+      <c r="E230" t="s">
         <v>625</v>
       </c>
-      <c r="D230" t="s">
-        <v>62</v>
-      </c>
-      <c r="E230" t="s">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>14</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>627</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
+        <v>62</v>
+      </c>
+      <c r="E231" t="s">
         <v>628</v>
       </c>
-      <c r="D231" t="s">
-        <v>62</v>
-      </c>
-      <c r="E231" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -7561,92 +8014,92 @@
         <v>125</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>14</v>
       </c>
       <c r="B233" t="s">
+        <v>629</v>
+      </c>
+      <c r="C233" t="s">
         <v>630</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
+        <v>523</v>
+      </c>
+      <c r="E233" t="s">
         <v>631</v>
       </c>
-      <c r="D233" t="s">
-        <v>524</v>
-      </c>
-      <c r="E233" t="s">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>14</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>633</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>62</v>
+      </c>
+      <c r="E234" t="s">
         <v>634</v>
       </c>
-      <c r="D234" t="s">
-        <v>62</v>
-      </c>
-      <c r="E234" t="s">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>14</v>
-      </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>636</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>62</v>
+      </c>
+      <c r="E235" t="s">
         <v>637</v>
       </c>
-      <c r="D235" t="s">
-        <v>62</v>
-      </c>
-      <c r="E235" t="s">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>14</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>639</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
+        <v>62</v>
+      </c>
+      <c r="E236" t="s">
         <v>640</v>
       </c>
-      <c r="D236" t="s">
-        <v>62</v>
-      </c>
-      <c r="E236" t="s">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>642</v>
-      </c>
-      <c r="C237" t="s">
-        <v>643</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -7663,24 +8116,24 @@
         <v>143</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>14</v>
       </c>
       <c r="B239" t="s">
+        <v>644</v>
+      </c>
+      <c r="C239" t="s">
         <v>645</v>
-      </c>
-      <c r="C239" t="s">
-        <v>646</v>
       </c>
       <c r="D239" t="s">
         <v>12</v>
       </c>
       <c r="E239" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -7702,16 +8155,16 @@
         <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C241" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D241" t="s">
         <v>146</v>
       </c>
       <c r="E241" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -7736,16 +8189,16 @@
         <v>14</v>
       </c>
       <c r="B243" t="s">
+        <v>649</v>
+      </c>
+      <c r="C243" t="s">
         <v>650</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>62</v>
+      </c>
+      <c r="E243" t="s">
         <v>651</v>
-      </c>
-      <c r="D243" t="s">
-        <v>62</v>
-      </c>
-      <c r="E243" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -7753,16 +8206,16 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
+        <v>652</v>
+      </c>
+      <c r="C244" t="s">
         <v>653</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>62</v>
+      </c>
+      <c r="E244" t="s">
         <v>654</v>
-      </c>
-      <c r="D244" t="s">
-        <v>62</v>
-      </c>
-      <c r="E244" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -7770,16 +8223,16 @@
         <v>14</v>
       </c>
       <c r="B245" t="s">
+        <v>655</v>
+      </c>
+      <c r="C245" t="s">
         <v>656</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
+        <v>62</v>
+      </c>
+      <c r="E245" t="s">
         <v>657</v>
-      </c>
-      <c r="D245" t="s">
-        <v>62</v>
-      </c>
-      <c r="E245" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -7804,16 +8257,16 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
+        <v>658</v>
+      </c>
+      <c r="C247" t="s">
         <v>659</v>
-      </c>
-      <c r="C247" t="s">
-        <v>660</v>
       </c>
       <c r="D247" t="s">
         <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -7821,16 +8274,16 @@
         <v>14</v>
       </c>
       <c r="B248" t="s">
+        <v>661</v>
+      </c>
+      <c r="C248" t="s">
         <v>662</v>
-      </c>
-      <c r="C248" t="s">
-        <v>663</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
       </c>
       <c r="E248" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7838,16 +8291,16 @@
         <v>14</v>
       </c>
       <c r="B249" t="s">
+        <v>664</v>
+      </c>
+      <c r="C249" t="s">
         <v>665</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
+        <v>62</v>
+      </c>
+      <c r="E249" t="s">
         <v>666</v>
-      </c>
-      <c r="D249" t="s">
-        <v>62</v>
-      </c>
-      <c r="E249" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -7872,16 +8325,16 @@
         <v>14</v>
       </c>
       <c r="B251" t="s">
+        <v>667</v>
+      </c>
+      <c r="C251" t="s">
         <v>668</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
+        <v>62</v>
+      </c>
+      <c r="E251" t="s">
         <v>669</v>
-      </c>
-      <c r="D251" t="s">
-        <v>62</v>
-      </c>
-      <c r="E251" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7906,16 +8359,16 @@
         <v>14</v>
       </c>
       <c r="B253" t="s">
+        <v>670</v>
+      </c>
+      <c r="C253" t="s">
         <v>671</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
+        <v>62</v>
+      </c>
+      <c r="E253" t="s">
         <v>672</v>
-      </c>
-      <c r="D253" t="s">
-        <v>62</v>
-      </c>
-      <c r="E253" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -7923,16 +8376,16 @@
         <v>14</v>
       </c>
       <c r="B254" t="s">
+        <v>673</v>
+      </c>
+      <c r="C254" t="s">
         <v>674</v>
-      </c>
-      <c r="C254" t="s">
-        <v>675</v>
       </c>
       <c r="D254" t="s">
         <v>16</v>
       </c>
       <c r="E254" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -7940,16 +8393,16 @@
         <v>14</v>
       </c>
       <c r="B255" t="s">
+        <v>518</v>
+      </c>
+      <c r="C255" t="s">
         <v>519</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
         <v>520</v>
-      </c>
-      <c r="D255" t="s">
-        <v>62</v>
-      </c>
-      <c r="E255" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7957,16 +8410,16 @@
         <v>14</v>
       </c>
       <c r="B256" t="s">
+        <v>676</v>
+      </c>
+      <c r="C256" t="s">
         <v>677</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>62</v>
+      </c>
+      <c r="E256" t="s">
         <v>678</v>
-      </c>
-      <c r="D256" t="s">
-        <v>62</v>
-      </c>
-      <c r="E256" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,16 +8427,16 @@
         <v>14</v>
       </c>
       <c r="B257" t="s">
+        <v>679</v>
+      </c>
+      <c r="C257" t="s">
         <v>680</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
+        <v>62</v>
+      </c>
+      <c r="E257" t="s">
         <v>681</v>
-      </c>
-      <c r="D257" t="s">
-        <v>62</v>
-      </c>
-      <c r="E257" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7991,16 +8444,16 @@
         <v>14</v>
       </c>
       <c r="B258" t="s">
+        <v>682</v>
+      </c>
+      <c r="C258" t="s">
         <v>683</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
+        <v>62</v>
+      </c>
+      <c r="E258" t="s">
         <v>684</v>
-      </c>
-      <c r="D258" t="s">
-        <v>62</v>
-      </c>
-      <c r="E258" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -8008,16 +8461,16 @@
         <v>14</v>
       </c>
       <c r="B259" t="s">
+        <v>685</v>
+      </c>
+      <c r="C259" t="s">
         <v>686</v>
-      </c>
-      <c r="C259" t="s">
-        <v>687</v>
       </c>
       <c r="D259" t="s">
         <v>146</v>
       </c>
       <c r="E259" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -8025,16 +8478,16 @@
         <v>14</v>
       </c>
       <c r="B260" t="s">
+        <v>688</v>
+      </c>
+      <c r="C260" t="s">
         <v>689</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
+        <v>62</v>
+      </c>
+      <c r="E260" t="s">
         <v>690</v>
-      </c>
-      <c r="D260" t="s">
-        <v>62</v>
-      </c>
-      <c r="E260" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -8042,16 +8495,16 @@
         <v>14</v>
       </c>
       <c r="B261" t="s">
+        <v>691</v>
+      </c>
+      <c r="C261" t="s">
         <v>692</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" t="s">
         <v>693</v>
-      </c>
-      <c r="D261" t="s">
-        <v>62</v>
-      </c>
-      <c r="E261" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -8059,16 +8512,16 @@
         <v>14</v>
       </c>
       <c r="B262" t="s">
+        <v>694</v>
+      </c>
+      <c r="C262" t="s">
         <v>695</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>62</v>
+      </c>
+      <c r="E262" t="s">
         <v>696</v>
-      </c>
-      <c r="D262" t="s">
-        <v>62</v>
-      </c>
-      <c r="E262" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -8076,16 +8529,16 @@
         <v>14</v>
       </c>
       <c r="B263" t="s">
+        <v>697</v>
+      </c>
+      <c r="C263" t="s">
         <v>698</v>
-      </c>
-      <c r="C263" t="s">
-        <v>699</v>
       </c>
       <c r="D263" t="s">
         <v>146</v>
       </c>
       <c r="E263" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -8093,16 +8546,16 @@
         <v>14</v>
       </c>
       <c r="B264" t="s">
+        <v>700</v>
+      </c>
+      <c r="C264" t="s">
         <v>701</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
+        <v>62</v>
+      </c>
+      <c r="E264" t="s">
         <v>702</v>
-      </c>
-      <c r="D264" t="s">
-        <v>62</v>
-      </c>
-      <c r="E264" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -8127,16 +8580,16 @@
         <v>14</v>
       </c>
       <c r="B266" t="s">
+        <v>703</v>
+      </c>
+      <c r="C266" t="s">
         <v>704</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
+        <v>62</v>
+      </c>
+      <c r="E266" t="s">
         <v>705</v>
-      </c>
-      <c r="D266" t="s">
-        <v>62</v>
-      </c>
-      <c r="E266" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -8144,16 +8597,16 @@
         <v>14</v>
       </c>
       <c r="B267" t="s">
+        <v>706</v>
+      </c>
+      <c r="C267" t="s">
         <v>707</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267" t="s">
         <v>708</v>
-      </c>
-      <c r="D267" t="s">
-        <v>62</v>
-      </c>
-      <c r="E267" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -8161,16 +8614,16 @@
         <v>14</v>
       </c>
       <c r="B268" t="s">
+        <v>709</v>
+      </c>
+      <c r="C268" t="s">
         <v>710</v>
-      </c>
-      <c r="C268" t="s">
-        <v>711</v>
       </c>
       <c r="D268" t="s">
         <v>12</v>
       </c>
       <c r="E268" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -8195,16 +8648,16 @@
         <v>14</v>
       </c>
       <c r="B270" t="s">
+        <v>712</v>
+      </c>
+      <c r="C270" t="s">
         <v>713</v>
-      </c>
-      <c r="C270" t="s">
-        <v>714</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
       </c>
       <c r="E270" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -8212,16 +8665,16 @@
         <v>14</v>
       </c>
       <c r="B271" t="s">
+        <v>715</v>
+      </c>
+      <c r="C271" t="s">
         <v>716</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
+        <v>62</v>
+      </c>
+      <c r="E271" t="s">
         <v>717</v>
-      </c>
-      <c r="D271" t="s">
-        <v>62</v>
-      </c>
-      <c r="E271" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -8229,16 +8682,16 @@
         <v>14</v>
       </c>
       <c r="B272" t="s">
+        <v>718</v>
+      </c>
+      <c r="C272" t="s">
         <v>719</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
+        <v>62</v>
+      </c>
+      <c r="E272" t="s">
         <v>720</v>
-      </c>
-      <c r="D272" t="s">
-        <v>62</v>
-      </c>
-      <c r="E272" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -8246,16 +8699,16 @@
         <v>14</v>
       </c>
       <c r="B273" t="s">
+        <v>721</v>
+      </c>
+      <c r="C273" t="s">
         <v>722</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
+        <v>62</v>
+      </c>
+      <c r="E273" t="s">
         <v>723</v>
-      </c>
-      <c r="D273" t="s">
-        <v>62</v>
-      </c>
-      <c r="E273" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -8263,16 +8716,16 @@
         <v>14</v>
       </c>
       <c r="B274" t="s">
+        <v>724</v>
+      </c>
+      <c r="C274" t="s">
         <v>725</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274" t="s">
         <v>726</v>
-      </c>
-      <c r="D274" t="s">
-        <v>62</v>
-      </c>
-      <c r="E274" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -8280,16 +8733,16 @@
         <v>14</v>
       </c>
       <c r="B275" t="s">
+        <v>727</v>
+      </c>
+      <c r="C275" t="s">
         <v>728</v>
-      </c>
-      <c r="C275" t="s">
-        <v>729</v>
       </c>
       <c r="D275" t="s">
         <v>16</v>
       </c>
       <c r="E275" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -8297,16 +8750,16 @@
         <v>14</v>
       </c>
       <c r="B276" t="s">
+        <v>730</v>
+      </c>
+      <c r="C276" t="s">
         <v>731</v>
-      </c>
-      <c r="C276" t="s">
-        <v>732</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
       </c>
       <c r="E276" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -8314,16 +8767,16 @@
         <v>14</v>
       </c>
       <c r="B277" t="s">
+        <v>733</v>
+      </c>
+      <c r="C277" t="s">
         <v>734</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
+        <v>62</v>
+      </c>
+      <c r="E277" t="s">
         <v>735</v>
-      </c>
-      <c r="D277" t="s">
-        <v>62</v>
-      </c>
-      <c r="E277" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -8331,16 +8784,16 @@
         <v>14</v>
       </c>
       <c r="B278" t="s">
+        <v>736</v>
+      </c>
+      <c r="C278" t="s">
         <v>737</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
+        <v>62</v>
+      </c>
+      <c r="E278" t="s">
         <v>738</v>
-      </c>
-      <c r="D278" t="s">
-        <v>62</v>
-      </c>
-      <c r="E278" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -8348,16 +8801,16 @@
         <v>14</v>
       </c>
       <c r="B279" t="s">
+        <v>534</v>
+      </c>
+      <c r="C279" t="s">
         <v>535</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
+        <v>62</v>
+      </c>
+      <c r="E279" t="s">
         <v>536</v>
-      </c>
-      <c r="D279" t="s">
-        <v>62</v>
-      </c>
-      <c r="E279" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -8365,16 +8818,16 @@
         <v>14</v>
       </c>
       <c r="B280" t="s">
+        <v>739</v>
+      </c>
+      <c r="C280" t="s">
         <v>740</v>
-      </c>
-      <c r="C280" t="s">
-        <v>741</v>
       </c>
       <c r="D280" t="s">
         <v>146</v>
       </c>
       <c r="E280" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -8382,16 +8835,16 @@
         <v>14</v>
       </c>
       <c r="B281" t="s">
+        <v>742</v>
+      </c>
+      <c r="C281" t="s">
+        <v>704</v>
+      </c>
+      <c r="D281" t="s">
+        <v>62</v>
+      </c>
+      <c r="E281" t="s">
         <v>743</v>
-      </c>
-      <c r="C281" t="s">
-        <v>705</v>
-      </c>
-      <c r="D281" t="s">
-        <v>62</v>
-      </c>
-      <c r="E281" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -8399,16 +8852,16 @@
         <v>14</v>
       </c>
       <c r="B282" t="s">
+        <v>744</v>
+      </c>
+      <c r="C282" t="s">
         <v>745</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
+        <v>62</v>
+      </c>
+      <c r="E282" t="s">
         <v>746</v>
-      </c>
-      <c r="D282" t="s">
-        <v>62</v>
-      </c>
-      <c r="E282" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -8416,16 +8869,16 @@
         <v>14</v>
       </c>
       <c r="B283" t="s">
+        <v>747</v>
+      </c>
+      <c r="C283" t="s">
         <v>748</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E283" t="s">
         <v>749</v>
-      </c>
-      <c r="D283" t="s">
-        <v>62</v>
-      </c>
-      <c r="E283" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -8433,16 +8886,16 @@
         <v>14</v>
       </c>
       <c r="B284" t="s">
+        <v>750</v>
+      </c>
+      <c r="C284" t="s">
         <v>751</v>
-      </c>
-      <c r="C284" t="s">
-        <v>752</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
       </c>
       <c r="E284" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -8450,16 +8903,16 @@
         <v>14</v>
       </c>
       <c r="B285" t="s">
+        <v>753</v>
+      </c>
+      <c r="C285" t="s">
         <v>754</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
+        <v>62</v>
+      </c>
+      <c r="E285" t="s">
         <v>755</v>
-      </c>
-      <c r="D285" t="s">
-        <v>62</v>
-      </c>
-      <c r="E285" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -8484,16 +8937,16 @@
         <v>14</v>
       </c>
       <c r="B287" t="s">
+        <v>756</v>
+      </c>
+      <c r="C287" t="s">
         <v>757</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
+        <v>62</v>
+      </c>
+      <c r="E287" t="s">
         <v>758</v>
-      </c>
-      <c r="D287" t="s">
-        <v>62</v>
-      </c>
-      <c r="E287" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -8501,16 +8954,16 @@
         <v>14</v>
       </c>
       <c r="B288" t="s">
+        <v>759</v>
+      </c>
+      <c r="C288" t="s">
         <v>760</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
+        <v>62</v>
+      </c>
+      <c r="E288" t="s">
         <v>761</v>
-      </c>
-      <c r="D288" t="s">
-        <v>62</v>
-      </c>
-      <c r="E288" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -8569,16 +9022,16 @@
         <v>14</v>
       </c>
       <c r="B292" t="s">
+        <v>762</v>
+      </c>
+      <c r="C292" t="s">
         <v>763</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
+        <v>62</v>
+      </c>
+      <c r="E292" t="s">
         <v>764</v>
-      </c>
-      <c r="D292" t="s">
-        <v>62</v>
-      </c>
-      <c r="E292" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -8586,16 +9039,16 @@
         <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C293" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D293" t="s">
         <v>16</v>
       </c>
       <c r="E293" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -8603,16 +9056,16 @@
         <v>14</v>
       </c>
       <c r="B294" t="s">
+        <v>767</v>
+      </c>
+      <c r="C294" t="s">
         <v>768</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
+        <v>62</v>
+      </c>
+      <c r="E294" t="s">
         <v>769</v>
-      </c>
-      <c r="D294" t="s">
-        <v>62</v>
-      </c>
-      <c r="E294" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -8620,16 +9073,16 @@
         <v>14</v>
       </c>
       <c r="B295" t="s">
+        <v>770</v>
+      </c>
+      <c r="C295" t="s">
         <v>771</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
+        <v>62</v>
+      </c>
+      <c r="E295" t="s">
         <v>772</v>
-      </c>
-      <c r="D295" t="s">
-        <v>62</v>
-      </c>
-      <c r="E295" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -8637,16 +9090,16 @@
         <v>14</v>
       </c>
       <c r="B296" t="s">
+        <v>773</v>
+      </c>
+      <c r="C296" t="s">
         <v>774</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
+        <v>62</v>
+      </c>
+      <c r="E296" t="s">
         <v>775</v>
-      </c>
-      <c r="D296" t="s">
-        <v>62</v>
-      </c>
-      <c r="E296" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -8654,16 +9107,16 @@
         <v>14</v>
       </c>
       <c r="B297" t="s">
+        <v>776</v>
+      </c>
+      <c r="C297" t="s">
         <v>777</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
+        <v>62</v>
+      </c>
+      <c r="E297" t="s">
         <v>778</v>
-      </c>
-      <c r="D297" t="s">
-        <v>62</v>
-      </c>
-      <c r="E297" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -8671,16 +9124,16 @@
         <v>14</v>
       </c>
       <c r="B298" t="s">
+        <v>779</v>
+      </c>
+      <c r="C298" t="s">
         <v>780</v>
-      </c>
-      <c r="C298" t="s">
-        <v>781</v>
       </c>
       <c r="D298" t="s">
         <v>16</v>
       </c>
       <c r="E298" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -8688,16 +9141,16 @@
         <v>14</v>
       </c>
       <c r="B299" t="s">
+        <v>782</v>
+      </c>
+      <c r="C299" t="s">
         <v>783</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
+        <v>62</v>
+      </c>
+      <c r="E299" t="s">
         <v>784</v>
-      </c>
-      <c r="D299" t="s">
-        <v>62</v>
-      </c>
-      <c r="E299" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -8705,16 +9158,16 @@
         <v>14</v>
       </c>
       <c r="B300" t="s">
+        <v>377</v>
+      </c>
+      <c r="C300" t="s">
         <v>378</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
+        <v>62</v>
+      </c>
+      <c r="E300" t="s">
         <v>379</v>
-      </c>
-      <c r="D300" t="s">
-        <v>62</v>
-      </c>
-      <c r="E300" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -8722,16 +9175,16 @@
         <v>14</v>
       </c>
       <c r="B301" t="s">
+        <v>785</v>
+      </c>
+      <c r="C301" t="s">
         <v>786</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
+        <v>62</v>
+      </c>
+      <c r="E301" t="s">
         <v>787</v>
-      </c>
-      <c r="D301" t="s">
-        <v>62</v>
-      </c>
-      <c r="E301" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -8739,16 +9192,16 @@
         <v>14</v>
       </c>
       <c r="B302" t="s">
+        <v>788</v>
+      </c>
+      <c r="C302" t="s">
         <v>789</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
+        <v>62</v>
+      </c>
+      <c r="E302" t="s">
         <v>790</v>
-      </c>
-      <c r="D302" t="s">
-        <v>62</v>
-      </c>
-      <c r="E302" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8756,16 +9209,16 @@
         <v>14</v>
       </c>
       <c r="B303" t="s">
+        <v>791</v>
+      </c>
+      <c r="C303" t="s">
         <v>792</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
+        <v>62</v>
+      </c>
+      <c r="E303" t="s">
         <v>793</v>
-      </c>
-      <c r="D303" t="s">
-        <v>62</v>
-      </c>
-      <c r="E303" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8773,16 +9226,16 @@
         <v>14</v>
       </c>
       <c r="B304" t="s">
+        <v>794</v>
+      </c>
+      <c r="C304" t="s">
+        <v>683</v>
+      </c>
+      <c r="D304" t="s">
+        <v>62</v>
+      </c>
+      <c r="E304" t="s">
         <v>795</v>
-      </c>
-      <c r="C304" t="s">
-        <v>684</v>
-      </c>
-      <c r="D304" t="s">
-        <v>62</v>
-      </c>
-      <c r="E304" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8790,16 +9243,16 @@
         <v>14</v>
       </c>
       <c r="B305" t="s">
+        <v>796</v>
+      </c>
+      <c r="C305" t="s">
         <v>797</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
+        <v>62</v>
+      </c>
+      <c r="E305" t="s">
         <v>798</v>
-      </c>
-      <c r="D305" t="s">
-        <v>62</v>
-      </c>
-      <c r="E305" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8807,16 +9260,16 @@
         <v>14</v>
       </c>
       <c r="B306" t="s">
+        <v>799</v>
+      </c>
+      <c r="C306" t="s">
         <v>800</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
+        <v>62</v>
+      </c>
+      <c r="E306" t="s">
         <v>801</v>
-      </c>
-      <c r="D306" t="s">
-        <v>62</v>
-      </c>
-      <c r="E306" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8824,16 +9277,16 @@
         <v>14</v>
       </c>
       <c r="B307" t="s">
+        <v>802</v>
+      </c>
+      <c r="C307" t="s">
         <v>803</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
+        <v>62</v>
+      </c>
+      <c r="E307" t="s">
         <v>804</v>
-      </c>
-      <c r="D307" t="s">
-        <v>62</v>
-      </c>
-      <c r="E307" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8841,16 +9294,16 @@
         <v>14</v>
       </c>
       <c r="B308" t="s">
+        <v>410</v>
+      </c>
+      <c r="C308" t="s">
         <v>411</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
+        <v>62</v>
+      </c>
+      <c r="E308" t="s">
         <v>412</v>
-      </c>
-      <c r="D308" t="s">
-        <v>62</v>
-      </c>
-      <c r="E308" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8858,16 +9311,16 @@
         <v>14</v>
       </c>
       <c r="B309" t="s">
+        <v>416</v>
+      </c>
+      <c r="C309" t="s">
         <v>417</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
+        <v>62</v>
+      </c>
+      <c r="E309" t="s">
         <v>418</v>
-      </c>
-      <c r="D309" t="s">
-        <v>62</v>
-      </c>
-      <c r="E309" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8875,16 +9328,16 @@
         <v>14</v>
       </c>
       <c r="B310" t="s">
+        <v>805</v>
+      </c>
+      <c r="C310" t="s">
         <v>806</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
+        <v>62</v>
+      </c>
+      <c r="E310" t="s">
         <v>807</v>
-      </c>
-      <c r="D310" t="s">
-        <v>62</v>
-      </c>
-      <c r="E310" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8892,16 +9345,16 @@
         <v>14</v>
       </c>
       <c r="B311" t="s">
+        <v>425</v>
+      </c>
+      <c r="C311" t="s">
         <v>426</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
+        <v>62</v>
+      </c>
+      <c r="E311" t="s">
         <v>427</v>
-      </c>
-      <c r="D311" t="s">
-        <v>62</v>
-      </c>
-      <c r="E311" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8909,16 +9362,16 @@
         <v>14</v>
       </c>
       <c r="B312" t="s">
+        <v>808</v>
+      </c>
+      <c r="C312" t="s">
         <v>809</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
+        <v>62</v>
+      </c>
+      <c r="E312" t="s">
         <v>810</v>
-      </c>
-      <c r="D312" t="s">
-        <v>62</v>
-      </c>
-      <c r="E312" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8926,16 +9379,16 @@
         <v>14</v>
       </c>
       <c r="B313" t="s">
+        <v>811</v>
+      </c>
+      <c r="C313" t="s">
         <v>812</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
+        <v>62</v>
+      </c>
+      <c r="E313" t="s">
         <v>813</v>
-      </c>
-      <c r="D313" t="s">
-        <v>62</v>
-      </c>
-      <c r="E313" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -8943,16 +9396,16 @@
         <v>14</v>
       </c>
       <c r="B314" t="s">
+        <v>814</v>
+      </c>
+      <c r="C314" t="s">
         <v>815</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
+        <v>62</v>
+      </c>
+      <c r="E314" t="s">
         <v>816</v>
-      </c>
-      <c r="D314" t="s">
-        <v>62</v>
-      </c>
-      <c r="E314" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -8960,16 +9413,16 @@
         <v>14</v>
       </c>
       <c r="B315" t="s">
+        <v>817</v>
+      </c>
+      <c r="C315" t="s">
         <v>818</v>
-      </c>
-      <c r="C315" t="s">
-        <v>819</v>
       </c>
       <c r="D315" t="s">
         <v>146</v>
       </c>
       <c r="E315" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8977,208 +9430,208 @@
         <v>14</v>
       </c>
       <c r="B316" t="s">
+        <v>820</v>
+      </c>
+      <c r="C316" t="s">
         <v>821</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
+        <v>62</v>
+      </c>
+      <c r="E316" t="s">
         <v>822</v>
-      </c>
-      <c r="D316" t="s">
-        <v>62</v>
-      </c>
-      <c r="E316" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>823</v>
+      </c>
+      <c r="B317" t="s">
         <v>824</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>825</v>
-      </c>
-      <c r="C317" t="s">
-        <v>826</v>
       </c>
       <c r="D317" t="s">
         <v>12</v>
       </c>
       <c r="E317" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D318" t="s">
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B319" t="s">
+        <v>829</v>
+      </c>
+      <c r="C319" t="s">
         <v>830</v>
-      </c>
-      <c r="C319" t="s">
-        <v>831</v>
       </c>
       <c r="D319" t="s">
         <v>8</v>
       </c>
       <c r="E319" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B320" t="s">
+        <v>832</v>
+      </c>
+      <c r="C320" t="s">
         <v>833</v>
-      </c>
-      <c r="C320" t="s">
-        <v>834</v>
       </c>
       <c r="D320" t="s">
         <v>12</v>
       </c>
       <c r="E320" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B321" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C321" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D321" t="s">
         <v>8</v>
       </c>
       <c r="E321" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B322" t="s">
+        <v>837</v>
+      </c>
+      <c r="C322" t="s">
         <v>838</v>
-      </c>
-      <c r="C322" t="s">
-        <v>839</v>
       </c>
       <c r="D322" t="s">
         <v>12</v>
       </c>
       <c r="E322" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B323" t="s">
+        <v>840</v>
+      </c>
+      <c r="C323" t="s">
         <v>841</v>
-      </c>
-      <c r="C323" t="s">
-        <v>842</v>
       </c>
       <c r="D323" t="s">
         <v>8</v>
       </c>
       <c r="E323" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B324" t="s">
+        <v>843</v>
+      </c>
+      <c r="C324" t="s">
         <v>844</v>
-      </c>
-      <c r="C324" t="s">
-        <v>845</v>
       </c>
       <c r="D324" t="s">
         <v>12</v>
       </c>
       <c r="E324" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B325" t="s">
+        <v>846</v>
+      </c>
+      <c r="C325" t="s">
         <v>847</v>
-      </c>
-      <c r="C325" t="s">
-        <v>848</v>
       </c>
       <c r="D325" t="s">
         <v>12</v>
       </c>
       <c r="E325" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B326" t="s">
+        <v>849</v>
+      </c>
+      <c r="C326" t="s">
         <v>850</v>
-      </c>
-      <c r="C326" t="s">
-        <v>851</v>
       </c>
       <c r="D326" t="s">
         <v>12</v>
       </c>
       <c r="E326" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B327" t="s">
+        <v>852</v>
+      </c>
+      <c r="C327" t="s">
         <v>853</v>
-      </c>
-      <c r="C327" t="s">
-        <v>854</v>
       </c>
       <c r="D327" t="s">
         <v>12</v>
       </c>
       <c r="E327" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B328" t="s">
         <v>54</v>
@@ -9195,279 +9648,279 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B329" t="s">
+        <v>855</v>
+      </c>
+      <c r="C329" t="s">
         <v>856</v>
-      </c>
-      <c r="C329" t="s">
-        <v>857</v>
       </c>
       <c r="D329" t="s">
         <v>8</v>
       </c>
       <c r="E329" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B330" t="s">
+        <v>858</v>
+      </c>
+      <c r="C330" t="s">
         <v>859</v>
-      </c>
-      <c r="C330" t="s">
-        <v>860</v>
       </c>
       <c r="D330" t="s">
         <v>12</v>
       </c>
       <c r="E330" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B331" t="s">
+        <v>861</v>
+      </c>
+      <c r="C331" t="s">
         <v>862</v>
-      </c>
-      <c r="C331" t="s">
-        <v>863</v>
       </c>
       <c r="D331" t="s">
         <v>16</v>
       </c>
       <c r="E331" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B332" t="s">
+        <v>864</v>
+      </c>
+      <c r="C332" t="s">
         <v>865</v>
-      </c>
-      <c r="C332" t="s">
-        <v>866</v>
       </c>
       <c r="D332" t="s">
         <v>8</v>
       </c>
       <c r="E332" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B333" t="s">
+        <v>867</v>
+      </c>
+      <c r="C333" t="s">
         <v>868</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
+        <v>62</v>
+      </c>
+      <c r="E333" t="s">
         <v>869</v>
-      </c>
-      <c r="D333" t="s">
-        <v>62</v>
-      </c>
-      <c r="E333" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B334" t="s">
+        <v>870</v>
+      </c>
+      <c r="C334" t="s">
         <v>871</v>
-      </c>
-      <c r="C334" t="s">
-        <v>872</v>
       </c>
       <c r="D334" t="s">
         <v>16</v>
       </c>
       <c r="E334" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B335" t="s">
+        <v>873</v>
+      </c>
+      <c r="C335" t="s">
         <v>874</v>
-      </c>
-      <c r="C335" t="s">
-        <v>875</v>
       </c>
       <c r="D335" t="s">
         <v>16</v>
       </c>
       <c r="E335" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B336" t="s">
+        <v>876</v>
+      </c>
+      <c r="C336" t="s">
         <v>877</v>
-      </c>
-      <c r="C336" t="s">
-        <v>878</v>
       </c>
       <c r="D336" t="s">
         <v>12</v>
       </c>
       <c r="E336" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B337" t="s">
+        <v>879</v>
+      </c>
+      <c r="C337" t="s">
         <v>880</v>
-      </c>
-      <c r="C337" t="s">
-        <v>881</v>
       </c>
       <c r="D337" t="s">
         <v>12</v>
       </c>
       <c r="E337" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B338" t="s">
+        <v>882</v>
+      </c>
+      <c r="C338" t="s">
         <v>883</v>
-      </c>
-      <c r="C338" t="s">
-        <v>884</v>
       </c>
       <c r="D338" t="s">
         <v>16</v>
       </c>
       <c r="E338" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B339" t="s">
+        <v>885</v>
+      </c>
+      <c r="C339" t="s">
         <v>886</v>
-      </c>
-      <c r="C339" t="s">
-        <v>887</v>
       </c>
       <c r="D339" t="s">
         <v>16</v>
       </c>
       <c r="E339" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B340" t="s">
+        <v>888</v>
+      </c>
+      <c r="C340" t="s">
         <v>889</v>
-      </c>
-      <c r="C340" t="s">
-        <v>890</v>
       </c>
       <c r="D340" t="s">
         <v>12</v>
       </c>
       <c r="E340" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B341" t="s">
+        <v>891</v>
+      </c>
+      <c r="C341" t="s">
         <v>892</v>
-      </c>
-      <c r="C341" t="s">
-        <v>893</v>
       </c>
       <c r="D341" t="s">
         <v>8</v>
       </c>
       <c r="E341" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B342" t="s">
+        <v>894</v>
+      </c>
+      <c r="C342" t="s">
         <v>895</v>
-      </c>
-      <c r="C342" t="s">
-        <v>896</v>
       </c>
       <c r="D342" t="s">
         <v>8</v>
       </c>
       <c r="E342" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B343" t="s">
+        <v>897</v>
+      </c>
+      <c r="C343" t="s">
         <v>898</v>
-      </c>
-      <c r="C343" t="s">
-        <v>899</v>
       </c>
       <c r="D343" t="s">
         <v>12</v>
       </c>
       <c r="E343" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B344" t="s">
+        <v>900</v>
+      </c>
+      <c r="C344" t="s">
+        <v>748</v>
+      </c>
+      <c r="D344" t="s">
+        <v>62</v>
+      </c>
+      <c r="E344" t="s">
         <v>901</v>
-      </c>
-      <c r="C344" t="s">
-        <v>749</v>
-      </c>
-      <c r="D344" t="s">
-        <v>62</v>
-      </c>
-      <c r="E344" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B345" t="s">
         <v>117</v>
@@ -9484,126 +9937,126 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B346" t="s">
+        <v>902</v>
+      </c>
+      <c r="C346" t="s">
         <v>903</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
+        <v>62</v>
+      </c>
+      <c r="E346" t="s">
         <v>904</v>
-      </c>
-      <c r="D346" t="s">
-        <v>62</v>
-      </c>
-      <c r="E346" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B347" t="s">
+        <v>905</v>
+      </c>
+      <c r="C347" t="s">
         <v>906</v>
-      </c>
-      <c r="C347" t="s">
-        <v>907</v>
       </c>
       <c r="D347" t="s">
         <v>12</v>
       </c>
       <c r="E347" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B348" t="s">
+        <v>908</v>
+      </c>
+      <c r="C348" t="s">
         <v>909</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
+        <v>62</v>
+      </c>
+      <c r="E348" t="s">
         <v>910</v>
-      </c>
-      <c r="D348" t="s">
-        <v>62</v>
-      </c>
-      <c r="E348" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B349" t="s">
+        <v>911</v>
+      </c>
+      <c r="C349" t="s">
         <v>912</v>
-      </c>
-      <c r="C349" t="s">
-        <v>913</v>
       </c>
       <c r="D349" t="s">
         <v>8</v>
       </c>
       <c r="E349" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B350" t="s">
+        <v>914</v>
+      </c>
+      <c r="C350" t="s">
         <v>915</v>
-      </c>
-      <c r="C350" t="s">
-        <v>916</v>
       </c>
       <c r="D350" t="s">
         <v>8</v>
       </c>
       <c r="E350" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B351" t="s">
+        <v>917</v>
+      </c>
+      <c r="C351" t="s">
+        <v>748</v>
+      </c>
+      <c r="D351" t="s">
+        <v>62</v>
+      </c>
+      <c r="E351" t="s">
         <v>918</v>
-      </c>
-      <c r="C351" t="s">
-        <v>749</v>
-      </c>
-      <c r="D351" t="s">
-        <v>62</v>
-      </c>
-      <c r="E351" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B352" t="s">
+        <v>919</v>
+      </c>
+      <c r="C352" t="s">
         <v>920</v>
-      </c>
-      <c r="C352" t="s">
-        <v>921</v>
       </c>
       <c r="D352" t="s">
         <v>16</v>
       </c>
       <c r="E352" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B353" t="s">
         <v>141</v>
@@ -9620,7 +10073,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B354" t="s">
         <v>144</v>
@@ -9637,24 +10090,24 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B355" t="s">
+        <v>649</v>
+      </c>
+      <c r="C355" t="s">
         <v>650</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
+        <v>62</v>
+      </c>
+      <c r="E355" t="s">
         <v>651</v>
-      </c>
-      <c r="D355" t="s">
-        <v>62</v>
-      </c>
-      <c r="E355" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B356" t="s">
         <v>157</v>
@@ -9671,143 +10124,143 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B357" t="s">
+        <v>652</v>
+      </c>
+      <c r="C357" t="s">
         <v>653</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
+        <v>62</v>
+      </c>
+      <c r="E357" t="s">
         <v>654</v>
-      </c>
-      <c r="D357" t="s">
-        <v>62</v>
-      </c>
-      <c r="E357" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B358" t="s">
+        <v>922</v>
+      </c>
+      <c r="C358" t="s">
         <v>923</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
+        <v>62</v>
+      </c>
+      <c r="E358" t="s">
         <v>924</v>
-      </c>
-      <c r="D358" t="s">
-        <v>62</v>
-      </c>
-      <c r="E358" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B359" t="s">
+        <v>925</v>
+      </c>
+      <c r="C359" t="s">
+        <v>853</v>
+      </c>
+      <c r="D359" t="s">
+        <v>62</v>
+      </c>
+      <c r="E359" t="s">
         <v>926</v>
-      </c>
-      <c r="C359" t="s">
-        <v>854</v>
-      </c>
-      <c r="D359" t="s">
-        <v>62</v>
-      </c>
-      <c r="E359" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B360" t="s">
+        <v>927</v>
+      </c>
+      <c r="C360" t="s">
         <v>928</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
+        <v>62</v>
+      </c>
+      <c r="E360" t="s">
         <v>929</v>
-      </c>
-      <c r="D360" t="s">
-        <v>62</v>
-      </c>
-      <c r="E360" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B361" t="s">
+        <v>930</v>
+      </c>
+      <c r="C361" t="s">
         <v>931</v>
-      </c>
-      <c r="C361" t="s">
-        <v>932</v>
       </c>
       <c r="D361" t="s">
         <v>16</v>
       </c>
       <c r="E361" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B362" t="s">
+        <v>933</v>
+      </c>
+      <c r="C362" t="s">
         <v>934</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
+        <v>62</v>
+      </c>
+      <c r="E362" t="s">
         <v>935</v>
-      </c>
-      <c r="D362" t="s">
-        <v>62</v>
-      </c>
-      <c r="E362" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B363" t="s">
+        <v>936</v>
+      </c>
+      <c r="C363" t="s">
         <v>937</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
+        <v>62</v>
+      </c>
+      <c r="E363" t="s">
         <v>938</v>
-      </c>
-      <c r="D363" t="s">
-        <v>62</v>
-      </c>
-      <c r="E363" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B364" t="s">
+        <v>939</v>
+      </c>
+      <c r="C364" t="s">
         <v>940</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
+        <v>62</v>
+      </c>
+      <c r="E364" t="s">
         <v>941</v>
-      </c>
-      <c r="D364" t="s">
-        <v>62</v>
-      </c>
-      <c r="E364" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B365" t="s">
         <v>273</v>
@@ -9824,75 +10277,75 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B366" t="s">
+        <v>942</v>
+      </c>
+      <c r="C366" t="s">
         <v>943</v>
-      </c>
-      <c r="C366" t="s">
-        <v>944</v>
       </c>
       <c r="D366" t="s">
         <v>16</v>
       </c>
       <c r="E366" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B367" t="s">
+        <v>945</v>
+      </c>
+      <c r="C367" t="s">
         <v>946</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
+        <v>62</v>
+      </c>
+      <c r="E367" t="s">
         <v>947</v>
-      </c>
-      <c r="D367" t="s">
-        <v>62</v>
-      </c>
-      <c r="E367" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B368" t="s">
+        <v>747</v>
+      </c>
+      <c r="C368" t="s">
         <v>748</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
+        <v>62</v>
+      </c>
+      <c r="E368" t="s">
         <v>749</v>
-      </c>
-      <c r="D368" t="s">
-        <v>62</v>
-      </c>
-      <c r="E368" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B369" t="s">
+        <v>948</v>
+      </c>
+      <c r="C369" t="s">
         <v>949</v>
       </c>
-      <c r="C369" t="s">
+      <c r="D369" t="s">
+        <v>62</v>
+      </c>
+      <c r="E369" t="s">
         <v>950</v>
-      </c>
-      <c r="D369" t="s">
-        <v>62</v>
-      </c>
-      <c r="E369" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B370" t="s">
         <v>354</v>
@@ -9909,87 +10362,87 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B371" t="s">
+        <v>951</v>
+      </c>
+      <c r="C371" t="s">
         <v>952</v>
-      </c>
-      <c r="C371" t="s">
-        <v>953</v>
       </c>
       <c r="D371" t="s">
         <v>12</v>
       </c>
       <c r="E371" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B372" t="s">
+        <v>954</v>
+      </c>
+      <c r="C372" t="s">
         <v>955</v>
-      </c>
-      <c r="C372" t="s">
-        <v>956</v>
       </c>
       <c r="D372" t="s">
         <v>16</v>
       </c>
       <c r="E372" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B373" t="s">
+        <v>957</v>
+      </c>
+      <c r="C373" t="s">
         <v>958</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
+        <v>62</v>
+      </c>
+      <c r="E373" t="s">
         <v>959</v>
-      </c>
-      <c r="D373" t="s">
-        <v>62</v>
-      </c>
-      <c r="E373" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B374" t="s">
+        <v>811</v>
+      </c>
+      <c r="C374" t="s">
         <v>812</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
+        <v>62</v>
+      </c>
+      <c r="E374" t="s">
         <v>813</v>
-      </c>
-      <c r="D374" t="s">
-        <v>62</v>
-      </c>
-      <c r="E374" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B375" t="s">
+        <v>960</v>
+      </c>
+      <c r="C375" t="s">
         <v>961</v>
-      </c>
-      <c r="C375" t="s">
-        <v>962</v>
       </c>
       <c r="D375" t="s">
         <v>146</v>
       </c>
       <c r="E375" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -10093,6 +10546,130 @@
     <hyperlink ref="E98" r:id="rId97" xr:uid="{7A57F16E-A59A-4026-9835-2C7AD64EAA26}"/>
     <hyperlink ref="E99" r:id="rId98" xr:uid="{2CD5D8F5-781C-48E4-B9A6-E2C5C3FFC153}"/>
     <hyperlink ref="E100" r:id="rId99" display="https://www.researchgate.net/profile/Nicholas_Grebe/publication/335437024_Psychological_cycle_shifts_redux_once_again_response_to_stern_et_al_Roney_Jones_et_al_and_Higham/links/5d726e7c299bf1cb808aec67/Psychological-cycle-shifts-redux-once-again-response-to-stern-et-al-Roney-Jones-et-al-and-Higham.pdf" xr:uid="{D38E9C4D-362A-4807-ACBD-347F2FF20648}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{D81A178F-2F87-4A1C-95EA-FD4D7869EC10}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{A88CD711-C83F-417E-98BE-758573C56363}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{09DA60BC-D2BE-493C-A54E-EB182AF9980D}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{ECEDF156-DCF4-450D-8CE7-256D54064800}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{5CB3AC2B-3363-45FB-8C79-CF65C041CB94}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{4C4DB3E9-D1C4-4CC0-8222-C32ABEB079DC}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{EA56576D-132E-40C1-93A7-C11279EE061B}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{D8BE4502-B6B2-4DDF-9A0D-3600762960CD}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{A5E766CD-CBF2-4D8E-9EF1-B5EAF28DA643}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{7615BE39-308C-40A1-A162-B5AC382766D1}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{27E9147F-44BB-4E34-95E2-D708642E00A4}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{0FAE2EC7-D761-4B36-8E58-5AD10EFB9138}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{F1A3EA86-5BCD-4993-8258-D8306AC48EF0}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{77124AF2-23E6-491E-9FBF-AB71AB273395}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{0E927E4A-6F57-499C-805F-A9E489E4D60F}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{BA9AACA1-99A1-4B1B-9946-5D41AEFAEB97}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{B455E775-6924-4021-BAA2-3C11CCD0727D}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{D0217DA6-75CC-4B0A-BDDC-BC9235EF3B6D}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{0142C753-A989-4F9F-9FE2-BD4D0B3DACE2}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{767C515E-A591-4308-B60B-16B1D486BD3A}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{252B4936-4F28-4845-ABBA-9097DD555DD1}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{9590E32A-212C-428A-8A27-A224E4D11165}"/>
+    <hyperlink ref="E123" r:id="rId122" xr:uid="{4ADAEA0F-BB8B-4008-A18B-0946780E7F0C}"/>
+    <hyperlink ref="E124" r:id="rId123" xr:uid="{755DE65B-9023-4679-AF8B-A69815AB6ECA}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{DA36EF66-CFEA-4E22-81CC-59D985C795CD}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{3B6D58B7-7567-4B33-AC4E-90F119C5AA28}"/>
+    <hyperlink ref="E127" r:id="rId126" xr:uid="{E3B601F1-7E93-4D94-BB84-A7441DB62373}"/>
+    <hyperlink ref="E128" r:id="rId127" xr:uid="{EF7773A4-DD55-40FF-A069-A6F101F33524}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{47E45413-71BE-4296-8D92-462C685DE498}"/>
+    <hyperlink ref="E130" r:id="rId129" location="page=106" xr:uid="{5CA0C7CD-780E-4644-9C28-88406CCDEE65}"/>
+    <hyperlink ref="E131" r:id="rId130" xr:uid="{1B14A222-86CB-4580-88F2-CF22C65AED1E}"/>
+    <hyperlink ref="E132" r:id="rId131" xr:uid="{8BDBDE1D-ED4A-4621-87E0-B0160F81967A}"/>
+    <hyperlink ref="E133" r:id="rId132" xr:uid="{17E8055B-906E-414D-9066-33239C2688FC}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{7EB4A77D-3F99-4A44-B809-D17208661708}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{834930F9-68B3-450A-BB6C-975EA8921A98}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{E8B016BA-FBB5-46BF-893E-44D8DC05EDF1}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{8955E6B3-A91A-4952-9EE3-4A8CECED5464}"/>
+    <hyperlink ref="E138" r:id="rId137" xr:uid="{0D0866B4-D273-4CB5-B363-65506B0A4A67}"/>
+    <hyperlink ref="E139" r:id="rId138" xr:uid="{8C751CAC-3675-4826-BF67-93E5C0AD6046}"/>
+    <hyperlink ref="E140" r:id="rId139" xr:uid="{D68E4D93-E1B0-477A-A84C-F3F1DC19FA2A}"/>
+    <hyperlink ref="E141" r:id="rId140" xr:uid="{0E3AE69D-3F94-4A92-A595-30A97EEC6326}"/>
+    <hyperlink ref="E142" r:id="rId141" xr:uid="{9E88E6E2-49B9-4E1A-9815-DE90079E0D6F}"/>
+    <hyperlink ref="E143" r:id="rId142" xr:uid="{8707E021-C029-4EC8-8BFA-38B9DCF5AD48}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{4F6FED6C-4EE3-42BD-9FE2-AB2C964A9302}"/>
+    <hyperlink ref="E145" r:id="rId144" xr:uid="{8CF5B644-D54C-4082-A06A-8BB8E2094CF1}"/>
+    <hyperlink ref="E146" r:id="rId145" xr:uid="{0E09073E-9142-4082-807F-05AC8296A6A6}"/>
+    <hyperlink ref="E147" r:id="rId146" xr:uid="{A8E846B5-6835-4665-BC89-B750B67F4E94}"/>
+    <hyperlink ref="E148" r:id="rId147" xr:uid="{D882C0AC-8E66-4170-BD88-6183F66F5FE5}"/>
+    <hyperlink ref="E149" r:id="rId148" xr:uid="{FFB86AB8-0F91-419B-AD83-566D261DC9EE}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{5DCDF747-52BA-44BF-9CF1-493B71A16CFD}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{B5B2AA57-D5E3-4BCB-B774-9555F5393E75}"/>
+    <hyperlink ref="E152" r:id="rId151" xr:uid="{24C3E8E1-DF09-4B78-88A7-CDD1704D0888}"/>
+    <hyperlink ref="E153" r:id="rId152" xr:uid="{2BB91795-838A-4D84-B072-0D2EE5C99B7A}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{396AA1E4-F419-4B7C-918E-F161BC8D41F4}"/>
+    <hyperlink ref="E155" r:id="rId154" xr:uid="{B0F82247-FA52-4682-A638-9A5CB918EB95}"/>
+    <hyperlink ref="E156" r:id="rId155" xr:uid="{91F1052F-8ACC-426D-AF4D-124E53AC420C}"/>
+    <hyperlink ref="E157" r:id="rId156" xr:uid="{16E6CCFF-0E23-4885-9E25-C65DD7B5EA83}"/>
+    <hyperlink ref="E158" r:id="rId157" xr:uid="{481EE882-39CE-4153-B732-B8786BE7CAC6}"/>
+    <hyperlink ref="E159" r:id="rId158" xr:uid="{29DF4A1C-FB5D-443B-98A4-E61A0EF8C65B}"/>
+    <hyperlink ref="E160" r:id="rId159" xr:uid="{A7E871E9-6407-460C-B7D3-3B7D09D4E111}"/>
+    <hyperlink ref="E161" r:id="rId160" xr:uid="{640C3FF7-E94A-4BD5-8721-F8B399B3A4B0}"/>
+    <hyperlink ref="E162" r:id="rId161" xr:uid="{43D3BE42-45CD-474C-A3B4-5A385C748014}"/>
+    <hyperlink ref="E163" r:id="rId162" xr:uid="{24FFB4D2-7ACA-41F4-999F-D1A0883CEAA0}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{DC803E68-AA7F-424E-A4E9-71F0433BC237}"/>
+    <hyperlink ref="E165" r:id="rId164" xr:uid="{A1E2E56A-0463-4156-8954-274F2D47525C}"/>
+    <hyperlink ref="E166" r:id="rId165" xr:uid="{47B9693B-0C54-4B25-8519-02E8B758E76A}"/>
+    <hyperlink ref="E167" r:id="rId166" xr:uid="{3147B112-55B6-4C32-8D2C-DFF100356B9F}"/>
+    <hyperlink ref="E168" r:id="rId167" xr:uid="{690BD843-9263-41DB-82FC-E1157C3BD7E0}"/>
+    <hyperlink ref="E169" r:id="rId168" xr:uid="{E9DC6951-82CF-4BB2-B878-5ABC522F2828}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{425F39B7-3A37-4755-A20B-1C07BAEDFD7D}"/>
+    <hyperlink ref="E171" r:id="rId170" xr:uid="{A31877E6-A6D9-4D87-BD8B-5FCE0E50ECC7}"/>
+    <hyperlink ref="E172" r:id="rId171" xr:uid="{A4FC0795-106A-41C3-89EE-81D1A5F6D2C6}"/>
+    <hyperlink ref="E173" r:id="rId172" xr:uid="{132D323D-4EE4-4B52-977F-AE7D445846C1}"/>
+    <hyperlink ref="E174" r:id="rId173" xr:uid="{A25E804B-AD76-4EFD-92A9-5E780A46B58E}"/>
+    <hyperlink ref="E175" r:id="rId174" xr:uid="{71786FAC-8012-4AAD-B7DA-8E9A21F72AE8}"/>
+    <hyperlink ref="E176" r:id="rId175" xr:uid="{D490F689-785B-4EDB-B9C0-8F80C0F6C575}"/>
+    <hyperlink ref="E177" r:id="rId176" xr:uid="{75CA49E4-E896-4AC0-B959-D977046BA6D1}"/>
+    <hyperlink ref="E178" r:id="rId177" xr:uid="{5AF51DC8-BBEB-4CB0-BA23-567BE2CFFE67}"/>
+    <hyperlink ref="E179" r:id="rId178" xr:uid="{8F45A9DD-E989-436F-A9A1-DD4F15E8B5F9}"/>
+    <hyperlink ref="E180" r:id="rId179" xr:uid="{01237B75-3875-4E31-B4C1-8BD7847C7EE7}"/>
+    <hyperlink ref="E181" r:id="rId180" xr:uid="{AE6139D8-609A-4334-9EF9-488E6FCBF9EF}"/>
+    <hyperlink ref="E182" r:id="rId181" xr:uid="{F4ECA0D8-1F1D-4432-AFFF-5671B041A1EC}"/>
+    <hyperlink ref="E183" r:id="rId182" xr:uid="{13034FB6-F409-4C12-92E3-4EC8BB4108A4}"/>
+    <hyperlink ref="E184" r:id="rId183" xr:uid="{EB6C8DB5-FADC-48B0-9C13-B7E26EF6618D}"/>
+    <hyperlink ref="E185" r:id="rId184" xr:uid="{B32DC03A-114C-455B-AF02-D578B42FC2A3}"/>
+    <hyperlink ref="E186" r:id="rId185" xr:uid="{655A210D-74AB-4D09-B5B9-433FAE38F3BC}"/>
+    <hyperlink ref="E187" r:id="rId186" xr:uid="{808F9E81-8257-4D5D-86B7-CB4BE8E82BAC}"/>
+    <hyperlink ref="E188" r:id="rId187" xr:uid="{748E1558-DADA-49E4-A8E8-0CF5257A6613}"/>
+    <hyperlink ref="E189" r:id="rId188" xr:uid="{57CF9646-D76B-4426-A324-5AB2A7CEFEB8}"/>
+    <hyperlink ref="E190" r:id="rId189" xr:uid="{C779315F-AA5D-4B48-839E-927F9A1CC2D0}"/>
+    <hyperlink ref="E191" r:id="rId190" xr:uid="{4B5E8114-AFE0-4C2C-9BA0-2262769CFE7E}"/>
+    <hyperlink ref="E192" r:id="rId191" xr:uid="{1046A880-88C3-4CFF-BA51-D80A6EB69FD1}"/>
+    <hyperlink ref="E193" r:id="rId192" xr:uid="{3AD81504-5D0D-4763-B960-7989FDC1B122}"/>
+    <hyperlink ref="E194" r:id="rId193" xr:uid="{A22857A7-EFB3-4A88-8969-D10AE9CE24CE}"/>
+    <hyperlink ref="E195" r:id="rId194" xr:uid="{F0CB590C-9F00-42C1-84FC-D89321CC3D03}"/>
+    <hyperlink ref="E196" r:id="rId195" xr:uid="{E5A583A6-74B0-4AB3-AC29-7E52481F7A53}"/>
+    <hyperlink ref="E197" r:id="rId196" xr:uid="{FF628744-8A20-433D-A64D-03C0C8DE15BA}"/>
+    <hyperlink ref="E198" r:id="rId197" xr:uid="{C02BA19F-ABB3-46AA-89BC-CB44F3F66FB5}"/>
+    <hyperlink ref="E199" r:id="rId198" xr:uid="{7EEEFE64-19F7-4EAE-87BF-0AED452D48AC}"/>
+    <hyperlink ref="E200" r:id="rId199" xr:uid="{AC6A2C5D-DD5A-4B76-A9C7-41C456C0337D}"/>
+    <hyperlink ref="E201" r:id="rId200" xr:uid="{35DCCDDC-A7AE-4C66-AB2E-570DB1935821}"/>
+    <hyperlink ref="E202" r:id="rId201" xr:uid="{BA344C23-0BC9-4E89-B9F6-FF3CB92FC662}"/>
+    <hyperlink ref="E203" r:id="rId202" xr:uid="{CFB45BBE-5BAF-4FF5-B6AF-05FE5A3FF686}"/>
+    <hyperlink ref="E204" r:id="rId203" xr:uid="{122D8AC3-B859-4821-B863-D70669FDFF03}"/>
+    <hyperlink ref="E205" r:id="rId204" xr:uid="{F91F0346-27EC-409D-8A2A-863376441682}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{87409319-42B9-4DD7-91EF-72670A71B715}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{5F0C5230-AC2D-4A2D-BAA2-DCAD69AAF90E}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{AFCE359E-DD14-4F54-B5AF-396E7FE2BB29}"/>
+    <hyperlink ref="E209" r:id="rId208" xr:uid="{E5E47A1C-E71A-43B8-B1FD-68A09557A86D}"/>
+    <hyperlink ref="E210" r:id="rId209" xr:uid="{733BD1E7-0B74-41DE-BB95-A10A10773D1A}"/>
+    <hyperlink ref="E212" r:id="rId210" xr:uid="{E2EBFA9B-ABC6-47A1-9D75-9E90B8C69D08}"/>
+    <hyperlink ref="E213" r:id="rId211" xr:uid="{53D62F5C-E5C1-4579-8DB1-C53E0B6C5A78}"/>
+    <hyperlink ref="E214" r:id="rId212" xr:uid="{B5836C4A-CA19-49B8-A13C-89F01485B7E2}"/>
+    <hyperlink ref="E215" r:id="rId213" xr:uid="{33BE3396-0DB9-4AF3-909D-9A26D5B87DB5}"/>
+    <hyperlink ref="E216" r:id="rId214" xr:uid="{047A67AB-5471-4AFD-811A-723068FFA98C}"/>
+    <hyperlink ref="E217" r:id="rId215" xr:uid="{CE1CB441-6D83-4A70-99B8-E282BBA50405}"/>
+    <hyperlink ref="E218" r:id="rId216" xr:uid="{5349E8E1-236F-43E9-93A2-4E776F6C8136}"/>
+    <hyperlink ref="E219" r:id="rId217" xr:uid="{2F3D2355-F5EB-40DE-949E-C6A13C0A7BD5}"/>
+    <hyperlink ref="E220" r:id="rId218" xr:uid="{6AA3D7CA-C89E-42AC-8414-00EBBD989319}"/>
+    <hyperlink ref="E221" r:id="rId219" xr:uid="{3672A3D1-76E5-4CE1-B04A-6FA5983085E4}"/>
+    <hyperlink ref="E222" r:id="rId220" xr:uid="{A0698D5E-0BC8-4FEC-8082-AB023F2E014F}"/>
+    <hyperlink ref="E223" r:id="rId221" xr:uid="{133164D2-77A8-4AF8-A43C-3A7B188F0DA7}"/>
+    <hyperlink ref="E224" r:id="rId222" xr:uid="{A3AAE012-2DCD-4FC6-9834-1409EFD85547}"/>
+    <hyperlink ref="E225" r:id="rId223" xr:uid="{B9197A3C-EE12-410A-8081-FD7FBB4A8316}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/articles_metadata.xlsx
+++ b/articles_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlenda1\Multiverse-type-Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B097F7-5BA9-4C03-81FB-ADF03B8CA4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DB1A4-D13C-494B-AE66-75CC3BB0E35D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="978">
   <si>
     <t>title</t>
   </si>
@@ -2945,16 +2945,33 @@
   </si>
   <si>
     <t>URLs</t>
+  </si>
+  <si>
+    <t>interesting paper</t>
+  </si>
+  <si>
+    <t>again, interesting paper, framework for evaluation of analysis</t>
+  </si>
+  <si>
+    <t>page around 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2977,16 +2994,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3301,12 +3321,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -8222,11 +8245,11 @@
       <c r="D214" t="s">
         <v>632</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>960</v>
+      <c r="F214" s="1">
+        <v>0</v>
       </c>
       <c r="G214" t="s">
         <v>960</v>
@@ -8245,11 +8268,11 @@
       <c r="D215" t="s">
         <v>632</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>960</v>
+      <c r="F215" s="1">
+        <v>0</v>
       </c>
       <c r="G215" t="s">
         <v>960</v>
@@ -8268,11 +8291,11 @@
       <c r="D216" t="s">
         <v>632</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>960</v>
+      <c r="F216" s="1">
+        <v>0</v>
       </c>
       <c r="G216" t="s">
         <v>960</v>
@@ -8291,11 +8314,11 @@
       <c r="D217" t="s">
         <v>631</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>960</v>
+      <c r="F217" s="1">
+        <v>0</v>
       </c>
       <c r="G217" t="s">
         <v>960</v>
@@ -8314,11 +8337,11 @@
       <c r="D218" t="s">
         <v>631</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>960</v>
+      <c r="F218" s="1">
+        <v>1</v>
       </c>
       <c r="G218" t="s">
         <v>960</v>
@@ -8337,11 +8360,11 @@
       <c r="D219" t="s">
         <v>632</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>960</v>
+      <c r="F219" s="1">
+        <v>0</v>
       </c>
       <c r="G219" t="s">
         <v>960</v>
@@ -8360,11 +8383,11 @@
       <c r="D220" t="s">
         <v>632</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>960</v>
+      <c r="F220" s="1">
+        <v>0</v>
       </c>
       <c r="G220" t="s">
         <v>960</v>
@@ -8383,11 +8406,11 @@
       <c r="D221" t="s">
         <v>632</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>960</v>
+      <c r="F221" s="1">
+        <v>0</v>
       </c>
       <c r="G221" t="s">
         <v>960</v>
@@ -8406,11 +8429,11 @@
       <c r="D222" t="s">
         <v>631</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>960</v>
+      <c r="F222" s="1">
+        <v>0</v>
       </c>
       <c r="G222" t="s">
         <v>960</v>
@@ -8429,11 +8452,11 @@
       <c r="D223" t="s">
         <v>632</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>960</v>
+      <c r="F223" s="1">
+        <v>0</v>
       </c>
       <c r="G223" t="s">
         <v>960</v>
@@ -8452,11 +8475,11 @@
       <c r="D224" t="s">
         <v>632</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>960</v>
+      <c r="F224" s="1">
+        <v>0</v>
       </c>
       <c r="G224" t="s">
         <v>960</v>
@@ -8475,11 +8498,11 @@
       <c r="D225" t="s">
         <v>632</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>960</v>
+      <c r="F225" s="1">
+        <v>0</v>
       </c>
       <c r="G225" t="s">
         <v>960</v>
@@ -8498,11 +8521,11 @@
       <c r="D226" t="s">
         <v>633</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>960</v>
+      <c r="F226" s="1">
+        <v>1</v>
       </c>
       <c r="G226" t="s">
         <v>960</v>
@@ -8521,11 +8544,11 @@
       <c r="D227" t="s">
         <v>632</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>960</v>
+      <c r="F227" s="1">
+        <v>0</v>
       </c>
       <c r="G227" t="s">
         <v>960</v>
@@ -8544,11 +8567,11 @@
       <c r="D228" t="s">
         <v>632</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>960</v>
+      <c r="F228" s="1">
+        <v>0</v>
       </c>
       <c r="G228" t="s">
         <v>960</v>
@@ -8567,11 +8590,11 @@
       <c r="D229" t="s">
         <v>632</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>960</v>
+      <c r="F229" s="1">
+        <v>1</v>
       </c>
       <c r="G229" t="s">
         <v>960</v>
@@ -8590,14 +8613,11 @@
       <c r="D230" t="s">
         <v>633</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="G230" t="s">
-        <v>960</v>
+      <c r="F230" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -8613,11 +8633,11 @@
       <c r="D231" t="s">
         <v>632</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>960</v>
+      <c r="F231" s="1">
+        <v>0</v>
       </c>
       <c r="G231" t="s">
         <v>960</v>
@@ -8636,14 +8656,14 @@
       <c r="D232" t="s">
         <v>632</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>960</v>
+      <c r="F232" s="1">
+        <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -8659,14 +8679,14 @@
       <c r="D233" t="s">
         <v>632</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>960</v>
+      <c r="F233" s="1">
+        <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -8682,11 +8702,11 @@
       <c r="D234" t="s">
         <v>630</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>960</v>
+      <c r="F234" s="1">
+        <v>1</v>
       </c>
       <c r="G234" t="s">
         <v>960</v>
@@ -8705,11 +8725,11 @@
       <c r="D235" t="s">
         <v>631</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>960</v>
+      <c r="F235" s="1">
+        <v>1</v>
       </c>
       <c r="G235" t="s">
         <v>960</v>
@@ -8728,11 +8748,11 @@
       <c r="D236" t="s">
         <v>632</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>960</v>
+      <c r="F236" s="1">
+        <v>0</v>
       </c>
       <c r="G236" t="s">
         <v>960</v>
@@ -8751,11 +8771,11 @@
       <c r="D237" t="s">
         <v>632</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>960</v>
+      <c r="F237" s="1">
+        <v>1</v>
       </c>
       <c r="G237" t="s">
         <v>960</v>
@@ -8774,11 +8794,11 @@
       <c r="D238" t="s">
         <v>632</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>960</v>
+      <c r="F238" s="1">
+        <v>0</v>
       </c>
       <c r="G238" t="s">
         <v>960</v>
@@ -8797,14 +8817,14 @@
       <c r="D239" t="s">
         <v>632</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>960</v>
+      <c r="F239" s="1">
+        <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -8820,11 +8840,11 @@
       <c r="D240" t="s">
         <v>631</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>960</v>
+      <c r="F240" s="1">
+        <v>0</v>
       </c>
       <c r="G240" t="s">
         <v>960</v>
@@ -8843,11 +8863,11 @@
       <c r="D241" t="s">
         <v>631</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>960</v>
+      <c r="F241" s="1">
+        <v>1</v>
       </c>
       <c r="G241" t="s">
         <v>960</v>
@@ -8866,14 +8886,14 @@
       <c r="D242" t="s">
         <v>632</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>960</v>
+      <c r="F242" s="1">
+        <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -8889,11 +8909,11 @@
       <c r="D243" t="s">
         <v>632</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>960</v>
+      <c r="F243" s="1">
+        <v>1</v>
       </c>
       <c r="G243" t="s">
         <v>960</v>
@@ -8912,11 +8932,11 @@
       <c r="D244" t="s">
         <v>633</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>960</v>
+      <c r="F244" s="1">
+        <v>0</v>
       </c>
       <c r="G244" t="s">
         <v>960</v>
@@ -8935,14 +8955,14 @@
       <c r="D245" t="s">
         <v>632</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>960</v>
+      <c r="F245" s="1">
+        <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -8958,11 +8978,11 @@
       <c r="D246" t="s">
         <v>632</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>960</v>
+      <c r="F246" s="1">
+        <v>0</v>
       </c>
       <c r="G246" t="s">
         <v>960</v>
@@ -8981,11 +9001,11 @@
       <c r="D247" t="s">
         <v>632</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>960</v>
+      <c r="F247" s="1">
+        <v>0</v>
       </c>
       <c r="G247" t="s">
         <v>960</v>
@@ -9004,14 +9024,14 @@
       <c r="D248" t="s">
         <v>631</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>960</v>
+      <c r="F248" s="1">
+        <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -9027,14 +9047,11 @@
       <c r="D249" t="s">
         <v>632</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="G249" t="s">
-        <v>960</v>
+      <c r="F249" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -9050,11 +9067,11 @@
       <c r="D250" t="s">
         <v>632</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>960</v>
+      <c r="F250" s="1">
+        <v>0</v>
       </c>
       <c r="G250" t="s">
         <v>960</v>
@@ -10671,6 +10688,45 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E214" r:id="rId1" xr:uid="{44874411-6181-4182-A440-417FCF0E7164}"/>
+    <hyperlink ref="E215" r:id="rId2" xr:uid="{BC638EF4-46D4-4D8C-8501-1C97D61C74A3}"/>
+    <hyperlink ref="E216" r:id="rId3" xr:uid="{A9BB65C1-01DA-43D3-BB24-8B0F6AD74AB0}"/>
+    <hyperlink ref="E217" r:id="rId4" xr:uid="{DBAAB122-A792-46A8-A941-D3B26732C4B7}"/>
+    <hyperlink ref="E218" r:id="rId5" xr:uid="{C9A60720-D1CF-4584-8F79-CD6FD53040EC}"/>
+    <hyperlink ref="E219" r:id="rId6" xr:uid="{13FE06E3-E831-440D-BBBD-5507083EFF65}"/>
+    <hyperlink ref="E220" r:id="rId7" xr:uid="{54E55FDC-A233-4C88-B573-796D2DB1ECB8}"/>
+    <hyperlink ref="E221" r:id="rId8" xr:uid="{A795E05A-600F-47BE-8838-E15DFB362306}"/>
+    <hyperlink ref="E222" r:id="rId9" location="page=148" xr:uid="{02269322-DF68-4F11-91BB-FE94A198226B}"/>
+    <hyperlink ref="E223" r:id="rId10" xr:uid="{52899411-CEB8-4C68-89CC-372298F00F30}"/>
+    <hyperlink ref="E224" r:id="rId11" xr:uid="{3BCCCB49-8DE3-4E6F-9F3C-9172846B66FD}"/>
+    <hyperlink ref="E225" r:id="rId12" xr:uid="{F0D1280C-2D4C-4094-92DF-10CB81AE9114}"/>
+    <hyperlink ref="E226" r:id="rId13" xr:uid="{974AEDEC-5016-4F6E-BCFE-CFADD0F36659}"/>
+    <hyperlink ref="E227" r:id="rId14" xr:uid="{5BB5D26B-0BD3-4397-870C-0CC8628071EB}"/>
+    <hyperlink ref="E228" r:id="rId15" xr:uid="{E5B21087-7F55-45D7-BEF0-EFF0567E2D9F}"/>
+    <hyperlink ref="E229" r:id="rId16" xr:uid="{4E49221D-B4ED-4DD1-BFAE-DCB5AF402632}"/>
+    <hyperlink ref="E230" r:id="rId17" xr:uid="{73DED326-4D7F-4AEB-834E-DF5EF85EB557}"/>
+    <hyperlink ref="E231" r:id="rId18" xr:uid="{045160E5-F614-4A5A-A32B-D1D89BAA4CC1}"/>
+    <hyperlink ref="E232" r:id="rId19" xr:uid="{91795EF8-55B9-40E9-88C2-C8901753E368}"/>
+    <hyperlink ref="E233" r:id="rId20" xr:uid="{48C7FCB1-93BB-430E-A49E-6E2ADE3BA23F}"/>
+    <hyperlink ref="E234" r:id="rId21" xr:uid="{BA334CE1-2AF8-41DC-915C-6ADC168AB8C9}"/>
+    <hyperlink ref="E235" r:id="rId22" xr:uid="{DE7FEE22-AA99-4CDE-BC92-4E32FAB59B13}"/>
+    <hyperlink ref="E236" r:id="rId23" xr:uid="{72DBE1EC-DE53-4E53-A926-4BB5E4A727D8}"/>
+    <hyperlink ref="E237" r:id="rId24" xr:uid="{1D016D03-2B46-48A2-8DF8-BE84378CDF42}"/>
+    <hyperlink ref="E238" r:id="rId25" xr:uid="{6A07A6A6-3AC9-4053-B016-4F214017F56A}"/>
+    <hyperlink ref="E239" r:id="rId26" xr:uid="{E6C4F0C5-938C-4E8C-9E28-EB4A947BBACD}"/>
+    <hyperlink ref="E240" r:id="rId27" xr:uid="{AC94916D-71EB-495C-95C4-0742FEB80203}"/>
+    <hyperlink ref="E241" r:id="rId28" xr:uid="{C14AEDC2-9893-4A6D-B015-50037E76C65C}"/>
+    <hyperlink ref="E242" r:id="rId29" xr:uid="{99395A97-FA19-4317-9185-BE5202336E6C}"/>
+    <hyperlink ref="E243" r:id="rId30" xr:uid="{0A7D8B1D-0D6E-4413-8022-4AF3CD065304}"/>
+    <hyperlink ref="E244" r:id="rId31" xr:uid="{9AB9C75A-2043-4EA8-822E-C0D0F591812C}"/>
+    <hyperlink ref="E245" r:id="rId32" xr:uid="{734FEA9E-D517-4B01-8A0D-56254D5E086B}"/>
+    <hyperlink ref="E246" r:id="rId33" xr:uid="{C0153A74-5001-4846-B4AD-384707991D70}"/>
+    <hyperlink ref="E247" r:id="rId34" xr:uid="{1C726BF7-3FDF-4D30-9C6C-0365DDC8BE6A}"/>
+    <hyperlink ref="E248" r:id="rId35" xr:uid="{DE62CE30-2474-4476-8D3B-CA434C457E3B}"/>
+    <hyperlink ref="E249" r:id="rId36" xr:uid="{BEAAC372-AA6F-42E0-B69A-A80C9BCBF1F4}"/>
+    <hyperlink ref="E250" r:id="rId37" xr:uid="{AA5C2FFD-27E2-448A-9448-57D9C2126E28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/articles_metadata.xlsx
+++ b/articles_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlenda1\Multiverse-type-Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DB1A4-D13C-494B-AE66-75CC3BB0E35D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00D1750-0B53-42D0-AA23-3A52D97917C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="980">
   <si>
     <t>title</t>
   </si>
@@ -2749,9 +2749,6 @@
     <t>http://www.psysci.org/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=10313</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41562-016-0021%C3%82%C2%A0</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/doi/abs/10.1177/1745691616658637</t>
   </si>
   <si>
@@ -2954,6 +2951,15 @@
   </si>
   <si>
     <t>page around 100</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41562-016-0021</t>
+  </si>
+  <si>
+    <t>mvs paper</t>
+  </si>
+  <si>
+    <t>metaanalysis</t>
   </si>
 </sst>
 </file>
@@ -3321,33 +3327,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D1" t="s">
         <v>972</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>973</v>
-      </c>
-      <c r="E1" t="s">
-        <v>974</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -3373,10 +3379,10 @@
         <v>638</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3396,10 +3402,10 @@
         <v>639</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3419,10 +3425,10 @@
         <v>640</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3442,10 +3448,10 @@
         <v>641</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3465,10 +3471,10 @@
         <v>642</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3488,10 +3494,10 @@
         <v>643</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3511,10 +3517,10 @@
         <v>644</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3534,10 +3540,10 @@
         <v>645</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3557,10 +3563,10 @@
         <v>646</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3580,10 +3586,10 @@
         <v>647</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3603,10 +3609,10 @@
         <v>648</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3626,10 +3632,10 @@
         <v>649</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3649,10 +3655,10 @@
         <v>650</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3672,10 +3678,10 @@
         <v>651</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3695,10 +3701,10 @@
         <v>652</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3718,10 +3724,10 @@
         <v>653</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3741,10 +3747,10 @@
         <v>654</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3764,10 +3770,10 @@
         <v>655</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3787,10 +3793,10 @@
         <v>656</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3810,10 +3816,10 @@
         <v>657</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3833,10 +3839,10 @@
         <v>658</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3856,10 +3862,10 @@
         <v>659</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G23" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3879,10 +3885,10 @@
         <v>660</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3902,10 +3908,10 @@
         <v>661</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3925,10 +3931,10 @@
         <v>662</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G26" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3948,10 +3954,10 @@
         <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3971,10 +3977,10 @@
         <v>664</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3994,10 +4000,10 @@
         <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G29" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4017,10 +4023,10 @@
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4040,10 +4046,10 @@
         <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4063,10 +4069,10 @@
         <v>668</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4086,10 +4092,10 @@
         <v>669</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G33" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4109,10 +4115,10 @@
         <v>670</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4132,10 +4138,10 @@
         <v>671</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4155,10 +4161,10 @@
         <v>672</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4178,10 +4184,10 @@
         <v>673</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4201,10 +4207,10 @@
         <v>674</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4224,10 +4230,10 @@
         <v>675</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G39" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4247,10 +4253,10 @@
         <v>676</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G40" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4270,10 +4276,10 @@
         <v>677</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G41" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4293,10 +4299,10 @@
         <v>678</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4316,10 +4322,10 @@
         <v>679</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G43" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -4339,10 +4345,10 @@
         <v>680</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G44" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -4362,10 +4368,10 @@
         <v>681</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -4385,10 +4391,10 @@
         <v>682</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -4408,10 +4414,10 @@
         <v>683</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G47" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -4431,10 +4437,10 @@
         <v>684</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -4454,10 +4460,10 @@
         <v>685</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -4477,10 +4483,10 @@
         <v>686</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G50" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4500,10 +4506,10 @@
         <v>687</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -4523,10 +4529,10 @@
         <v>688</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G52" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4546,10 +4552,10 @@
         <v>689</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G53" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4569,10 +4575,10 @@
         <v>690</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G54" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4592,10 +4598,10 @@
         <v>691</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4615,10 +4621,10 @@
         <v>692</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G56" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4638,10 +4644,10 @@
         <v>693</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G57" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4661,10 +4667,10 @@
         <v>694</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4684,10 +4690,10 @@
         <v>695</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G59" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4707,10 +4713,10 @@
         <v>696</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G60" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4730,10 +4736,10 @@
         <v>697</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G61" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4753,10 +4759,10 @@
         <v>698</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G62" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4776,10 +4782,10 @@
         <v>699</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G63" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4799,10 +4805,10 @@
         <v>700</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G64" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4822,10 +4828,10 @@
         <v>701</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G65" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4845,10 +4851,10 @@
         <v>702</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G66" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4868,10 +4874,10 @@
         <v>703</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G67" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4891,10 +4897,10 @@
         <v>704</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G68" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4914,10 +4920,10 @@
         <v>705</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G69" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4937,10 +4943,10 @@
         <v>706</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G70" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4960,10 +4966,10 @@
         <v>707</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4983,10 +4989,10 @@
         <v>708</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G72" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -5006,10 +5012,10 @@
         <v>709</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G73" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -5029,10 +5035,10 @@
         <v>710</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G74" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -5052,10 +5058,10 @@
         <v>711</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G75" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -5075,10 +5081,10 @@
         <v>712</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G76" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,10 +5104,10 @@
         <v>713</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G77" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -5121,10 +5127,10 @@
         <v>714</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G78" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -5144,10 +5150,10 @@
         <v>715</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G79" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -5167,10 +5173,10 @@
         <v>716</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G80" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5190,10 +5196,10 @@
         <v>717</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G81" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -5213,10 +5219,10 @@
         <v>718</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G82" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5236,10 +5242,10 @@
         <v>719</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G83" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -5259,10 +5265,10 @@
         <v>720</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G84" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -5282,10 +5288,10 @@
         <v>721</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G85" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -5305,10 +5311,10 @@
         <v>722</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G86" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -5328,10 +5334,10 @@
         <v>723</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G87" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -5351,10 +5357,10 @@
         <v>724</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G88" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -5374,10 +5380,10 @@
         <v>725</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G89" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -5397,10 +5403,10 @@
         <v>726</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G90" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -5420,10 +5426,10 @@
         <v>727</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G91" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -5443,10 +5449,10 @@
         <v>728</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G92" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -5466,10 +5472,10 @@
         <v>729</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G93" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -5489,10 +5495,10 @@
         <v>730</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G94" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -5512,10 +5518,10 @@
         <v>731</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G95" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -5535,10 +5541,10 @@
         <v>732</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G96" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -5558,10 +5564,10 @@
         <v>733</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G97" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -5581,10 +5587,10 @@
         <v>734</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G98" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -5604,10 +5610,10 @@
         <v>735</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G99" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5627,10 +5633,10 @@
         <v>736</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G100" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -5650,10 +5656,10 @@
         <v>737</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G101" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -5673,10 +5679,10 @@
         <v>738</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G102" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5696,10 +5702,10 @@
         <v>739</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G103" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -5719,10 +5725,10 @@
         <v>740</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G104" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -5742,10 +5748,10 @@
         <v>741</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G105" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -5765,10 +5771,10 @@
         <v>742</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G106" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -5788,10 +5794,10 @@
         <v>743</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G107" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -5811,10 +5817,10 @@
         <v>744</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G108" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -5834,10 +5840,10 @@
         <v>745</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G109" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -5857,10 +5863,10 @@
         <v>746</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G110" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -5880,10 +5886,10 @@
         <v>747</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G111" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -5903,10 +5909,10 @@
         <v>748</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G112" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -5926,10 +5932,10 @@
         <v>749</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G113" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -5949,10 +5955,10 @@
         <v>750</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G114" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -5972,10 +5978,10 @@
         <v>751</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G115" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -5995,10 +6001,10 @@
         <v>752</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G116" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -6018,10 +6024,10 @@
         <v>753</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G117" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -6041,10 +6047,10 @@
         <v>754</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G118" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -6064,10 +6070,10 @@
         <v>755</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G119" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -6087,10 +6093,10 @@
         <v>756</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G120" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -6110,10 +6116,10 @@
         <v>757</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G121" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -6133,10 +6139,10 @@
         <v>758</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G122" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -6156,10 +6162,10 @@
         <v>759</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G123" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -6179,10 +6185,10 @@
         <v>760</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G124" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -6202,10 +6208,10 @@
         <v>761</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G125" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -6225,10 +6231,10 @@
         <v>762</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G126" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -6248,10 +6254,10 @@
         <v>763</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G127" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -6271,10 +6277,10 @@
         <v>764</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G128" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -6294,10 +6300,10 @@
         <v>765</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G129" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -6317,10 +6323,10 @@
         <v>766</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G130" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -6340,10 +6346,10 @@
         <v>767</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G131" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -6363,10 +6369,10 @@
         <v>768</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G132" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -6386,10 +6392,10 @@
         <v>769</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G133" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -6409,10 +6415,10 @@
         <v>770</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G134" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -6432,10 +6438,10 @@
         <v>771</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G135" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -6455,10 +6461,10 @@
         <v>772</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G136" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -6478,10 +6484,10 @@
         <v>773</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G137" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -6501,10 +6507,10 @@
         <v>774</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G138" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -6524,10 +6530,10 @@
         <v>775</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G139" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -6547,10 +6553,10 @@
         <v>776</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G140" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -6570,10 +6576,10 @@
         <v>777</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G141" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -6593,10 +6599,10 @@
         <v>778</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G142" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -6616,10 +6622,10 @@
         <v>779</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G143" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -6639,10 +6645,10 @@
         <v>780</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G144" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -6662,10 +6668,10 @@
         <v>781</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G145" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -6685,10 +6691,10 @@
         <v>782</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G146" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -6708,10 +6714,10 @@
         <v>783</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G147" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -6731,10 +6737,10 @@
         <v>784</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G148" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -6754,10 +6760,10 @@
         <v>785</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G149" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -6777,10 +6783,10 @@
         <v>786</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G150" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -6800,10 +6806,10 @@
         <v>787</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G151" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -6823,10 +6829,10 @@
         <v>788</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G152" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -6846,10 +6852,10 @@
         <v>789</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G153" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -6869,10 +6875,10 @@
         <v>790</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G154" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -6892,10 +6898,10 @@
         <v>791</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G155" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -6915,10 +6921,10 @@
         <v>792</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G156" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -6938,10 +6944,10 @@
         <v>793</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G157" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -6961,10 +6967,10 @@
         <v>794</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G158" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -6984,10 +6990,10 @@
         <v>795</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G159" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -7007,10 +7013,10 @@
         <v>796</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G160" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -7030,10 +7036,10 @@
         <v>797</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G161" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -7053,10 +7059,10 @@
         <v>798</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G162" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -7076,10 +7082,10 @@
         <v>799</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G163" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -7099,10 +7105,10 @@
         <v>800</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G164" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -7122,10 +7128,10 @@
         <v>801</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G165" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -7145,10 +7151,10 @@
         <v>802</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G166" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -7168,10 +7174,10 @@
         <v>803</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G167" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -7191,10 +7197,10 @@
         <v>804</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G168" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -7214,10 +7220,10 @@
         <v>805</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G169" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -7237,10 +7243,10 @@
         <v>806</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G170" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -7260,10 +7266,10 @@
         <v>807</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G171" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -7283,10 +7289,10 @@
         <v>808</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G172" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -7306,10 +7312,10 @@
         <v>809</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G173" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -7329,10 +7335,10 @@
         <v>810</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G174" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -7352,10 +7358,10 @@
         <v>811</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G175" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -7375,10 +7381,10 @@
         <v>812</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G176" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -7398,10 +7404,10 @@
         <v>813</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G177" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -7421,10 +7427,10 @@
         <v>814</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G178" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -7444,10 +7450,10 @@
         <v>815</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G179" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -7467,10 +7473,10 @@
         <v>816</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G180" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -7490,10 +7496,10 @@
         <v>817</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G181" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -7513,10 +7519,10 @@
         <v>818</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G182" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -7536,10 +7542,10 @@
         <v>819</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G183" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -7559,10 +7565,10 @@
         <v>820</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G184" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -7582,10 +7588,10 @@
         <v>821</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G185" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -7605,10 +7611,10 @@
         <v>822</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G186" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -7628,10 +7634,10 @@
         <v>823</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G187" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -7651,10 +7657,10 @@
         <v>824</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G188" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -7674,10 +7680,10 @@
         <v>825</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G189" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -7697,10 +7703,10 @@
         <v>826</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G190" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -7720,10 +7726,10 @@
         <v>827</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G191" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -7743,10 +7749,10 @@
         <v>828</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G192" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -7766,10 +7772,10 @@
         <v>829</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G193" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -7789,10 +7795,10 @@
         <v>830</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G194" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -7812,10 +7818,10 @@
         <v>831</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G195" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -7835,10 +7841,10 @@
         <v>832</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G196" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -7858,10 +7864,10 @@
         <v>833</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G197" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -7881,10 +7887,10 @@
         <v>834</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G198" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -7904,10 +7910,10 @@
         <v>835</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G199" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -7927,10 +7933,10 @@
         <v>836</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G200" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -7950,10 +7956,10 @@
         <v>837</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G201" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -7973,10 +7979,10 @@
         <v>838</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G202" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -7996,10 +8002,10 @@
         <v>839</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G203" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -8019,10 +8025,10 @@
         <v>840</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G204" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -8042,10 +8048,10 @@
         <v>841</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G205" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -8065,10 +8071,10 @@
         <v>842</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G206" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -8088,10 +8094,10 @@
         <v>843</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G207" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -8111,10 +8117,10 @@
         <v>844</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G208" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -8134,10 +8140,10 @@
         <v>845</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G209" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -8157,10 +8163,10 @@
         <v>846</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G210" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -8180,10 +8186,10 @@
         <v>847</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G211" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -8203,10 +8209,10 @@
         <v>848</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G212" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -8226,10 +8232,10 @@
         <v>849</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G213" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -8252,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -8275,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -8298,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -8321,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -8344,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -8367,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -8390,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -8413,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -8436,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -8459,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -8505,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -8528,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -8551,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -8574,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -8597,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -8640,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -8663,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -8686,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -8709,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -8732,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -8755,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -8778,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -8801,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -8824,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -8847,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -8870,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -8893,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -8916,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -8939,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -8962,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -8985,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -9008,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -9031,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -9074,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -9090,14 +9096,14 @@
       <c r="D251" t="s">
         <v>632</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>960</v>
+      <c r="F251" s="1">
+        <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -9113,14 +9119,14 @@
       <c r="D252" t="s">
         <v>632</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>960</v>
+      <c r="F252" s="1">
+        <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -9136,14 +9142,14 @@
       <c r="D253" t="s">
         <v>631</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>960</v>
+      <c r="F253" s="1">
+        <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -9159,14 +9165,14 @@
       <c r="D254" t="s">
         <v>632</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>960</v>
+      <c r="F254" s="1">
+        <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -9182,14 +9188,14 @@
       <c r="D255" t="s">
         <v>632</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>960</v>
+      <c r="F255" s="1">
+        <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -9205,14 +9211,14 @@
       <c r="D256" t="s">
         <v>632</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>960</v>
+      <c r="F256" s="1">
+        <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -9228,14 +9234,14 @@
       <c r="D257" t="s">
         <v>632</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>960</v>
+      <c r="F257" s="1">
+        <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -9254,11 +9260,11 @@
       <c r="E258" t="s">
         <v>894</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>960</v>
+      <c r="F258" s="1">
+        <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -9274,14 +9280,14 @@
       <c r="D259" t="s">
         <v>632</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>960</v>
+      <c r="F259" s="1">
+        <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -9297,14 +9303,14 @@
       <c r="D260" t="s">
         <v>632</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>960</v>
+      <c r="F260" s="1">
+        <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -9320,14 +9326,14 @@
       <c r="D261" t="s">
         <v>632</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>960</v>
+      <c r="F261" s="1">
+        <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -9343,14 +9349,14 @@
       <c r="D262" t="s">
         <v>632</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>960</v>
+      <c r="F262" s="1">
+        <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -9366,14 +9372,14 @@
       <c r="D263" t="s">
         <v>632</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>960</v>
+      <c r="F263" s="1">
+        <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -9389,14 +9395,14 @@
       <c r="D264" t="s">
         <v>632</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>960</v>
+      <c r="F264" s="1">
+        <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -9412,14 +9418,14 @@
       <c r="D265" t="s">
         <v>632</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>960</v>
+      <c r="F265" s="1">
+        <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -9435,14 +9441,14 @@
       <c r="D266" t="s">
         <v>632</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>960</v>
+      <c r="F266" s="1">
+        <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -9458,14 +9464,14 @@
       <c r="D267" t="s">
         <v>632</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>960</v>
+      <c r="F267" s="1">
+        <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -9481,14 +9487,14 @@
       <c r="D268" t="s">
         <v>632</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>960</v>
+      <c r="F268" s="1">
+        <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -9504,14 +9510,14 @@
       <c r="D269" t="s">
         <v>632</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>960</v>
+      <c r="F269" s="1">
+        <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -9530,11 +9536,11 @@
       <c r="E270" t="s">
         <v>906</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>960</v>
+      <c r="F270" s="1">
+        <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -9553,11 +9559,11 @@
       <c r="E271" t="s">
         <v>907</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>960</v>
+      <c r="F271" s="1">
+        <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -9576,11 +9582,11 @@
       <c r="E272" t="s">
         <v>908</v>
       </c>
-      <c r="F272" s="1" t="s">
-        <v>960</v>
+      <c r="F272" s="1">
+        <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -9596,14 +9602,14 @@
       <c r="D273" t="s">
         <v>630</v>
       </c>
-      <c r="E273" t="s">
-        <v>909</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>960</v>
+      <c r="E273" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -9620,13 +9626,13 @@
         <v>629</v>
       </c>
       <c r="E274" t="s">
-        <v>910</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>960</v>
+        <v>909</v>
+      </c>
+      <c r="F274" s="1">
+        <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -9642,14 +9648,14 @@
       <c r="D275" t="s">
         <v>629</v>
       </c>
-      <c r="E275" t="s">
-        <v>911</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>960</v>
+      <c r="E275" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F275" s="1">
+        <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -9665,14 +9671,14 @@
       <c r="D276" t="s">
         <v>630</v>
       </c>
-      <c r="E276" t="s">
-        <v>912</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>960</v>
+      <c r="E276" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -9688,14 +9694,14 @@
       <c r="D277" t="s">
         <v>629</v>
       </c>
-      <c r="E277" t="s">
-        <v>913</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>960</v>
+      <c r="E277" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="F277" s="1">
+        <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -9711,14 +9717,14 @@
       <c r="D278" t="s">
         <v>630</v>
       </c>
-      <c r="E278" t="s">
-        <v>914</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>960</v>
+      <c r="E278" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -9734,14 +9740,14 @@
       <c r="D279" t="s">
         <v>629</v>
       </c>
-      <c r="E279" t="s">
-        <v>915</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>960</v>
+      <c r="E279" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -9757,14 +9763,14 @@
       <c r="D280" t="s">
         <v>630</v>
       </c>
-      <c r="E280" t="s">
-        <v>916</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>960</v>
+      <c r="E280" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="F280" s="1">
+        <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -9780,14 +9786,14 @@
       <c r="D281" t="s">
         <v>630</v>
       </c>
-      <c r="E281" t="s">
-        <v>917</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>960</v>
+      <c r="E281" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -9803,14 +9809,14 @@
       <c r="D282" t="s">
         <v>630</v>
       </c>
-      <c r="E282" t="s">
-        <v>918</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>960</v>
+      <c r="E282" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -9826,14 +9832,14 @@
       <c r="D283" t="s">
         <v>630</v>
       </c>
-      <c r="E283" t="s">
-        <v>919</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>960</v>
+      <c r="E283" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -9849,14 +9855,14 @@
       <c r="D284" t="s">
         <v>629</v>
       </c>
-      <c r="E284" t="s">
-        <v>920</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>960</v>
+      <c r="E284" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -9872,14 +9878,14 @@
       <c r="D285" t="s">
         <v>630</v>
       </c>
-      <c r="E285" t="s">
-        <v>921</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>960</v>
+      <c r="E285" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -9895,14 +9901,14 @@
       <c r="D286" t="s">
         <v>631</v>
       </c>
-      <c r="E286" t="s">
-        <v>922</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>960</v>
+      <c r="E286" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
       </c>
       <c r="G286" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -9918,14 +9924,14 @@
       <c r="D287" t="s">
         <v>629</v>
       </c>
-      <c r="E287" t="s">
-        <v>923</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>960</v>
+      <c r="E287" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="F287" s="1">
+        <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -9941,14 +9947,14 @@
       <c r="D288" t="s">
         <v>632</v>
       </c>
-      <c r="E288" t="s">
-        <v>924</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>960</v>
+      <c r="E288" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -9964,14 +9970,14 @@
       <c r="D289" t="s">
         <v>631</v>
       </c>
-      <c r="E289" t="s">
-        <v>925</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>960</v>
+      <c r="E289" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -9987,14 +9993,14 @@
       <c r="D290" t="s">
         <v>631</v>
       </c>
-      <c r="E290" t="s">
-        <v>926</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>960</v>
+      <c r="E290" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -10010,14 +10016,14 @@
       <c r="D291" t="s">
         <v>630</v>
       </c>
-      <c r="E291" t="s">
-        <v>927</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>960</v>
+      <c r="E291" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -10033,14 +10039,14 @@
       <c r="D292" t="s">
         <v>630</v>
       </c>
-      <c r="E292" t="s">
-        <v>928</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>960</v>
+      <c r="E292" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -10056,14 +10062,14 @@
       <c r="D293" t="s">
         <v>631</v>
       </c>
-      <c r="E293" t="s">
-        <v>929</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>960</v>
+      <c r="E293" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
       </c>
       <c r="G293" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -10079,14 +10085,14 @@
       <c r="D294" t="s">
         <v>631</v>
       </c>
-      <c r="E294" t="s">
-        <v>930</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>960</v>
+      <c r="E294" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F294" s="1">
+        <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -10102,14 +10108,14 @@
       <c r="D295" t="s">
         <v>630</v>
       </c>
-      <c r="E295" t="s">
-        <v>931</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>960</v>
+      <c r="E295" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F295" s="1">
+        <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -10125,14 +10131,14 @@
       <c r="D296" t="s">
         <v>629</v>
       </c>
-      <c r="E296" t="s">
-        <v>932</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>960</v>
+      <c r="E296" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -10148,14 +10154,14 @@
       <c r="D297" t="s">
         <v>629</v>
       </c>
-      <c r="E297" t="s">
-        <v>933</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>960</v>
+      <c r="E297" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -10171,14 +10177,14 @@
       <c r="D298" t="s">
         <v>630</v>
       </c>
-      <c r="E298" t="s">
-        <v>934</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>960</v>
+      <c r="E298" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -10194,14 +10200,14 @@
       <c r="D299" t="s">
         <v>632</v>
       </c>
-      <c r="E299" t="s">
-        <v>935</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>960</v>
+      <c r="E299" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -10217,14 +10223,14 @@
       <c r="D300" t="s">
         <v>632</v>
       </c>
-      <c r="E300" t="s">
-        <v>936</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>960</v>
+      <c r="E300" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -10240,14 +10246,14 @@
       <c r="D301" t="s">
         <v>630</v>
       </c>
-      <c r="E301" t="s">
-        <v>937</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>960</v>
+      <c r="E301" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -10263,14 +10269,14 @@
       <c r="D302" t="s">
         <v>632</v>
       </c>
-      <c r="E302" t="s">
-        <v>938</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>960</v>
+      <c r="E302" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -10287,13 +10293,13 @@
         <v>629</v>
       </c>
       <c r="E303" t="s">
-        <v>939</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>960</v>
+        <v>938</v>
+      </c>
+      <c r="F303" s="1">
+        <v>1</v>
       </c>
       <c r="G303" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -10309,14 +10315,14 @@
       <c r="D304" t="s">
         <v>629</v>
       </c>
-      <c r="E304" t="s">
-        <v>940</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>960</v>
+      <c r="E304" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -10332,14 +10338,14 @@
       <c r="D305" t="s">
         <v>632</v>
       </c>
-      <c r="E305" t="s">
-        <v>941</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>960</v>
+      <c r="E305" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -10355,14 +10361,14 @@
       <c r="D306" t="s">
         <v>631</v>
       </c>
-      <c r="E306" t="s">
-        <v>942</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>960</v>
+      <c r="E306" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -10378,14 +10384,14 @@
       <c r="D307" t="s">
         <v>632</v>
       </c>
-      <c r="E307" t="s">
-        <v>943</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>960</v>
+      <c r="E307" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -10401,14 +10407,14 @@
       <c r="D308" t="s">
         <v>632</v>
       </c>
-      <c r="E308" t="s">
-        <v>944</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>960</v>
+      <c r="E308" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="F308" s="1">
+        <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -10424,14 +10430,14 @@
       <c r="D309" t="s">
         <v>632</v>
       </c>
-      <c r="E309" t="s">
-        <v>945</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>960</v>
+      <c r="E309" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -10447,14 +10453,14 @@
       <c r="D310" t="s">
         <v>631</v>
       </c>
-      <c r="E310" t="s">
-        <v>946</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>960</v>
+      <c r="E310" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -10470,14 +10476,14 @@
       <c r="D311" t="s">
         <v>632</v>
       </c>
-      <c r="E311" t="s">
-        <v>947</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>960</v>
+      <c r="E311" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -10494,13 +10500,13 @@
         <v>632</v>
       </c>
       <c r="E312" t="s">
-        <v>948</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -10516,14 +10522,14 @@
       <c r="D313" t="s">
         <v>632</v>
       </c>
-      <c r="E313" t="s">
-        <v>949</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>960</v>
+      <c r="E313" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -10539,14 +10545,14 @@
       <c r="D314" t="s">
         <v>631</v>
       </c>
-      <c r="E314" t="s">
-        <v>950</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>960</v>
+      <c r="E314" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -10562,14 +10568,14 @@
       <c r="D315" t="s">
         <v>632</v>
       </c>
-      <c r="E315" t="s">
-        <v>951</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>960</v>
+      <c r="E315" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F315" s="1">
+        <v>1</v>
       </c>
       <c r="G315" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -10585,14 +10591,14 @@
       <c r="D316" t="s">
         <v>632</v>
       </c>
-      <c r="E316" t="s">
-        <v>952</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>960</v>
+      <c r="E316" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -10608,14 +10614,14 @@
       <c r="D317" t="s">
         <v>630</v>
       </c>
-      <c r="E317" t="s">
-        <v>953</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>960</v>
+      <c r="E317" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -10631,14 +10637,14 @@
       <c r="D318" t="s">
         <v>631</v>
       </c>
-      <c r="E318" t="s">
-        <v>954</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>960</v>
+      <c r="E318" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -10654,14 +10660,14 @@
       <c r="D319" t="s">
         <v>632</v>
       </c>
-      <c r="E319" t="s">
-        <v>955</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>960</v>
+      <c r="E319" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F319" s="1">
+        <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -10678,13 +10684,13 @@
         <v>633</v>
       </c>
       <c r="E320" t="s">
-        <v>956</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -10726,6 +10732,68 @@
     <hyperlink ref="E248" r:id="rId35" xr:uid="{DE62CE30-2474-4476-8D3B-CA434C457E3B}"/>
     <hyperlink ref="E249" r:id="rId36" xr:uid="{BEAAC372-AA6F-42E0-B69A-A80C9BCBF1F4}"/>
     <hyperlink ref="E250" r:id="rId37" xr:uid="{AA5C2FFD-27E2-448A-9448-57D9C2126E28}"/>
+    <hyperlink ref="E251" r:id="rId38" xr:uid="{A71649C1-DFA1-47F0-A83A-DD46B1D9F33B}"/>
+    <hyperlink ref="E252" r:id="rId39" xr:uid="{FAB07CFA-C42D-41C3-BC51-6C047A4F631A}"/>
+    <hyperlink ref="E253" r:id="rId40" xr:uid="{07619AD0-FAE6-435B-933F-CADCBCFB7840}"/>
+    <hyperlink ref="E254" r:id="rId41" xr:uid="{BF836E66-ACE5-4E9F-A1D5-374BB72BE8CD}"/>
+    <hyperlink ref="E255" r:id="rId42" xr:uid="{E8CDD1A1-3121-4285-B763-61A156B33C5B}"/>
+    <hyperlink ref="E256" r:id="rId43" xr:uid="{EDC00FDA-9338-4D77-B6C2-9633EAE3400C}"/>
+    <hyperlink ref="E257" r:id="rId44" xr:uid="{6242D261-0408-422E-85E1-5A1059452DB6}"/>
+    <hyperlink ref="E259" r:id="rId45" xr:uid="{F1AD0927-7EB5-4CC5-BBDD-86587215D0BB}"/>
+    <hyperlink ref="E260" r:id="rId46" xr:uid="{A847F8EA-73B5-49F7-901D-7F0DF51072A2}"/>
+    <hyperlink ref="E261" r:id="rId47" xr:uid="{D99B0E47-2B79-4B99-80FE-5F958BC7663A}"/>
+    <hyperlink ref="E262" r:id="rId48" xr:uid="{CE0539A5-9647-4DC2-9434-960FC3133125}"/>
+    <hyperlink ref="E263" r:id="rId49" xr:uid="{EAE0914A-0E47-4E80-A9F3-CD31D380793A}"/>
+    <hyperlink ref="E264" r:id="rId50" xr:uid="{153CA75C-A630-4B0D-A906-9E733A202349}"/>
+    <hyperlink ref="E265" r:id="rId51" xr:uid="{0F0FC67D-5F22-487B-81C4-66A4EBC83AC0}"/>
+    <hyperlink ref="E266" r:id="rId52" xr:uid="{7B4CBFA4-0378-4C60-811E-E851B2E6596B}"/>
+    <hyperlink ref="E267" r:id="rId53" xr:uid="{9D2AB88A-F8B2-405C-B078-D58E56BE7F87}"/>
+    <hyperlink ref="E268" r:id="rId54" xr:uid="{A3C3338B-E99C-49AB-90E1-71BD9E2301AE}"/>
+    <hyperlink ref="E269" r:id="rId55" xr:uid="{FAAA03F7-583A-4CBC-A50D-B45C8192A0A2}"/>
+    <hyperlink ref="E273" r:id="rId56" xr:uid="{69F0DE51-5E60-43FF-96AF-598BE7584449}"/>
+    <hyperlink ref="E275" r:id="rId57" xr:uid="{F2989BFE-F40E-4508-A142-140AE28EFD15}"/>
+    <hyperlink ref="E276" r:id="rId58" xr:uid="{876B1468-4D68-4C90-95EC-0608E44F7790}"/>
+    <hyperlink ref="E277" r:id="rId59" xr:uid="{737800C7-6399-4507-923E-904795C2796C}"/>
+    <hyperlink ref="E278" r:id="rId60" xr:uid="{23CA6B86-1AB4-49F3-8AD9-A2DBB2386443}"/>
+    <hyperlink ref="E279" r:id="rId61" xr:uid="{CCC6603D-C50B-4D55-84D3-7706BA4DC8D4}"/>
+    <hyperlink ref="E280" r:id="rId62" xr:uid="{7CD86F1D-73E2-4227-A288-1AFB610A4AAD}"/>
+    <hyperlink ref="E281" r:id="rId63" xr:uid="{984AB3C0-939A-4F5F-9232-2A3586971B1B}"/>
+    <hyperlink ref="E282" r:id="rId64" xr:uid="{2B00815D-736D-47B3-BD98-3B0C8693DC05}"/>
+    <hyperlink ref="E283" r:id="rId65" xr:uid="{9DD1F895-0083-401D-BF30-DDC875420B67}"/>
+    <hyperlink ref="E284" r:id="rId66" xr:uid="{A9D5C317-BD82-4381-99EE-705F9EEE33BB}"/>
+    <hyperlink ref="E285" r:id="rId67" xr:uid="{3C8B2531-7964-4F9B-A70C-BB302C67E9C6}"/>
+    <hyperlink ref="E286" r:id="rId68" xr:uid="{B796C198-8ECF-4046-A532-BA3CB7F58EF0}"/>
+    <hyperlink ref="E287" r:id="rId69" xr:uid="{77E20E7E-73DC-48E6-901B-9D6E715AD0B4}"/>
+    <hyperlink ref="E288" r:id="rId70" xr:uid="{BB8BD08E-2A2A-49BD-9AAB-866984928F6E}"/>
+    <hyperlink ref="E289" r:id="rId71" xr:uid="{D4BD10D4-8EA0-4EDE-B05B-59BC68420806}"/>
+    <hyperlink ref="E290" r:id="rId72" xr:uid="{241C3D35-1723-4E4B-B14F-0C2E924F2EF7}"/>
+    <hyperlink ref="E291" r:id="rId73" xr:uid="{FEE28247-B6C4-48E8-820B-1C18EF2A652F}"/>
+    <hyperlink ref="E292" r:id="rId74" xr:uid="{D6B3C273-BAD1-48E9-A3B0-1E0816ADDFC9}"/>
+    <hyperlink ref="E293" r:id="rId75" xr:uid="{974C071F-49C0-4D49-969F-4ECB408ABFC7}"/>
+    <hyperlink ref="E294" r:id="rId76" xr:uid="{6E1683AD-2C5D-4637-9B2C-15157DFE3084}"/>
+    <hyperlink ref="E295" r:id="rId77" xr:uid="{0696468C-0321-42E0-9220-47E31D0D9E6F}"/>
+    <hyperlink ref="E296" r:id="rId78" xr:uid="{207D43E8-43D3-45EF-BD8E-EEA4A3B35166}"/>
+    <hyperlink ref="E297" r:id="rId79" xr:uid="{A3F3DF2C-BBF6-4640-9EA3-3E46C4DBA999}"/>
+    <hyperlink ref="E298" r:id="rId80" xr:uid="{A1144EE1-CC15-4034-9088-ED7584043E12}"/>
+    <hyperlink ref="E299" r:id="rId81" xr:uid="{B181A9F5-7C4E-4376-88D0-FC5BEF321929}"/>
+    <hyperlink ref="E300" r:id="rId82" xr:uid="{B1B20292-BB6A-4F7D-A3A2-96398457CA75}"/>
+    <hyperlink ref="E301" r:id="rId83" xr:uid="{3B9158DB-A206-4644-9F57-DBBA32AD5385}"/>
+    <hyperlink ref="E302" r:id="rId84" xr:uid="{B7909C77-0FDB-4DC4-9623-7FE022D71678}"/>
+    <hyperlink ref="E304" r:id="rId85" xr:uid="{DC604A37-A995-4640-B7B3-B4C3DAF1484E}"/>
+    <hyperlink ref="E305" r:id="rId86" xr:uid="{9B9A155E-60BB-4642-8E56-077E4A816907}"/>
+    <hyperlink ref="E306" r:id="rId87" xr:uid="{F61E495A-793D-4A15-813A-F8248A2EA9FC}"/>
+    <hyperlink ref="E307" r:id="rId88" xr:uid="{B580676C-F2A9-4149-9E3A-1CE15BDC56EA}"/>
+    <hyperlink ref="E308" r:id="rId89" xr:uid="{1978FC6A-A4FC-4A32-AAE3-4461A1526402}"/>
+    <hyperlink ref="E309" r:id="rId90" xr:uid="{34E686AB-EB45-4140-B868-D707DE4B9CD3}"/>
+    <hyperlink ref="E310" r:id="rId91" xr:uid="{30E623A0-8328-49C5-A754-CFEF4DC03EE5}"/>
+    <hyperlink ref="E311" r:id="rId92" xr:uid="{B920584A-746B-4CB8-8989-257CFD744010}"/>
+    <hyperlink ref="E313" r:id="rId93" xr:uid="{03510B87-AD63-4CBE-85D7-52EFF5081E13}"/>
+    <hyperlink ref="E314" r:id="rId94" xr:uid="{70B78D94-4DB9-4176-968E-BA5D3CC97EEA}"/>
+    <hyperlink ref="E315" r:id="rId95" xr:uid="{28BFE190-590E-4BDB-BA27-5F8149A471DD}"/>
+    <hyperlink ref="E316" r:id="rId96" xr:uid="{D91A404F-35E1-49F6-96A4-3C3848A80A2A}"/>
+    <hyperlink ref="E317" r:id="rId97" xr:uid="{B2BC2FC6-0C1F-4AC2-B771-D75F1796771C}"/>
+    <hyperlink ref="E318" r:id="rId98" xr:uid="{467180E5-64CE-4968-8668-306140491CCE}"/>
+    <hyperlink ref="E319" r:id="rId99" xr:uid="{540CFE43-14AC-45E6-B344-0487A5EEFBE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
